--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="C2" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="D2" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="E2" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="F2" t="n">
-        <v>22479.4023</v>
+        <v>6740.7335</v>
       </c>
       <c r="G2" t="n">
-        <v>12.192</v>
+        <v>12.18716666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>12.47</v>
       </c>
       <c r="C3" t="n">
-        <v>12.69</v>
+        <v>12.47</v>
       </c>
       <c r="D3" t="n">
-        <v>12.69</v>
+        <v>12.47</v>
       </c>
       <c r="E3" t="n">
         <v>12.47</v>
       </c>
       <c r="F3" t="n">
-        <v>6017.0173</v>
+        <v>22479.4023</v>
       </c>
       <c r="G3" t="n">
-        <v>12.19883333333334</v>
+        <v>12.192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C4" t="n">
         <v>12.69</v>
       </c>
-      <c r="C4" t="n">
-        <v>12.86</v>
-      </c>
       <c r="D4" t="n">
-        <v>12.86</v>
+        <v>12.69</v>
       </c>
       <c r="E4" t="n">
-        <v>12.69</v>
+        <v>12.47</v>
       </c>
       <c r="F4" t="n">
-        <v>78244.2749</v>
+        <v>6017.0173</v>
       </c>
       <c r="G4" t="n">
-        <v>12.20916666666667</v>
+        <v>12.19883333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C5" t="n">
         <v>12.86</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.87</v>
-      </c>
       <c r="D5" t="n">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="E5" t="n">
-        <v>12.86</v>
+        <v>12.69</v>
       </c>
       <c r="F5" t="n">
-        <v>26430.9973</v>
+        <v>78244.2749</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21766666666667</v>
+        <v>12.20916666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="C6" t="n">
         <v>12.87</v>
@@ -582,13 +582,13 @@
         <v>12.87</v>
       </c>
       <c r="E6" t="n">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="F6" t="n">
-        <v>14000</v>
+        <v>26430.9973</v>
       </c>
       <c r="G6" t="n">
-        <v>12.22483333333333</v>
+        <v>12.21766666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>12.87</v>
       </c>
       <c r="F7" t="n">
-        <v>15527.8186</v>
+        <v>14000</v>
       </c>
       <c r="G7" t="n">
-        <v>12.23533333333333</v>
+        <v>12.22483333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>12.87</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12.87</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12.87</v>
       </c>
       <c r="E8" t="n">
         <v>12.87</v>
       </c>
       <c r="F8" t="n">
-        <v>8399.709800000001</v>
+        <v>15527.8186</v>
       </c>
       <c r="G8" t="n">
-        <v>12.248</v>
+        <v>12.23533333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>12.87</v>
       </c>
       <c r="C9" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12.87</v>
       </c>
       <c r="F9" t="n">
-        <v>169409.3070144522</v>
+        <v>8399.709800000001</v>
       </c>
       <c r="G9" t="n">
-        <v>12.26066666666667</v>
+        <v>12.248</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.08</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13.08</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>3004.9014</v>
+        <v>169409.3070144522</v>
       </c>
       <c r="G10" t="n">
-        <v>12.277</v>
+        <v>12.26066666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1</v>
+        <v>13.08</v>
       </c>
       <c r="C11" t="n">
         <v>13.1</v>
@@ -757,13 +757,13 @@
         <v>13.1</v>
       </c>
       <c r="E11" t="n">
-        <v>13.1</v>
+        <v>13.08</v>
       </c>
       <c r="F11" t="n">
-        <v>112271.0655</v>
+        <v>3004.9014</v>
       </c>
       <c r="G11" t="n">
-        <v>12.29316666666667</v>
+        <v>12.277</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.18</v>
+        <v>13.1</v>
       </c>
       <c r="C12" t="n">
-        <v>13.21</v>
+        <v>13.1</v>
       </c>
       <c r="D12" t="n">
-        <v>13.21</v>
+        <v>13.1</v>
       </c>
       <c r="E12" t="n">
-        <v>13.18</v>
+        <v>13.1</v>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>112271.0655</v>
       </c>
       <c r="G12" t="n">
-        <v>12.31133333333334</v>
+        <v>12.29316666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.21</v>
+        <v>13.18</v>
       </c>
       <c r="C13" t="n">
         <v>13.21</v>
@@ -827,13 +827,13 @@
         <v>13.21</v>
       </c>
       <c r="E13" t="n">
-        <v>13.21</v>
+        <v>13.18</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="n">
-        <v>12.3295</v>
+        <v>12.31133333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>13.21</v>
       </c>
       <c r="C14" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="D14" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="E14" t="n">
-        <v>13.19</v>
+        <v>13.21</v>
       </c>
       <c r="F14" t="n">
-        <v>50642</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="n">
-        <v>12.346</v>
+        <v>12.3295</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>13.19</v>
       </c>
       <c r="F15" t="n">
-        <v>62603</v>
+        <v>50642</v>
       </c>
       <c r="G15" t="n">
-        <v>12.36433333333334</v>
+        <v>12.346</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="C16" t="n">
         <v>13.22</v>
@@ -932,13 +932,13 @@
         <v>13.22</v>
       </c>
       <c r="E16" t="n">
-        <v>13.22</v>
+        <v>13.19</v>
       </c>
       <c r="F16" t="n">
-        <v>8000</v>
+        <v>62603</v>
       </c>
       <c r="G16" t="n">
-        <v>12.38266666666667</v>
+        <v>12.36433333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>13.22</v>
       </c>
       <c r="C17" t="n">
-        <v>13.44</v>
+        <v>13.22</v>
       </c>
       <c r="D17" t="n">
-        <v>13.44</v>
+        <v>13.22</v>
       </c>
       <c r="E17" t="n">
         <v>13.22</v>
       </c>
       <c r="F17" t="n">
-        <v>256477.1964</v>
+        <v>8000</v>
       </c>
       <c r="G17" t="n">
-        <v>12.40266666666667</v>
+        <v>12.38266666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.44</v>
+        <v>13.22</v>
       </c>
       <c r="C18" t="n">
         <v>13.44</v>
@@ -1002,13 +1002,13 @@
         <v>13.44</v>
       </c>
       <c r="E18" t="n">
-        <v>13.44</v>
+        <v>13.22</v>
       </c>
       <c r="F18" t="n">
-        <v>5304</v>
+        <v>256477.1964</v>
       </c>
       <c r="G18" t="n">
-        <v>12.42500000000001</v>
+        <v>12.40266666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>13.44</v>
       </c>
       <c r="F19" t="n">
-        <v>21565.2535</v>
+        <v>5304</v>
       </c>
       <c r="G19" t="n">
-        <v>12.44816666666667</v>
+        <v>12.42500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.43</v>
+        <v>13.44</v>
       </c>
       <c r="C20" t="n">
-        <v>13.5</v>
+        <v>13.44</v>
       </c>
       <c r="D20" t="n">
-        <v>13.5</v>
+        <v>13.44</v>
       </c>
       <c r="E20" t="n">
-        <v>13.43</v>
+        <v>13.44</v>
       </c>
       <c r="F20" t="n">
-        <v>385574.4126</v>
+        <v>21565.2535</v>
       </c>
       <c r="G20" t="n">
-        <v>12.47166666666667</v>
+        <v>12.44816666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.52</v>
+        <v>13.43</v>
       </c>
       <c r="C21" t="n">
         <v>13.5</v>
       </c>
       <c r="D21" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E21" t="n">
-        <v>13.5</v>
+        <v>13.43</v>
       </c>
       <c r="F21" t="n">
-        <v>61387.2739</v>
+        <v>385574.4126</v>
       </c>
       <c r="G21" t="n">
-        <v>12.49666666666667</v>
+        <v>12.47166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="C22" t="n">
         <v>13.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13.68</v>
       </c>
       <c r="D22" t="n">
         <v>13.69</v>
@@ -1145,10 +1145,10 @@
         <v>13.5</v>
       </c>
       <c r="F22" t="n">
-        <v>117898.0691</v>
+        <v>61387.2739</v>
       </c>
       <c r="G22" t="n">
-        <v>12.52266666666667</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.66</v>
+        <v>13.5</v>
       </c>
       <c r="C23" t="n">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="D23" t="n">
-        <v>13.66</v>
+        <v>13.69</v>
       </c>
       <c r="E23" t="n">
-        <v>13.66</v>
+        <v>13.5</v>
       </c>
       <c r="F23" t="n">
-        <v>121810.5145</v>
+        <v>117898.0691</v>
       </c>
       <c r="G23" t="n">
-        <v>12.55016666666667</v>
+        <v>12.52266666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1215,10 +1215,10 @@
         <v>13.66</v>
       </c>
       <c r="F24" t="n">
-        <v>25876.6914</v>
+        <v>121810.5145</v>
       </c>
       <c r="G24" t="n">
-        <v>12.57766666666667</v>
+        <v>12.55016666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="D25" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="E25" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="F25" t="n">
-        <v>63710.0416</v>
+        <v>25876.6914</v>
       </c>
       <c r="G25" t="n">
-        <v>12.60466666666667</v>
+        <v>12.57766666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.5</v>
+        <v>13.67</v>
       </c>
       <c r="C26" t="n">
-        <v>13.5</v>
+        <v>13.67</v>
       </c>
       <c r="D26" t="n">
-        <v>13.5</v>
+        <v>13.67</v>
       </c>
       <c r="E26" t="n">
-        <v>13.5</v>
+        <v>13.67</v>
       </c>
       <c r="F26" t="n">
-        <v>44926.109</v>
+        <v>63710.0416</v>
       </c>
       <c r="G26" t="n">
-        <v>12.62616666666667</v>
+        <v>12.60466666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.51</v>
+        <v>13.5</v>
       </c>
       <c r="C27" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="D27" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E27" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F27" t="n">
-        <v>49655.1256</v>
+        <v>44926.109</v>
       </c>
       <c r="G27" t="n">
-        <v>12.6505</v>
+        <v>12.62616666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.69</v>
+        <v>13.51</v>
       </c>
       <c r="C28" t="n">
         <v>13.69</v>
@@ -1352,13 +1352,13 @@
         <v>13.69</v>
       </c>
       <c r="E28" t="n">
-        <v>13.69</v>
+        <v>13.4</v>
       </c>
       <c r="F28" t="n">
-        <v>13671.9424</v>
+        <v>49655.1256</v>
       </c>
       <c r="G28" t="n">
-        <v>12.67783333333334</v>
+        <v>12.6505</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>13.69</v>
       </c>
       <c r="C29" t="n">
-        <v>13.84</v>
+        <v>13.69</v>
       </c>
       <c r="D29" t="n">
-        <v>13.84</v>
+        <v>13.69</v>
       </c>
       <c r="E29" t="n">
         <v>13.69</v>
       </c>
       <c r="F29" t="n">
-        <v>72364.16220000001</v>
+        <v>13671.9424</v>
       </c>
       <c r="G29" t="n">
-        <v>12.70766666666668</v>
+        <v>12.67783333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C30" t="n">
         <v>13.84</v>
       </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>13.84</v>
       </c>
       <c r="E30" t="n">
-        <v>13.84</v>
+        <v>13.69</v>
       </c>
       <c r="F30" t="n">
-        <v>283064.1106307857</v>
+        <v>72364.16220000001</v>
       </c>
       <c r="G30" t="n">
-        <v>12.74266666666668</v>
+        <v>12.70766666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>13.84</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>
@@ -1457,13 +1457,13 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>13.84</v>
       </c>
       <c r="F31" t="n">
-        <v>15623.6632</v>
+        <v>283064.1106307857</v>
       </c>
       <c r="G31" t="n">
-        <v>12.77766666666668</v>
+        <v>12.74266666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
         <v>14</v>
@@ -1492,13 +1492,13 @@
         <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F32" t="n">
-        <v>26182.9914</v>
+        <v>15623.6632</v>
       </c>
       <c r="G32" t="n">
-        <v>12.81266666666668</v>
+        <v>12.77766666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C33" t="n">
         <v>14</v>
@@ -1527,13 +1527,13 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F33" t="n">
-        <v>238443.0081</v>
+        <v>26182.9914</v>
       </c>
       <c r="G33" t="n">
-        <v>12.84766666666668</v>
+        <v>12.81266666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
         <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>196579.9747692143</v>
+        <v>238443.0081</v>
       </c>
       <c r="G34" t="n">
-        <v>12.88116666666668</v>
+        <v>12.84766666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>13.52</v>
+        <v>14.05</v>
       </c>
       <c r="D35" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E35" t="n">
         <v>14</v>
       </c>
-      <c r="E35" t="n">
-        <v>13.52</v>
-      </c>
       <c r="F35" t="n">
-        <v>127904.4482</v>
+        <v>196579.9747692143</v>
       </c>
       <c r="G35" t="n">
-        <v>12.90483333333334</v>
+        <v>12.88116666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.86</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>13.86</v>
+        <v>13.52</v>
       </c>
       <c r="D36" t="n">
-        <v>13.86</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>13.86</v>
+        <v>13.52</v>
       </c>
       <c r="F36" t="n">
-        <v>18372.2658</v>
+        <v>127904.4482</v>
       </c>
       <c r="G36" t="n">
-        <v>12.93583333333334</v>
+        <v>12.90483333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.74</v>
+        <v>13.86</v>
       </c>
       <c r="C37" t="n">
-        <v>13.52</v>
+        <v>13.86</v>
       </c>
       <c r="D37" t="n">
-        <v>13.74</v>
+        <v>13.86</v>
       </c>
       <c r="E37" t="n">
-        <v>13.52</v>
+        <v>13.86</v>
       </c>
       <c r="F37" t="n">
-        <v>9957.9519</v>
+        <v>18372.2658</v>
       </c>
       <c r="G37" t="n">
-        <v>12.95733333333334</v>
+        <v>12.93583333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.51</v>
+        <v>13.74</v>
       </c>
       <c r="C38" t="n">
-        <v>13.55</v>
+        <v>13.52</v>
       </c>
       <c r="D38" t="n">
-        <v>13.65</v>
+        <v>13.74</v>
       </c>
       <c r="E38" t="n">
-        <v>13.42</v>
+        <v>13.52</v>
       </c>
       <c r="F38" t="n">
-        <v>77886.0336</v>
+        <v>9957.9519</v>
       </c>
       <c r="G38" t="n">
-        <v>12.97933333333334</v>
+        <v>12.95733333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.5</v>
+        <v>13.51</v>
       </c>
       <c r="C39" t="n">
-        <v>13.52</v>
+        <v>13.55</v>
       </c>
       <c r="D39" t="n">
-        <v>13.52</v>
+        <v>13.65</v>
       </c>
       <c r="E39" t="n">
-        <v>13.46</v>
+        <v>13.42</v>
       </c>
       <c r="F39" t="n">
-        <v>102792.7216</v>
+        <v>77886.0336</v>
       </c>
       <c r="G39" t="n">
-        <v>13.00083333333334</v>
+        <v>12.97933333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.55</v>
+        <v>13.5</v>
       </c>
       <c r="C40" t="n">
-        <v>13.6</v>
+        <v>13.52</v>
       </c>
       <c r="D40" t="n">
-        <v>13.6</v>
+        <v>13.52</v>
       </c>
       <c r="E40" t="n">
-        <v>13.55</v>
+        <v>13.46</v>
       </c>
       <c r="F40" t="n">
-        <v>9392.5797</v>
+        <v>102792.7216</v>
       </c>
       <c r="G40" t="n">
-        <v>13.02366666666667</v>
+        <v>13.00083333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
       <c r="C41" t="n">
-        <v>13.63</v>
+        <v>13.6</v>
       </c>
       <c r="D41" t="n">
-        <v>13.63</v>
+        <v>13.6</v>
       </c>
       <c r="E41" t="n">
-        <v>13.63</v>
+        <v>13.55</v>
       </c>
       <c r="F41" t="n">
-        <v>3050</v>
+        <v>9392.5797</v>
       </c>
       <c r="G41" t="n">
-        <v>13.04683333333334</v>
+        <v>13.02366666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>3050</v>
       </c>
       <c r="G42" t="n">
-        <v>13.07000000000001</v>
+        <v>13.04683333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="C43" t="n">
-        <v>13.68</v>
+        <v>13.63</v>
       </c>
       <c r="D43" t="n">
-        <v>13.68</v>
+        <v>13.63</v>
       </c>
       <c r="E43" t="n">
-        <v>13.53</v>
+        <v>13.63</v>
       </c>
       <c r="F43" t="n">
-        <v>79109.432</v>
+        <v>3050</v>
       </c>
       <c r="G43" t="n">
-        <v>13.094</v>
+        <v>13.07000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.51</v>
+        <v>13.62</v>
       </c>
       <c r="C44" t="n">
-        <v>13.51</v>
+        <v>13.68</v>
       </c>
       <c r="D44" t="n">
-        <v>13.51</v>
+        <v>13.68</v>
       </c>
       <c r="E44" t="n">
-        <v>13.51</v>
+        <v>13.53</v>
       </c>
       <c r="F44" t="n">
-        <v>4539.0579</v>
+        <v>79109.432</v>
       </c>
       <c r="G44" t="n">
-        <v>13.11516666666667</v>
+        <v>13.094</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>13.51</v>
       </c>
       <c r="F45" t="n">
-        <v>4530</v>
+        <v>4539.0579</v>
       </c>
       <c r="G45" t="n">
-        <v>13.13633333333334</v>
+        <v>13.11516666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.56</v>
+        <v>13.51</v>
       </c>
       <c r="C46" t="n">
         <v>13.51</v>
       </c>
       <c r="D46" t="n">
-        <v>13.56</v>
+        <v>13.51</v>
       </c>
       <c r="E46" t="n">
         <v>13.51</v>
       </c>
       <c r="F46" t="n">
-        <v>12307.8943</v>
+        <v>4530</v>
       </c>
       <c r="G46" t="n">
-        <v>13.1575</v>
+        <v>13.13633333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="C47" t="n">
-        <v>13.47</v>
+        <v>13.51</v>
       </c>
       <c r="D47" t="n">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="E47" t="n">
-        <v>13.47</v>
+        <v>13.51</v>
       </c>
       <c r="F47" t="n">
-        <v>2650</v>
+        <v>12307.8943</v>
       </c>
       <c r="G47" t="n">
-        <v>13.178</v>
+        <v>13.1575</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.37</v>
+        <v>13.47</v>
       </c>
       <c r="C48" t="n">
-        <v>13.39</v>
+        <v>13.47</v>
       </c>
       <c r="D48" t="n">
-        <v>13.39</v>
+        <v>13.47</v>
       </c>
       <c r="E48" t="n">
-        <v>13.31</v>
+        <v>13.47</v>
       </c>
       <c r="F48" t="n">
-        <v>60743.9123</v>
+        <v>2650</v>
       </c>
       <c r="G48" t="n">
-        <v>13.19616666666667</v>
+        <v>13.178</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="C49" t="n">
         <v>13.39</v>
       </c>
-      <c r="C49" t="n">
-        <v>13.49</v>
-      </c>
       <c r="D49" t="n">
-        <v>13.49</v>
+        <v>13.39</v>
       </c>
       <c r="E49" t="n">
-        <v>13.39</v>
+        <v>13.31</v>
       </c>
       <c r="F49" t="n">
-        <v>8918</v>
+        <v>60743.9123</v>
       </c>
       <c r="G49" t="n">
-        <v>13.21600000000001</v>
+        <v>13.19616666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.32</v>
+        <v>13.39</v>
       </c>
       <c r="C50" t="n">
         <v>13.49</v>
@@ -2122,13 +2122,13 @@
         <v>13.49</v>
       </c>
       <c r="E50" t="n">
-        <v>13.31</v>
+        <v>13.39</v>
       </c>
       <c r="F50" t="n">
-        <v>37885.8897</v>
+        <v>8918</v>
       </c>
       <c r="G50" t="n">
-        <v>13.23583333333334</v>
+        <v>13.21600000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.35</v>
+        <v>13.32</v>
       </c>
       <c r="C51" t="n">
-        <v>13.03</v>
+        <v>13.49</v>
       </c>
       <c r="D51" t="n">
-        <v>13.35</v>
+        <v>13.49</v>
       </c>
       <c r="E51" t="n">
-        <v>13.03</v>
+        <v>13.31</v>
       </c>
       <c r="F51" t="n">
-        <v>339885.0329</v>
+        <v>37885.8897</v>
       </c>
       <c r="G51" t="n">
-        <v>13.24816666666667</v>
+        <v>13.23583333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="C52" t="n">
         <v>13.03</v>
       </c>
-      <c r="C52" t="n">
-        <v>13.38</v>
-      </c>
       <c r="D52" t="n">
-        <v>13.4</v>
+        <v>13.35</v>
       </c>
       <c r="E52" t="n">
         <v>13.03</v>
       </c>
       <c r="F52" t="n">
-        <v>31946.9479</v>
+        <v>339885.0329</v>
       </c>
       <c r="G52" t="n">
-        <v>13.26616666666667</v>
+        <v>13.24816666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.32</v>
+        <v>13.03</v>
       </c>
       <c r="C53" t="n">
-        <v>13.3</v>
+        <v>13.38</v>
       </c>
       <c r="D53" t="n">
-        <v>13.32</v>
+        <v>13.4</v>
       </c>
       <c r="E53" t="n">
-        <v>13.3</v>
+        <v>13.03</v>
       </c>
       <c r="F53" t="n">
-        <v>5162.5565</v>
+        <v>31946.9479</v>
       </c>
       <c r="G53" t="n">
-        <v>13.28283333333334</v>
+        <v>13.26616666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="C54" t="n">
         <v>13.3</v>
       </c>
-      <c r="C54" t="n">
-        <v>13.39</v>
-      </c>
       <c r="D54" t="n">
-        <v>13.47</v>
+        <v>13.32</v>
       </c>
       <c r="E54" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" t="n">
-        <v>61940.6242</v>
+        <v>5162.5565</v>
       </c>
       <c r="G54" t="n">
-        <v>13.30100000000001</v>
+        <v>13.28283333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.36</v>
+        <v>13.3</v>
       </c>
       <c r="C55" t="n">
-        <v>13.21</v>
+        <v>13.39</v>
       </c>
       <c r="D55" t="n">
-        <v>13.36</v>
+        <v>13.47</v>
       </c>
       <c r="E55" t="n">
-        <v>13.21</v>
+        <v>13.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1955.7116</v>
+        <v>61940.6242</v>
       </c>
       <c r="G55" t="n">
-        <v>13.31633333333334</v>
+        <v>13.30100000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.21</v>
+        <v>13.36</v>
       </c>
       <c r="C56" t="n">
         <v>13.21</v>
       </c>
       <c r="D56" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="E56" t="n">
         <v>13.21</v>
       </c>
-      <c r="E56" t="n">
-        <v>13.2</v>
-      </c>
       <c r="F56" t="n">
-        <v>75157.3251</v>
+        <v>1955.7116</v>
       </c>
       <c r="G56" t="n">
-        <v>13.33150000000001</v>
+        <v>13.31633333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.2</v>
+        <v>13.21</v>
       </c>
       <c r="C57" t="n">
-        <v>13.18</v>
+        <v>13.21</v>
       </c>
       <c r="D57" t="n">
         <v>13.21</v>
       </c>
       <c r="E57" t="n">
-        <v>13.18</v>
+        <v>13.2</v>
       </c>
       <c r="F57" t="n">
-        <v>22582</v>
+        <v>75157.3251</v>
       </c>
       <c r="G57" t="n">
-        <v>13.34616666666668</v>
+        <v>13.33150000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.08</v>
+        <v>13.2</v>
       </c>
       <c r="C58" t="n">
-        <v>13.08</v>
+        <v>13.18</v>
       </c>
       <c r="D58" t="n">
-        <v>13.13</v>
+        <v>13.21</v>
       </c>
       <c r="E58" t="n">
-        <v>13.08</v>
+        <v>13.18</v>
       </c>
       <c r="F58" t="n">
-        <v>10539.4023</v>
+        <v>22582</v>
       </c>
       <c r="G58" t="n">
-        <v>13.35916666666668</v>
+        <v>13.34616666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2434,26 +2434,32 @@
         <v>13.08</v>
       </c>
       <c r="D59" t="n">
-        <v>13.08</v>
+        <v>13.13</v>
       </c>
       <c r="E59" t="n">
         <v>13.08</v>
       </c>
       <c r="F59" t="n">
-        <v>1488.9127</v>
+        <v>10539.4023</v>
       </c>
       <c r="G59" t="n">
-        <v>13.37216666666668</v>
+        <v>13.35916666666668</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>13.18</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2481,10 @@
         <v>13.08</v>
       </c>
       <c r="F60" t="n">
-        <v>1935.5865</v>
+        <v>1488.9127</v>
       </c>
       <c r="G60" t="n">
-        <v>13.38250000000001</v>
+        <v>13.37216666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2494,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,32 +2508,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="C61" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="D61" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="E61" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="F61" t="n">
-        <v>11448.0012</v>
+        <v>1935.5865</v>
       </c>
       <c r="G61" t="n">
-        <v>13.39266666666668</v>
+        <v>13.38250000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>13.08</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2561,10 @@
         <v>13.07</v>
       </c>
       <c r="F62" t="n">
-        <v>11448.0775</v>
+        <v>11448.0012</v>
       </c>
       <c r="G62" t="n">
-        <v>13.40266666666668</v>
+        <v>13.39266666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2574,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,29 +2591,35 @@
         <v>13.07</v>
       </c>
       <c r="C63" t="n">
-        <v>13.08</v>
+        <v>13.07</v>
       </c>
       <c r="D63" t="n">
-        <v>13.08</v>
+        <v>13.07</v>
       </c>
       <c r="E63" t="n">
         <v>13.07</v>
       </c>
       <c r="F63" t="n">
-        <v>10008.9151</v>
+        <v>11448.0775</v>
       </c>
       <c r="G63" t="n">
-        <v>13.40916666666668</v>
+        <v>13.40266666666668</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>13.07</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,32 +2629,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="C64" t="n">
         <v>13.08</v>
       </c>
-      <c r="C64" t="n">
-        <v>13.13</v>
-      </c>
       <c r="D64" t="n">
-        <v>13.14</v>
+        <v>13.08</v>
       </c>
       <c r="E64" t="n">
         <v>13.07</v>
       </c>
       <c r="F64" t="n">
-        <v>46062</v>
+        <v>10008.9151</v>
       </c>
       <c r="G64" t="n">
-        <v>13.41366666666668</v>
+        <v>13.40916666666668</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13.07</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2670,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.13</v>
+        <v>13.08</v>
       </c>
       <c r="C65" t="n">
         <v>13.13</v>
       </c>
       <c r="D65" t="n">
-        <v>13.13</v>
+        <v>13.14</v>
       </c>
       <c r="E65" t="n">
-        <v>13.13</v>
+        <v>13.07</v>
       </c>
       <c r="F65" t="n">
-        <v>1454</v>
+        <v>46062</v>
       </c>
       <c r="G65" t="n">
-        <v>13.41800000000001</v>
+        <v>13.41366666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2695,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2709,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="C66" t="n">
-        <v>13.15</v>
+        <v>13.13</v>
       </c>
       <c r="D66" t="n">
-        <v>13.15</v>
+        <v>13.13</v>
       </c>
       <c r="E66" t="n">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="F66" t="n">
-        <v>7722.043</v>
+        <v>1454</v>
       </c>
       <c r="G66" t="n">
-        <v>13.42266666666668</v>
+        <v>13.41800000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2734,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2748,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.05</v>
+        <v>13.12</v>
       </c>
       <c r="C67" t="n">
-        <v>13.16</v>
+        <v>13.15</v>
       </c>
       <c r="D67" t="n">
-        <v>13.16</v>
+        <v>13.15</v>
       </c>
       <c r="E67" t="n">
-        <v>13.05</v>
+        <v>13.12</v>
       </c>
       <c r="F67" t="n">
-        <v>46268</v>
+        <v>7722.043</v>
       </c>
       <c r="G67" t="n">
-        <v>13.42750000000001</v>
+        <v>13.42266666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2773,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +2787,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.16</v>
+        <v>13.05</v>
       </c>
       <c r="C68" t="n">
         <v>13.16</v>
@@ -2752,13 +2796,13 @@
         <v>13.16</v>
       </c>
       <c r="E68" t="n">
-        <v>13.16</v>
+        <v>13.05</v>
       </c>
       <c r="F68" t="n">
-        <v>931</v>
+        <v>46268</v>
       </c>
       <c r="G68" t="n">
-        <v>13.43016666666668</v>
+        <v>13.42750000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2812,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2829,19 @@
         <v>13.16</v>
       </c>
       <c r="C69" t="n">
-        <v>13.27</v>
+        <v>13.16</v>
       </c>
       <c r="D69" t="n">
-        <v>13.27</v>
+        <v>13.16</v>
       </c>
       <c r="E69" t="n">
         <v>13.16</v>
       </c>
       <c r="F69" t="n">
-        <v>6008.3114</v>
+        <v>931</v>
       </c>
       <c r="G69" t="n">
-        <v>13.43466666666668</v>
+        <v>13.43016666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2851,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,19 +2865,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="C70" t="n">
-        <v>13.1</v>
+        <v>13.27</v>
       </c>
       <c r="D70" t="n">
-        <v>13.1</v>
+        <v>13.27</v>
       </c>
       <c r="E70" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="F70" t="n">
-        <v>555.8056</v>
+        <v>6008.3114</v>
       </c>
       <c r="G70" t="n">
         <v>13.43466666666668</v>
@@ -2838,7 +2890,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2904,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.16</v>
+        <v>13.1</v>
       </c>
       <c r="C71" t="n">
-        <v>13.16</v>
+        <v>13.1</v>
       </c>
       <c r="D71" t="n">
-        <v>13.16</v>
+        <v>13.1</v>
       </c>
       <c r="E71" t="n">
-        <v>13.16</v>
+        <v>13.1</v>
       </c>
       <c r="F71" t="n">
-        <v>2656.231003039514</v>
+        <v>555.8056</v>
       </c>
       <c r="G71" t="n">
-        <v>13.43566666666668</v>
+        <v>13.43466666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2929,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2943,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="C72" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="D72" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="E72" t="n">
-        <v>13.1</v>
+        <v>13.16</v>
       </c>
       <c r="F72" t="n">
-        <v>590.9709</v>
+        <v>2656.231003039514</v>
       </c>
       <c r="G72" t="n">
-        <v>13.43383333333334</v>
+        <v>13.43566666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2968,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2982,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.01</v>
+        <v>13.1</v>
       </c>
       <c r="C73" t="n">
-        <v>13.05</v>
+        <v>13.1</v>
       </c>
       <c r="D73" t="n">
-        <v>13.05</v>
+        <v>13.1</v>
       </c>
       <c r="E73" t="n">
-        <v>13.01</v>
+        <v>13.1</v>
       </c>
       <c r="F73" t="n">
-        <v>14936.3623</v>
+        <v>590.9709</v>
       </c>
       <c r="G73" t="n">
-        <v>13.43116666666668</v>
+        <v>13.43383333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3007,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,36 +3021,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.93</v>
+        <v>13.01</v>
       </c>
       <c r="C74" t="n">
-        <v>12.93</v>
+        <v>13.05</v>
       </c>
       <c r="D74" t="n">
-        <v>12.93</v>
+        <v>13.05</v>
       </c>
       <c r="E74" t="n">
-        <v>12.93</v>
+        <v>13.01</v>
       </c>
       <c r="F74" t="n">
-        <v>603.7968</v>
+        <v>14936.3623</v>
       </c>
       <c r="G74" t="n">
-        <v>13.42633333333334</v>
+        <v>13.43116666666668</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2992,38 +3060,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.82</v>
+        <v>12.93</v>
       </c>
       <c r="C75" t="n">
-        <v>12.82</v>
+        <v>12.93</v>
       </c>
       <c r="D75" t="n">
-        <v>12.82</v>
+        <v>12.93</v>
       </c>
       <c r="E75" t="n">
-        <v>12.82</v>
+        <v>12.93</v>
       </c>
       <c r="F75" t="n">
-        <v>2335</v>
+        <v>603.7968</v>
       </c>
       <c r="G75" t="n">
-        <v>13.41966666666668</v>
+        <v>13.42633333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="K75" t="n">
-        <v>13.05</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3035,38 +3099,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.94</v>
+        <v>12.82</v>
       </c>
       <c r="C76" t="n">
-        <v>12.94</v>
+        <v>12.82</v>
       </c>
       <c r="D76" t="n">
-        <v>12.94</v>
+        <v>12.82</v>
       </c>
       <c r="E76" t="n">
-        <v>12.94</v>
+        <v>12.82</v>
       </c>
       <c r="F76" t="n">
-        <v>3500</v>
+        <v>2335</v>
       </c>
       <c r="G76" t="n">
-        <v>13.41500000000001</v>
+        <v>13.41966666666668</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="K76" t="n">
-        <v>13.05</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3090,24 +3150,24 @@
         <v>12.94</v>
       </c>
       <c r="F77" t="n">
-        <v>420</v>
+        <v>3500</v>
       </c>
       <c r="G77" t="n">
-        <v>13.40666666666668</v>
+        <v>13.41500000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="K77" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,38 +3177,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="C78" t="n">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="D78" t="n">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="E78" t="n">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="F78" t="n">
-        <v>2709.9999</v>
+        <v>420</v>
       </c>
       <c r="G78" t="n">
-        <v>13.39850000000001</v>
+        <v>13.40666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="K78" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3160,22 +3216,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.9</v>
+        <v>12.95</v>
       </c>
       <c r="C79" t="n">
-        <v>12.88</v>
+        <v>12.95</v>
       </c>
       <c r="D79" t="n">
-        <v>12.9</v>
+        <v>12.95</v>
       </c>
       <c r="E79" t="n">
-        <v>12.88</v>
+        <v>12.95</v>
       </c>
       <c r="F79" t="n">
-        <v>11586.9424</v>
+        <v>2709.9999</v>
       </c>
       <c r="G79" t="n">
-        <v>13.38916666666668</v>
+        <v>13.39850000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3184,12 +3240,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3201,22 +3255,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="C80" t="n">
-        <v>12.94</v>
+        <v>12.88</v>
       </c>
       <c r="D80" t="n">
-        <v>12.94</v>
+        <v>12.9</v>
       </c>
       <c r="E80" t="n">
-        <v>12.89</v>
+        <v>12.88</v>
       </c>
       <c r="F80" t="n">
-        <v>5727.7183</v>
+        <v>11586.9424</v>
       </c>
       <c r="G80" t="n">
-        <v>13.37983333333334</v>
+        <v>13.38916666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3225,9 +3279,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,22 +3294,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.98</v>
+        <v>12.89</v>
       </c>
       <c r="C81" t="n">
-        <v>13.02</v>
+        <v>12.94</v>
       </c>
       <c r="D81" t="n">
-        <v>13.02</v>
+        <v>12.94</v>
       </c>
       <c r="E81" t="n">
-        <v>12.98</v>
+        <v>12.89</v>
       </c>
       <c r="F81" t="n">
-        <v>38800</v>
+        <v>5727.7183</v>
       </c>
       <c r="G81" t="n">
-        <v>13.37183333333334</v>
+        <v>13.37983333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3266,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3283,22 +3333,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.03</v>
+        <v>12.98</v>
       </c>
       <c r="C82" t="n">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="D82" t="n">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="E82" t="n">
-        <v>13.03</v>
+        <v>12.98</v>
       </c>
       <c r="F82" t="n">
-        <v>19400</v>
+        <v>38800</v>
       </c>
       <c r="G82" t="n">
-        <v>13.36116666666667</v>
+        <v>13.37183333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3307,9 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,7 +3372,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.04</v>
+        <v>13.03</v>
       </c>
       <c r="C83" t="n">
         <v>13.04</v>
@@ -3333,13 +3381,13 @@
         <v>13.04</v>
       </c>
       <c r="E83" t="n">
-        <v>13.04</v>
+        <v>13.03</v>
       </c>
       <c r="F83" t="n">
-        <v>6171.8201</v>
+        <v>19400</v>
       </c>
       <c r="G83" t="n">
-        <v>13.35083333333334</v>
+        <v>13.36116666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3348,9 +3396,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,19 +3414,19 @@
         <v>13.04</v>
       </c>
       <c r="C84" t="n">
-        <v>13.08</v>
+        <v>13.04</v>
       </c>
       <c r="D84" t="n">
-        <v>13.08</v>
+        <v>13.04</v>
       </c>
       <c r="E84" t="n">
         <v>13.04</v>
       </c>
       <c r="F84" t="n">
-        <v>5586.676</v>
+        <v>6171.8201</v>
       </c>
       <c r="G84" t="n">
-        <v>13.34116666666668</v>
+        <v>13.35083333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3389,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,7 +3450,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.08</v>
+        <v>13.04</v>
       </c>
       <c r="C85" t="n">
         <v>13.08</v>
@@ -3415,13 +3459,13 @@
         <v>13.08</v>
       </c>
       <c r="E85" t="n">
-        <v>13.08</v>
+        <v>13.04</v>
       </c>
       <c r="F85" t="n">
-        <v>5015.5046</v>
+        <v>5586.676</v>
       </c>
       <c r="G85" t="n">
-        <v>13.33133333333334</v>
+        <v>13.34116666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3430,9 +3474,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,22 +3489,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="C86" t="n">
-        <v>13.17</v>
+        <v>13.08</v>
       </c>
       <c r="D86" t="n">
-        <v>13.17</v>
+        <v>13.08</v>
       </c>
       <c r="E86" t="n">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="F86" t="n">
-        <v>26000</v>
+        <v>5015.5046</v>
       </c>
       <c r="G86" t="n">
-        <v>13.32583333333334</v>
+        <v>13.33133333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3471,9 +3513,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,22 +3528,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.2</v>
+        <v>13.07</v>
       </c>
       <c r="C87" t="n">
-        <v>13.31</v>
+        <v>13.17</v>
       </c>
       <c r="D87" t="n">
-        <v>13.31</v>
+        <v>13.17</v>
       </c>
       <c r="E87" t="n">
-        <v>13.2</v>
+        <v>13.07</v>
       </c>
       <c r="F87" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="G87" t="n">
-        <v>13.31950000000001</v>
+        <v>13.32583333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3512,9 +3552,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3529,22 +3567,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.29</v>
+        <v>13.2</v>
       </c>
       <c r="C88" t="n">
-        <v>13.29</v>
+        <v>13.31</v>
       </c>
       <c r="D88" t="n">
-        <v>13.29</v>
+        <v>13.31</v>
       </c>
       <c r="E88" t="n">
-        <v>13.29</v>
+        <v>13.2</v>
       </c>
       <c r="F88" t="n">
-        <v>12726.9456</v>
+        <v>13000</v>
       </c>
       <c r="G88" t="n">
-        <v>13.31283333333334</v>
+        <v>13.31950000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3553,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,22 +3606,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.22</v>
+        <v>13.29</v>
       </c>
       <c r="C89" t="n">
-        <v>13.22</v>
+        <v>13.29</v>
       </c>
       <c r="D89" t="n">
-        <v>13.22</v>
+        <v>13.29</v>
       </c>
       <c r="E89" t="n">
-        <v>13.22</v>
+        <v>13.29</v>
       </c>
       <c r="F89" t="n">
-        <v>872.8262</v>
+        <v>12726.9456</v>
       </c>
       <c r="G89" t="n">
-        <v>13.30250000000001</v>
+        <v>13.31283333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3594,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,22 +3645,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="C90" t="n">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="D90" t="n">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="E90" t="n">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="F90" t="n">
-        <v>11854.1194</v>
+        <v>872.8262</v>
       </c>
       <c r="G90" t="n">
-        <v>13.28833333333334</v>
+        <v>13.30250000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3635,9 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,22 +3684,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.22</v>
+        <v>13.15</v>
       </c>
       <c r="C91" t="n">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="D91" t="n">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="E91" t="n">
-        <v>13.22</v>
+        <v>13.15</v>
       </c>
       <c r="F91" t="n">
-        <v>2999</v>
+        <v>11854.1194</v>
       </c>
       <c r="G91" t="n">
-        <v>13.27783333333334</v>
+        <v>13.28833333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3676,9 +3708,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,22 +3723,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.39</v>
+        <v>13.22</v>
       </c>
       <c r="C92" t="n">
-        <v>13.4</v>
+        <v>13.37</v>
       </c>
       <c r="D92" t="n">
-        <v>13.4</v>
+        <v>13.37</v>
       </c>
       <c r="E92" t="n">
-        <v>13.39</v>
+        <v>13.22</v>
       </c>
       <c r="F92" t="n">
-        <v>76</v>
+        <v>2999</v>
       </c>
       <c r="G92" t="n">
-        <v>13.26783333333334</v>
+        <v>13.27783333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3717,9 +3747,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,22 +3762,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.24</v>
+        <v>13.39</v>
       </c>
       <c r="C93" t="n">
-        <v>13.35</v>
+        <v>13.4</v>
       </c>
       <c r="D93" t="n">
-        <v>13.35</v>
+        <v>13.4</v>
       </c>
       <c r="E93" t="n">
-        <v>13.23</v>
+        <v>13.39</v>
       </c>
       <c r="F93" t="n">
-        <v>2694.231</v>
+        <v>76</v>
       </c>
       <c r="G93" t="n">
-        <v>13.25700000000001</v>
+        <v>13.26783333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3758,9 +3786,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3775,22 +3801,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.37</v>
+        <v>13.24</v>
       </c>
       <c r="C94" t="n">
-        <v>13.37</v>
+        <v>13.35</v>
       </c>
       <c r="D94" t="n">
-        <v>13.37</v>
+        <v>13.35</v>
       </c>
       <c r="E94" t="n">
-        <v>13.37</v>
+        <v>13.23</v>
       </c>
       <c r="F94" t="n">
-        <v>38</v>
+        <v>2694.231</v>
       </c>
       <c r="G94" t="n">
-        <v>13.24566666666667</v>
+        <v>13.25700000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3799,9 +3825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,22 +3840,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.39</v>
+        <v>13.37</v>
       </c>
       <c r="C95" t="n">
-        <v>13.39</v>
+        <v>13.37</v>
       </c>
       <c r="D95" t="n">
-        <v>13.39</v>
+        <v>13.37</v>
       </c>
       <c r="E95" t="n">
-        <v>13.39</v>
+        <v>13.37</v>
       </c>
       <c r="F95" t="n">
         <v>38</v>
       </c>
       <c r="G95" t="n">
-        <v>13.24350000000001</v>
+        <v>13.24566666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3840,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,22 +3879,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="C96" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="D96" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="E96" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="F96" t="n">
-        <v>2714.4109</v>
+        <v>38</v>
       </c>
       <c r="G96" t="n">
-        <v>13.23550000000001</v>
+        <v>13.24350000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3881,9 +3903,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,19 +3921,19 @@
         <v>13.38</v>
       </c>
       <c r="C97" t="n">
-        <v>14.02</v>
+        <v>13.38</v>
       </c>
       <c r="D97" t="n">
-        <v>14.03</v>
+        <v>13.38</v>
       </c>
       <c r="E97" t="n">
         <v>13.38</v>
       </c>
       <c r="F97" t="n">
-        <v>113941.4686</v>
+        <v>2714.4109</v>
       </c>
       <c r="G97" t="n">
-        <v>13.24383333333334</v>
+        <v>13.23550000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3922,9 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,22 +3957,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14</v>
+        <v>13.38</v>
       </c>
       <c r="C98" t="n">
-        <v>14.01</v>
+        <v>14.02</v>
       </c>
       <c r="D98" t="n">
-        <v>14.01</v>
+        <v>14.03</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>13.38</v>
       </c>
       <c r="F98" t="n">
-        <v>15708.77944325482</v>
+        <v>113941.4686</v>
       </c>
       <c r="G98" t="n">
-        <v>13.25150000000001</v>
+        <v>13.24383333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3963,9 +3981,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,22 +3996,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.82</v>
+        <v>14</v>
       </c>
       <c r="C99" t="n">
-        <v>13.82</v>
+        <v>14.01</v>
       </c>
       <c r="D99" t="n">
-        <v>13.82</v>
+        <v>14.01</v>
       </c>
       <c r="E99" t="n">
-        <v>13.82</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>2196.9696</v>
+        <v>15708.77944325482</v>
       </c>
       <c r="G99" t="n">
-        <v>13.25650000000001</v>
+        <v>13.25150000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4004,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,10 +4047,10 @@
         <v>13.82</v>
       </c>
       <c r="F100" t="n">
-        <v>104.2137</v>
+        <v>2196.9696</v>
       </c>
       <c r="G100" t="n">
-        <v>13.26016666666668</v>
+        <v>13.25650000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4045,9 +4059,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4062,22 +4074,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.7</v>
+        <v>13.82</v>
       </c>
       <c r="C101" t="n">
-        <v>13.7</v>
+        <v>13.82</v>
       </c>
       <c r="D101" t="n">
-        <v>13.7</v>
+        <v>13.82</v>
       </c>
       <c r="E101" t="n">
-        <v>13.7</v>
+        <v>13.82</v>
       </c>
       <c r="F101" t="n">
-        <v>16000</v>
+        <v>104.2137</v>
       </c>
       <c r="G101" t="n">
-        <v>13.26133333333334</v>
+        <v>13.26016666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4086,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,22 +4113,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.82</v>
+        <v>13.7</v>
       </c>
       <c r="C102" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D102" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="E102" t="n">
-        <v>13.82</v>
+        <v>13.7</v>
       </c>
       <c r="F102" t="n">
-        <v>126261.2504</v>
+        <v>16000</v>
       </c>
       <c r="G102" t="n">
-        <v>13.26916666666668</v>
+        <v>13.26133333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4127,9 +4137,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4144,22 +4152,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="C103" t="n">
         <v>14.1</v>
       </c>
-      <c r="C103" t="n">
-        <v>14.21</v>
-      </c>
       <c r="D103" t="n">
-        <v>14.21</v>
+        <v>14.1</v>
       </c>
       <c r="E103" t="n">
-        <v>14.1</v>
+        <v>13.82</v>
       </c>
       <c r="F103" t="n">
-        <v>62460.2234</v>
+        <v>126261.2504</v>
       </c>
       <c r="G103" t="n">
-        <v>13.27800000000001</v>
+        <v>13.26916666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4168,9 +4176,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,22 +4191,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C104" t="n">
         <v>14.21</v>
       </c>
-      <c r="C104" t="n">
-        <v>14.25</v>
-      </c>
       <c r="D104" t="n">
-        <v>14.25</v>
+        <v>14.21</v>
       </c>
       <c r="E104" t="n">
-        <v>14.21</v>
+        <v>14.1</v>
       </c>
       <c r="F104" t="n">
-        <v>127932.9764</v>
+        <v>62460.2234</v>
       </c>
       <c r="G104" t="n">
-        <v>13.29033333333335</v>
+        <v>13.27800000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4209,9 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,22 +4230,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.22</v>
+        <v>14.21</v>
       </c>
       <c r="C105" t="n">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
       <c r="D105" t="n">
-        <v>14.28</v>
+        <v>14.25</v>
       </c>
       <c r="E105" t="n">
-        <v>13.91</v>
+        <v>14.21</v>
       </c>
       <c r="F105" t="n">
-        <v>195526.6981</v>
+        <v>127932.9764</v>
       </c>
       <c r="G105" t="n">
-        <v>13.30100000000001</v>
+        <v>13.29033333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4250,9 +4254,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,22 +4269,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="C106" t="n">
         <v>14.15</v>
       </c>
-      <c r="C106" t="n">
-        <v>14.3</v>
-      </c>
       <c r="D106" t="n">
-        <v>14.3</v>
+        <v>14.28</v>
       </c>
       <c r="E106" t="n">
-        <v>14.15</v>
+        <v>13.91</v>
       </c>
       <c r="F106" t="n">
-        <v>16516</v>
+        <v>195526.6981</v>
       </c>
       <c r="G106" t="n">
-        <v>13.31416666666668</v>
+        <v>13.30100000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4291,9 +4293,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,7 +4308,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.3</v>
+        <v>14.15</v>
       </c>
       <c r="C107" t="n">
         <v>14.3</v>
@@ -4317,13 +4317,13 @@
         <v>14.3</v>
       </c>
       <c r="E107" t="n">
-        <v>14.3</v>
+        <v>14.15</v>
       </c>
       <c r="F107" t="n">
-        <v>7420.0277</v>
+        <v>16516</v>
       </c>
       <c r="G107" t="n">
-        <v>13.32800000000001</v>
+        <v>13.31416666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4332,9 +4332,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4361,10 +4359,10 @@
         <v>14.3</v>
       </c>
       <c r="F108" t="n">
-        <v>27511.466</v>
+        <v>7420.0277</v>
       </c>
       <c r="G108" t="n">
-        <v>13.34316666666668</v>
+        <v>13.32800000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4373,9 +4371,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,22 +4386,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.37</v>
+        <v>14.3</v>
       </c>
       <c r="C109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E109" t="n">
-        <v>14.37</v>
+        <v>14.3</v>
       </c>
       <c r="F109" t="n">
-        <v>136247.7294</v>
+        <v>27511.466</v>
       </c>
       <c r="G109" t="n">
-        <v>13.35833333333334</v>
+        <v>13.34316666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4414,9 +4410,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,22 +4425,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.41</v>
+        <v>14.37</v>
       </c>
       <c r="C110" t="n">
-        <v>14.21</v>
+        <v>14.4</v>
       </c>
       <c r="D110" t="n">
-        <v>14.41</v>
+        <v>14.4</v>
       </c>
       <c r="E110" t="n">
-        <v>14.21</v>
+        <v>14.37</v>
       </c>
       <c r="F110" t="n">
-        <v>5238.9439</v>
+        <v>136247.7294</v>
       </c>
       <c r="G110" t="n">
-        <v>13.37033333333334</v>
+        <v>13.35833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4455,9 +4449,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,22 +4464,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.1</v>
+        <v>14.41</v>
       </c>
       <c r="C111" t="n">
-        <v>13.93</v>
+        <v>14.21</v>
       </c>
       <c r="D111" t="n">
-        <v>14.23</v>
+        <v>14.41</v>
       </c>
       <c r="E111" t="n">
-        <v>13.93</v>
+        <v>14.21</v>
       </c>
       <c r="F111" t="n">
-        <v>117085.405</v>
+        <v>5238.9439</v>
       </c>
       <c r="G111" t="n">
-        <v>13.38533333333334</v>
+        <v>13.37033333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4496,9 +4488,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4513,22 +4503,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.99</v>
+        <v>14.1</v>
       </c>
       <c r="C112" t="n">
-        <v>14.07</v>
+        <v>13.93</v>
       </c>
       <c r="D112" t="n">
-        <v>14.27</v>
+        <v>14.23</v>
       </c>
       <c r="E112" t="n">
-        <v>13.99</v>
+        <v>13.93</v>
       </c>
       <c r="F112" t="n">
-        <v>177837.571</v>
+        <v>117085.405</v>
       </c>
       <c r="G112" t="n">
-        <v>13.39683333333334</v>
+        <v>13.38533333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4537,9 +4527,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,22 +4542,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.08</v>
+        <v>13.99</v>
       </c>
       <c r="C113" t="n">
-        <v>14.08</v>
+        <v>14.07</v>
       </c>
       <c r="D113" t="n">
-        <v>14.08</v>
+        <v>14.27</v>
       </c>
       <c r="E113" t="n">
-        <v>14.08</v>
+        <v>13.99</v>
       </c>
       <c r="F113" t="n">
-        <v>6260.1131</v>
+        <v>177837.571</v>
       </c>
       <c r="G113" t="n">
-        <v>13.40983333333335</v>
+        <v>13.39683333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4578,9 +4566,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,22 +4581,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.14</v>
+        <v>14.08</v>
       </c>
       <c r="C114" t="n">
-        <v>14.14</v>
+        <v>14.08</v>
       </c>
       <c r="D114" t="n">
-        <v>14.14</v>
+        <v>14.08</v>
       </c>
       <c r="E114" t="n">
-        <v>14.14</v>
+        <v>14.08</v>
       </c>
       <c r="F114" t="n">
-        <v>230255.64</v>
+        <v>6260.1131</v>
       </c>
       <c r="G114" t="n">
-        <v>13.42233333333334</v>
+        <v>13.40983333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4619,9 +4605,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,19 +4623,19 @@
         <v>14.14</v>
       </c>
       <c r="C115" t="n">
-        <v>14.07</v>
+        <v>14.14</v>
       </c>
       <c r="D115" t="n">
-        <v>14.17</v>
+        <v>14.14</v>
       </c>
       <c r="E115" t="n">
-        <v>13.81</v>
+        <v>14.14</v>
       </c>
       <c r="F115" t="n">
-        <v>291311.4313</v>
+        <v>230255.64</v>
       </c>
       <c r="G115" t="n">
-        <v>13.43666666666668</v>
+        <v>13.42233333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4660,9 +4644,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,22 +4659,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.99</v>
+        <v>14.14</v>
       </c>
       <c r="C116" t="n">
-        <v>13.99</v>
+        <v>14.07</v>
       </c>
       <c r="D116" t="n">
-        <v>13.99</v>
+        <v>14.17</v>
       </c>
       <c r="E116" t="n">
-        <v>13.99</v>
+        <v>13.81</v>
       </c>
       <c r="F116" t="n">
-        <v>7600</v>
+        <v>291311.4313</v>
       </c>
       <c r="G116" t="n">
-        <v>13.44966666666668</v>
+        <v>13.43666666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4701,9 +4683,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,22 +4698,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="C117" t="n">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="D117" t="n">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="E117" t="n">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F117" t="n">
-        <v>4340</v>
+        <v>7600</v>
       </c>
       <c r="G117" t="n">
-        <v>13.46266666666668</v>
+        <v>13.44966666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4742,9 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,22 +4737,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.86</v>
+        <v>13.96</v>
       </c>
       <c r="C118" t="n">
-        <v>13.77</v>
+        <v>13.96</v>
       </c>
       <c r="D118" t="n">
-        <v>14</v>
+        <v>13.96</v>
       </c>
       <c r="E118" t="n">
-        <v>13.77</v>
+        <v>13.96</v>
       </c>
       <c r="F118" t="n">
-        <v>6133.521</v>
+        <v>4340</v>
       </c>
       <c r="G118" t="n">
-        <v>13.47416666666668</v>
+        <v>13.46266666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4783,9 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,22 +4776,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13.96</v>
+        <v>13.86</v>
       </c>
       <c r="C119" t="n">
-        <v>13.96</v>
+        <v>13.77</v>
       </c>
       <c r="D119" t="n">
-        <v>13.96</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>13.96</v>
+        <v>13.77</v>
       </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>6133.521</v>
       </c>
       <c r="G119" t="n">
-        <v>13.48883333333334</v>
+        <v>13.47416666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4824,9 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,22 +4815,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="C120" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="D120" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="E120" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="F120" t="n">
-        <v>190097.6323</v>
+        <v>36</v>
       </c>
       <c r="G120" t="n">
-        <v>13.49933333333334</v>
+        <v>13.48883333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4865,9 +4839,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,22 +4854,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="C121" t="n">
         <v>13.71</v>
       </c>
       <c r="D121" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="E121" t="n">
         <v>13.71</v>
       </c>
       <c r="F121" t="n">
-        <v>34630.2794</v>
+        <v>190097.6323</v>
       </c>
       <c r="G121" t="n">
-        <v>13.51000000000001</v>
+        <v>13.49933333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4906,9 +4878,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,19 +4896,19 @@
         <v>13.71</v>
       </c>
       <c r="C122" t="n">
-        <v>13.93</v>
+        <v>13.71</v>
       </c>
       <c r="D122" t="n">
-        <v>13.93</v>
+        <v>13.71</v>
       </c>
       <c r="E122" t="n">
         <v>13.71</v>
       </c>
       <c r="F122" t="n">
-        <v>8308.854300000001</v>
+        <v>34630.2794</v>
       </c>
       <c r="G122" t="n">
-        <v>13.52433333333334</v>
+        <v>13.51000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4947,9 +4917,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,22 +4932,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>13.72</v>
+        <v>13.71</v>
       </c>
       <c r="C123" t="n">
-        <v>13.71</v>
+        <v>13.93</v>
       </c>
       <c r="D123" t="n">
-        <v>13.72</v>
+        <v>13.93</v>
       </c>
       <c r="E123" t="n">
         <v>13.71</v>
       </c>
       <c r="F123" t="n">
-        <v>22430.741</v>
+        <v>8308.854300000001</v>
       </c>
       <c r="G123" t="n">
-        <v>13.53483333333334</v>
+        <v>13.52433333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4988,9 +4956,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,22 +4971,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.78</v>
+        <v>13.72</v>
       </c>
       <c r="C124" t="n">
-        <v>13.78</v>
+        <v>13.71</v>
       </c>
       <c r="D124" t="n">
-        <v>13.78</v>
+        <v>13.72</v>
       </c>
       <c r="E124" t="n">
-        <v>13.78</v>
+        <v>13.71</v>
       </c>
       <c r="F124" t="n">
-        <v>12306.546</v>
+        <v>22430.741</v>
       </c>
       <c r="G124" t="n">
-        <v>13.54566666666668</v>
+        <v>13.53483333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5029,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,10 +5022,10 @@
         <v>13.78</v>
       </c>
       <c r="F125" t="n">
-        <v>2574.8379</v>
+        <v>12306.546</v>
       </c>
       <c r="G125" t="n">
-        <v>13.55650000000001</v>
+        <v>13.54566666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5070,9 +5034,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,22 +5049,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.63</v>
+        <v>13.78</v>
       </c>
       <c r="C126" t="n">
-        <v>13.63</v>
+        <v>13.78</v>
       </c>
       <c r="D126" t="n">
-        <v>13.63</v>
+        <v>13.78</v>
       </c>
       <c r="E126" t="n">
-        <v>13.63</v>
+        <v>13.78</v>
       </c>
       <c r="F126" t="n">
-        <v>7129.0276</v>
+        <v>2574.8379</v>
       </c>
       <c r="G126" t="n">
-        <v>13.56450000000001</v>
+        <v>13.55650000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5111,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,19 +5091,19 @@
         <v>13.63</v>
       </c>
       <c r="C127" t="n">
-        <v>13.59</v>
+        <v>13.63</v>
       </c>
       <c r="D127" t="n">
         <v>13.63</v>
       </c>
       <c r="E127" t="n">
-        <v>13.59</v>
+        <v>13.63</v>
       </c>
       <c r="F127" t="n">
-        <v>24051.7735</v>
+        <v>7129.0276</v>
       </c>
       <c r="G127" t="n">
-        <v>13.57166666666668</v>
+        <v>13.56450000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5152,9 +5112,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,22 +5127,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.74</v>
+        <v>13.63</v>
       </c>
       <c r="C128" t="n">
-        <v>13.73</v>
+        <v>13.59</v>
       </c>
       <c r="D128" t="n">
-        <v>13.74</v>
+        <v>13.63</v>
       </c>
       <c r="E128" t="n">
-        <v>13.73</v>
+        <v>13.59</v>
       </c>
       <c r="F128" t="n">
-        <v>9330</v>
+        <v>24051.7735</v>
       </c>
       <c r="G128" t="n">
-        <v>13.58116666666668</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5193,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,22 +5166,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="C129" t="n">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="D129" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="E129" t="n">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="F129" t="n">
-        <v>59751.3525</v>
+        <v>9330</v>
       </c>
       <c r="G129" t="n">
-        <v>13.58833333333335</v>
+        <v>13.58116666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5234,9 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,19 +5208,19 @@
         <v>13.7</v>
       </c>
       <c r="C130" t="n">
-        <v>13.58</v>
+        <v>13.7</v>
       </c>
       <c r="D130" t="n">
         <v>13.7</v>
       </c>
       <c r="E130" t="n">
-        <v>13.58</v>
+        <v>13.7</v>
       </c>
       <c r="F130" t="n">
-        <v>178419.0854</v>
+        <v>59751.3525</v>
       </c>
       <c r="G130" t="n">
-        <v>13.59633333333335</v>
+        <v>13.58833333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5275,9 +5229,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,22 +5244,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C131" t="n">
         <v>13.58</v>
       </c>
-      <c r="C131" t="n">
-        <v>13.56</v>
-      </c>
       <c r="D131" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E131" t="n">
         <v>13.58</v>
       </c>
-      <c r="E131" t="n">
-        <v>13.56</v>
-      </c>
       <c r="F131" t="n">
-        <v>26004.7286</v>
+        <v>178419.0854</v>
       </c>
       <c r="G131" t="n">
-        <v>13.60300000000001</v>
+        <v>13.59633333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5316,9 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,22 +5283,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="C132" t="n">
         <v>13.56</v>
       </c>
       <c r="D132" t="n">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="E132" t="n">
         <v>13.56</v>
       </c>
       <c r="F132" t="n">
-        <v>3400.02</v>
+        <v>26004.7286</v>
       </c>
       <c r="G132" t="n">
-        <v>13.61066666666668</v>
+        <v>13.60300000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5357,9 +5307,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,10 +5334,10 @@
         <v>13.56</v>
       </c>
       <c r="F133" t="n">
-        <v>296</v>
+        <v>3400.02</v>
       </c>
       <c r="G133" t="n">
-        <v>13.61916666666668</v>
+        <v>13.61066666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5398,9 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,19 +5364,19 @@
         <v>13.56</v>
       </c>
       <c r="C134" t="n">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="D134" t="n">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="E134" t="n">
         <v>13.56</v>
       </c>
       <c r="F134" t="n">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="G134" t="n">
-        <v>13.62983333333335</v>
+        <v>13.61916666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5439,9 +5385,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,22 +5400,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="C135" t="n">
         <v>13.57</v>
       </c>
-      <c r="C135" t="n">
-        <v>13.58</v>
-      </c>
       <c r="D135" t="n">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="E135" t="n">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="F135" t="n">
-        <v>11800</v>
+        <v>37</v>
       </c>
       <c r="G135" t="n">
-        <v>13.64250000000001</v>
+        <v>13.62983333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5480,9 +5424,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,22 +5439,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.5</v>
+        <v>13.57</v>
       </c>
       <c r="C136" t="n">
-        <v>13.48</v>
+        <v>13.58</v>
       </c>
       <c r="D136" t="n">
-        <v>13.5</v>
+        <v>13.58</v>
       </c>
       <c r="E136" t="n">
-        <v>13.48</v>
+        <v>13.57</v>
       </c>
       <c r="F136" t="n">
-        <v>7209.9714</v>
+        <v>11800</v>
       </c>
       <c r="G136" t="n">
-        <v>13.65150000000001</v>
+        <v>13.64250000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5521,9 +5463,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,22 +5478,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C137" t="n">
         <v>13.48</v>
       </c>
-      <c r="C137" t="n">
-        <v>13.39</v>
-      </c>
       <c r="D137" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E137" t="n">
         <v>13.48</v>
       </c>
-      <c r="E137" t="n">
-        <v>13.39</v>
-      </c>
       <c r="F137" t="n">
-        <v>61253.7543</v>
+        <v>7209.9714</v>
       </c>
       <c r="G137" t="n">
-        <v>13.65900000000001</v>
+        <v>13.65150000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5562,9 +5502,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,22 +5517,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.39</v>
+        <v>13.48</v>
       </c>
       <c r="C138" t="n">
         <v>13.39</v>
       </c>
       <c r="D138" t="n">
-        <v>13.39</v>
+        <v>13.48</v>
       </c>
       <c r="E138" t="n">
         <v>13.39</v>
       </c>
       <c r="F138" t="n">
-        <v>106647.5166</v>
+        <v>61253.7543</v>
       </c>
       <c r="G138" t="n">
-        <v>13.66633333333334</v>
+        <v>13.65900000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5603,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,10 +5568,10 @@
         <v>13.39</v>
       </c>
       <c r="F139" t="n">
-        <v>1.8309</v>
+        <v>106647.5166</v>
       </c>
       <c r="G139" t="n">
-        <v>13.67483333333334</v>
+        <v>13.66633333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5644,9 +5580,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,22 +5595,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.48</v>
+        <v>13.39</v>
       </c>
       <c r="C140" t="n">
-        <v>13.48</v>
+        <v>13.39</v>
       </c>
       <c r="D140" t="n">
-        <v>13.48</v>
+        <v>13.39</v>
       </c>
       <c r="E140" t="n">
-        <v>13.48</v>
+        <v>13.39</v>
       </c>
       <c r="F140" t="n">
-        <v>40412.1236</v>
+        <v>1.8309</v>
       </c>
       <c r="G140" t="n">
-        <v>13.68383333333334</v>
+        <v>13.67483333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5685,9 +5619,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5714,10 +5646,10 @@
         <v>13.48</v>
       </c>
       <c r="F141" t="n">
-        <v>64970.7181</v>
+        <v>40412.1236</v>
       </c>
       <c r="G141" t="n">
-        <v>13.69150000000001</v>
+        <v>13.68383333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5726,9 +5658,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,10 +5685,10 @@
         <v>13.48</v>
       </c>
       <c r="F142" t="n">
-        <v>9080.3141</v>
+        <v>64970.7181</v>
       </c>
       <c r="G142" t="n">
-        <v>13.69883333333334</v>
+        <v>13.69150000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5767,9 +5697,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,10 +5724,10 @@
         <v>13.48</v>
       </c>
       <c r="F143" t="n">
-        <v>28376.5129</v>
+        <v>9080.3141</v>
       </c>
       <c r="G143" t="n">
-        <v>13.70616666666668</v>
+        <v>13.69883333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5808,9 +5736,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,10 +5763,10 @@
         <v>13.48</v>
       </c>
       <c r="F144" t="n">
-        <v>10157.1448</v>
+        <v>28376.5129</v>
       </c>
       <c r="G144" t="n">
-        <v>13.71283333333334</v>
+        <v>13.70616666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5849,9 +5775,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,10 +5802,10 @@
         <v>13.48</v>
       </c>
       <c r="F145" t="n">
-        <v>16191</v>
+        <v>10157.1448</v>
       </c>
       <c r="G145" t="n">
-        <v>13.71950000000001</v>
+        <v>13.71283333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5890,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,10 +5841,10 @@
         <v>13.48</v>
       </c>
       <c r="F146" t="n">
-        <v>38166.9171</v>
+        <v>16191</v>
       </c>
       <c r="G146" t="n">
-        <v>13.72466666666668</v>
+        <v>13.71950000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5931,9 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,10 +5880,10 @@
         <v>13.48</v>
       </c>
       <c r="F147" t="n">
-        <v>7476</v>
+        <v>38166.9171</v>
       </c>
       <c r="G147" t="n">
-        <v>13.72750000000001</v>
+        <v>13.72466666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5972,9 +5892,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,10 +5919,10 @@
         <v>13.48</v>
       </c>
       <c r="F148" t="n">
-        <v>12000</v>
+        <v>7476</v>
       </c>
       <c r="G148" t="n">
-        <v>13.73066666666668</v>
+        <v>13.72750000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6013,9 +5931,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6033,19 +5949,19 @@
         <v>13.48</v>
       </c>
       <c r="C149" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="D149" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="E149" t="n">
         <v>13.48</v>
       </c>
       <c r="F149" t="n">
-        <v>140514.2994</v>
+        <v>12000</v>
       </c>
       <c r="G149" t="n">
-        <v>13.74066666666668</v>
+        <v>13.73066666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6054,9 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,22 +5985,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.84</v>
+        <v>13.48</v>
       </c>
       <c r="C150" t="n">
-        <v>13.84</v>
+        <v>13.82</v>
       </c>
       <c r="D150" t="n">
-        <v>13.84</v>
+        <v>13.82</v>
       </c>
       <c r="E150" t="n">
-        <v>13.84</v>
+        <v>13.48</v>
       </c>
       <c r="F150" t="n">
-        <v>37</v>
+        <v>140514.2994</v>
       </c>
       <c r="G150" t="n">
-        <v>13.75216666666668</v>
+        <v>13.74066666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6095,9 +6009,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,22 +6024,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.83</v>
+        <v>13.84</v>
       </c>
       <c r="C151" t="n">
-        <v>13.85</v>
+        <v>13.84</v>
       </c>
       <c r="D151" t="n">
-        <v>13.85</v>
+        <v>13.84</v>
       </c>
       <c r="E151" t="n">
-        <v>13.83</v>
+        <v>13.84</v>
       </c>
       <c r="F151" t="n">
-        <v>89802.4019</v>
+        <v>37</v>
       </c>
       <c r="G151" t="n">
-        <v>13.76016666666668</v>
+        <v>13.75216666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6136,9 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,22 +6063,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C152" t="n">
         <v>13.85</v>
       </c>
-      <c r="C152" t="n">
-        <v>13.95</v>
-      </c>
       <c r="D152" t="n">
-        <v>13.95</v>
+        <v>13.85</v>
       </c>
       <c r="E152" t="n">
-        <v>13.85</v>
+        <v>13.83</v>
       </c>
       <c r="F152" t="n">
-        <v>23818.3105</v>
+        <v>89802.4019</v>
       </c>
       <c r="G152" t="n">
-        <v>13.76933333333335</v>
+        <v>13.76016666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6177,9 +6087,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,22 +6102,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C153" t="n">
         <v>13.95</v>
       </c>
-      <c r="C153" t="n">
-        <v>14.05</v>
-      </c>
       <c r="D153" t="n">
-        <v>14.05</v>
+        <v>13.95</v>
       </c>
       <c r="E153" t="n">
-        <v>13.95</v>
+        <v>13.85</v>
       </c>
       <c r="F153" t="n">
-        <v>3567.4542</v>
+        <v>23818.3105</v>
       </c>
       <c r="G153" t="n">
-        <v>13.78100000000001</v>
+        <v>13.76933333333335</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6218,9 +6126,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,22 +6141,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>14.09</v>
+        <v>13.95</v>
       </c>
       <c r="C154" t="n">
-        <v>14.09</v>
+        <v>14.05</v>
       </c>
       <c r="D154" t="n">
-        <v>14.09</v>
+        <v>14.05</v>
       </c>
       <c r="E154" t="n">
-        <v>14.09</v>
+        <v>13.95</v>
       </c>
       <c r="F154" t="n">
-        <v>36</v>
+        <v>3567.4542</v>
       </c>
       <c r="G154" t="n">
-        <v>13.79300000000002</v>
+        <v>13.78100000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6259,9 +6165,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,19 +6183,19 @@
         <v>14.09</v>
       </c>
       <c r="C155" t="n">
-        <v>14.04</v>
+        <v>14.09</v>
       </c>
       <c r="D155" t="n">
-        <v>14.11</v>
+        <v>14.09</v>
       </c>
       <c r="E155" t="n">
-        <v>14.04</v>
+        <v>14.09</v>
       </c>
       <c r="F155" t="n">
-        <v>177284.9417</v>
+        <v>36</v>
       </c>
       <c r="G155" t="n">
-        <v>13.80383333333335</v>
+        <v>13.79300000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6300,9 +6204,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,19 +6222,19 @@
         <v>14.09</v>
       </c>
       <c r="C156" t="n">
-        <v>14.09</v>
+        <v>14.04</v>
       </c>
       <c r="D156" t="n">
-        <v>14.09</v>
+        <v>14.11</v>
       </c>
       <c r="E156" t="n">
-        <v>14.09</v>
+        <v>14.04</v>
       </c>
       <c r="F156" t="n">
-        <v>36</v>
+        <v>177284.9417</v>
       </c>
       <c r="G156" t="n">
-        <v>13.81566666666668</v>
+        <v>13.80383333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6341,9 +6243,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,22 +6258,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>14.06</v>
+        <v>14.09</v>
       </c>
       <c r="C157" t="n">
-        <v>14.08</v>
+        <v>14.09</v>
       </c>
       <c r="D157" t="n">
-        <v>14.08</v>
+        <v>14.09</v>
       </c>
       <c r="E157" t="n">
-        <v>14.06</v>
+        <v>14.09</v>
       </c>
       <c r="F157" t="n">
-        <v>14571.02272727273</v>
+        <v>36</v>
       </c>
       <c r="G157" t="n">
-        <v>13.81666666666668</v>
+        <v>13.81566666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6382,9 +6282,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,22 +6297,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14.09</v>
+        <v>14.06</v>
       </c>
       <c r="C158" t="n">
-        <v>13.89</v>
+        <v>14.08</v>
       </c>
       <c r="D158" t="n">
-        <v>14.09</v>
+        <v>14.08</v>
       </c>
       <c r="E158" t="n">
-        <v>13.89</v>
+        <v>14.06</v>
       </c>
       <c r="F158" t="n">
-        <v>90400.9547</v>
+        <v>14571.02272727273</v>
       </c>
       <c r="G158" t="n">
-        <v>13.81466666666668</v>
+        <v>13.81666666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6423,9 +6321,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,22 +6336,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.85</v>
+        <v>14.09</v>
       </c>
       <c r="C159" t="n">
-        <v>13.85</v>
+        <v>13.89</v>
       </c>
       <c r="D159" t="n">
-        <v>13.85</v>
+        <v>14.09</v>
       </c>
       <c r="E159" t="n">
-        <v>13.85</v>
+        <v>13.89</v>
       </c>
       <c r="F159" t="n">
-        <v>14571.0227</v>
+        <v>90400.9547</v>
       </c>
       <c r="G159" t="n">
-        <v>13.81516666666668</v>
+        <v>13.81466666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6464,9 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,22 +6375,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13.99</v>
+        <v>13.85</v>
       </c>
       <c r="C160" t="n">
-        <v>13.99</v>
+        <v>13.85</v>
       </c>
       <c r="D160" t="n">
-        <v>13.99</v>
+        <v>13.85</v>
       </c>
       <c r="E160" t="n">
-        <v>13.99</v>
+        <v>13.85</v>
       </c>
       <c r="F160" t="n">
-        <v>36</v>
+        <v>14571.0227</v>
       </c>
       <c r="G160" t="n">
-        <v>13.81800000000002</v>
+        <v>13.81516666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6505,9 +6399,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,22 +6414,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.86</v>
+        <v>13.99</v>
       </c>
       <c r="C161" t="n">
-        <v>14.07</v>
+        <v>13.99</v>
       </c>
       <c r="D161" t="n">
-        <v>14.07</v>
+        <v>13.99</v>
       </c>
       <c r="E161" t="n">
-        <v>13.86</v>
+        <v>13.99</v>
       </c>
       <c r="F161" t="n">
-        <v>63400</v>
+        <v>36</v>
       </c>
       <c r="G161" t="n">
-        <v>13.82416666666668</v>
+        <v>13.81800000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6546,9 +6438,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,22 +6453,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.92</v>
+        <v>13.86</v>
       </c>
       <c r="C162" t="n">
-        <v>13.92</v>
+        <v>14.07</v>
       </c>
       <c r="D162" t="n">
-        <v>13.92</v>
+        <v>14.07</v>
       </c>
       <c r="E162" t="n">
-        <v>13.92</v>
+        <v>13.86</v>
       </c>
       <c r="F162" t="n">
-        <v>5153.3673</v>
+        <v>63400</v>
       </c>
       <c r="G162" t="n">
-        <v>13.82116666666668</v>
+        <v>13.82416666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6587,9 +6477,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,22 +6492,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="C163" t="n">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="D163" t="n">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="E163" t="n">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="F163" t="n">
-        <v>36</v>
+        <v>5153.3673</v>
       </c>
       <c r="G163" t="n">
-        <v>13.81750000000001</v>
+        <v>13.82116666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6628,9 +6516,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6645,22 +6531,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.95</v>
+        <v>13.99</v>
       </c>
       <c r="C164" t="n">
-        <v>13.95</v>
+        <v>13.99</v>
       </c>
       <c r="D164" t="n">
-        <v>13.95</v>
+        <v>13.99</v>
       </c>
       <c r="E164" t="n">
-        <v>13.95</v>
+        <v>13.99</v>
       </c>
       <c r="F164" t="n">
         <v>36</v>
       </c>
       <c r="G164" t="n">
-        <v>13.81250000000002</v>
+        <v>13.81750000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6669,9 +6555,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,22 +6570,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.99</v>
+        <v>13.95</v>
       </c>
       <c r="C165" t="n">
-        <v>14.06</v>
+        <v>13.95</v>
       </c>
       <c r="D165" t="n">
-        <v>14.06</v>
+        <v>13.95</v>
       </c>
       <c r="E165" t="n">
-        <v>13.99</v>
+        <v>13.95</v>
       </c>
       <c r="F165" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G165" t="n">
-        <v>13.81100000000001</v>
+        <v>13.81250000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6710,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,22 +6609,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.95</v>
+        <v>13.99</v>
       </c>
       <c r="C166" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="D166" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E166" t="n">
         <v>13.99</v>
       </c>
-      <c r="D166" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E166" t="n">
-        <v>13.95</v>
-      </c>
       <c r="F166" t="n">
-        <v>22489.9999</v>
+        <v>72</v>
       </c>
       <c r="G166" t="n">
-        <v>13.80583333333335</v>
+        <v>13.81100000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6751,9 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,22 +6648,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="C167" t="n">
-        <v>13.98</v>
+        <v>13.99</v>
       </c>
       <c r="D167" t="n">
-        <v>13.98</v>
+        <v>13.99</v>
       </c>
       <c r="E167" t="n">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="F167" t="n">
-        <v>62975.8244</v>
+        <v>22489.9999</v>
       </c>
       <c r="G167" t="n">
-        <v>13.80050000000002</v>
+        <v>13.80583333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6792,9 +6672,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,22 +6687,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.97</v>
+        <v>13.98</v>
       </c>
       <c r="C168" t="n">
-        <v>13.95</v>
+        <v>13.98</v>
       </c>
       <c r="D168" t="n">
-        <v>13.97</v>
+        <v>13.98</v>
       </c>
       <c r="E168" t="n">
-        <v>13.95</v>
+        <v>13.98</v>
       </c>
       <c r="F168" t="n">
-        <v>78931.7651</v>
+        <v>62975.8244</v>
       </c>
       <c r="G168" t="n">
-        <v>13.79466666666668</v>
+        <v>13.80050000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6833,9 +6711,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,22 +6726,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>14.09</v>
+        <v>13.97</v>
       </c>
       <c r="C169" t="n">
-        <v>14.09</v>
+        <v>13.95</v>
       </c>
       <c r="D169" t="n">
-        <v>14.09</v>
+        <v>13.97</v>
       </c>
       <c r="E169" t="n">
-        <v>13.96</v>
+        <v>13.95</v>
       </c>
       <c r="F169" t="n">
-        <v>12038.9554</v>
+        <v>78931.7651</v>
       </c>
       <c r="G169" t="n">
-        <v>13.78950000000002</v>
+        <v>13.79466666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6874,9 +6750,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,7 +6765,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>14.08</v>
+        <v>14.09</v>
       </c>
       <c r="C170" t="n">
         <v>14.09</v>
@@ -6900,13 +6774,13 @@
         <v>14.09</v>
       </c>
       <c r="E170" t="n">
-        <v>14.08</v>
+        <v>13.96</v>
       </c>
       <c r="F170" t="n">
-        <v>13130.08374733854</v>
+        <v>12038.9554</v>
       </c>
       <c r="G170" t="n">
-        <v>13.78750000000002</v>
+        <v>13.78950000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6915,9 +6789,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,7 +6804,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>14.09</v>
+        <v>14.08</v>
       </c>
       <c r="C171" t="n">
         <v>14.09</v>
@@ -6941,13 +6813,13 @@
         <v>14.09</v>
       </c>
       <c r="E171" t="n">
-        <v>14.09</v>
+        <v>14.08</v>
       </c>
       <c r="F171" t="n">
-        <v>39098.7296</v>
+        <v>13130.08374733854</v>
       </c>
       <c r="G171" t="n">
-        <v>13.79016666666669</v>
+        <v>13.78750000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6956,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,10 +6855,10 @@
         <v>14.09</v>
       </c>
       <c r="F172" t="n">
-        <v>1330</v>
+        <v>39098.7296</v>
       </c>
       <c r="G172" t="n">
-        <v>13.79050000000002</v>
+        <v>13.79016666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6997,9 +6867,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,22 +6882,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14.05</v>
+        <v>14.09</v>
       </c>
       <c r="C173" t="n">
-        <v>14.05</v>
+        <v>14.09</v>
       </c>
       <c r="D173" t="n">
-        <v>14.05</v>
+        <v>14.09</v>
       </c>
       <c r="E173" t="n">
-        <v>14.05</v>
+        <v>14.09</v>
       </c>
       <c r="F173" t="n">
-        <v>1604.7682</v>
+        <v>1330</v>
       </c>
       <c r="G173" t="n">
-        <v>13.79000000000002</v>
+        <v>13.79050000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7038,9 +6906,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,22 +6921,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13.94</v>
+        <v>14.05</v>
       </c>
       <c r="C174" t="n">
-        <v>13.94</v>
+        <v>14.05</v>
       </c>
       <c r="D174" t="n">
-        <v>13.94</v>
+        <v>14.05</v>
       </c>
       <c r="E174" t="n">
-        <v>13.94</v>
+        <v>14.05</v>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>1604.7682</v>
       </c>
       <c r="G174" t="n">
-        <v>13.78666666666669</v>
+        <v>13.79000000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7079,9 +6945,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,22 +6960,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.95</v>
+        <v>13.94</v>
       </c>
       <c r="C175" t="n">
-        <v>13.95</v>
+        <v>13.94</v>
       </c>
       <c r="D175" t="n">
-        <v>13.95</v>
+        <v>13.94</v>
       </c>
       <c r="E175" t="n">
-        <v>13.95</v>
+        <v>13.94</v>
       </c>
       <c r="F175" t="n">
-        <v>13130.0838</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="n">
-        <v>13.78466666666669</v>
+        <v>13.78666666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7120,9 +6984,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7137,22 +6999,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.99</v>
+        <v>13.95</v>
       </c>
       <c r="C176" t="n">
-        <v>14.09</v>
+        <v>13.95</v>
       </c>
       <c r="D176" t="n">
-        <v>14.09</v>
+        <v>13.95</v>
       </c>
       <c r="E176" t="n">
-        <v>13.99</v>
+        <v>13.95</v>
       </c>
       <c r="F176" t="n">
-        <v>26846.24</v>
+        <v>13130.0838</v>
       </c>
       <c r="G176" t="n">
-        <v>13.78633333333335</v>
+        <v>13.78466666666669</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7161,9 +7023,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,7 +7038,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.09</v>
+        <v>13.99</v>
       </c>
       <c r="C177" t="n">
         <v>14.09</v>
@@ -7187,13 +7047,13 @@
         <v>14.09</v>
       </c>
       <c r="E177" t="n">
-        <v>14.09</v>
+        <v>13.99</v>
       </c>
       <c r="F177" t="n">
-        <v>35486</v>
+        <v>26846.24</v>
       </c>
       <c r="G177" t="n">
-        <v>13.78850000000002</v>
+        <v>13.78633333333335</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7202,9 +7062,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,22 +7077,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>13.97</v>
+        <v>14.09</v>
       </c>
       <c r="C178" t="n">
-        <v>13.97</v>
+        <v>14.09</v>
       </c>
       <c r="D178" t="n">
-        <v>13.97</v>
+        <v>14.09</v>
       </c>
       <c r="E178" t="n">
-        <v>13.97</v>
+        <v>14.09</v>
       </c>
       <c r="F178" t="n">
-        <v>2353.2398</v>
+        <v>35486</v>
       </c>
       <c r="G178" t="n">
-        <v>13.79183333333335</v>
+        <v>13.78850000000002</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7243,9 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,19 +7116,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="C179" t="n">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="D179" t="n">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="E179" t="n">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="F179" t="n">
-        <v>58798.152</v>
+        <v>2353.2398</v>
       </c>
       <c r="G179" t="n">
         <v>13.79183333333335</v>
@@ -7284,9 +7140,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,22 +7155,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>13.84</v>
+        <v>13.96</v>
       </c>
       <c r="C180" t="n">
-        <v>13.84</v>
+        <v>13.96</v>
       </c>
       <c r="D180" t="n">
-        <v>13.84</v>
+        <v>13.96</v>
       </c>
       <c r="E180" t="n">
-        <v>13.84</v>
+        <v>13.96</v>
       </c>
       <c r="F180" t="n">
-        <v>8975.2166</v>
+        <v>58798.152</v>
       </c>
       <c r="G180" t="n">
-        <v>13.79400000000002</v>
+        <v>13.79183333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7325,9 +7179,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,10 +7206,10 @@
         <v>13.84</v>
       </c>
       <c r="F181" t="n">
-        <v>5941.6402</v>
+        <v>8975.2166</v>
       </c>
       <c r="G181" t="n">
-        <v>13.79616666666669</v>
+        <v>13.79400000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7366,9 +7218,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,19 +7236,19 @@
         <v>13.84</v>
       </c>
       <c r="C182" t="n">
-        <v>13.83</v>
+        <v>13.84</v>
       </c>
       <c r="D182" t="n">
         <v>13.84</v>
       </c>
       <c r="E182" t="n">
-        <v>13.83</v>
+        <v>13.84</v>
       </c>
       <c r="F182" t="n">
-        <v>58643.46</v>
+        <v>5941.6402</v>
       </c>
       <c r="G182" t="n">
-        <v>13.79450000000002</v>
+        <v>13.79616666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7407,9 +7257,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7424,22 +7272,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C183" t="n">
         <v>13.83</v>
       </c>
-      <c r="C183" t="n">
-        <v>13.82</v>
-      </c>
       <c r="D183" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E183" t="n">
         <v>13.83</v>
       </c>
-      <c r="E183" t="n">
-        <v>13.82</v>
-      </c>
       <c r="F183" t="n">
-        <v>54977.4633</v>
+        <v>58643.46</v>
       </c>
       <c r="G183" t="n">
-        <v>13.79633333333336</v>
+        <v>13.79450000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7448,9 +7296,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,22 +7311,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C184" t="n">
         <v>13.82</v>
       </c>
-      <c r="C184" t="n">
-        <v>13.59</v>
-      </c>
       <c r="D184" t="n">
-        <v>13.94</v>
+        <v>13.83</v>
       </c>
       <c r="E184" t="n">
-        <v>13.59</v>
+        <v>13.82</v>
       </c>
       <c r="F184" t="n">
-        <v>89164.99189999999</v>
+        <v>54977.4633</v>
       </c>
       <c r="G184" t="n">
-        <v>13.79316666666669</v>
+        <v>13.79633333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7489,9 +7335,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7506,22 +7350,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>13.84</v>
+        <v>13.82</v>
       </c>
       <c r="C185" t="n">
-        <v>13.84</v>
+        <v>13.59</v>
       </c>
       <c r="D185" t="n">
-        <v>13.84</v>
+        <v>13.94</v>
       </c>
       <c r="E185" t="n">
-        <v>13.84</v>
+        <v>13.59</v>
       </c>
       <c r="F185" t="n">
-        <v>37</v>
+        <v>89164.99189999999</v>
       </c>
       <c r="G185" t="n">
-        <v>13.79416666666669</v>
+        <v>13.79316666666669</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7530,9 +7374,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,22 +7389,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>13.74</v>
+        <v>13.84</v>
       </c>
       <c r="C186" t="n">
-        <v>13.74</v>
+        <v>13.84</v>
       </c>
       <c r="D186" t="n">
-        <v>13.74</v>
+        <v>13.84</v>
       </c>
       <c r="E186" t="n">
-        <v>13.74</v>
+        <v>13.84</v>
       </c>
       <c r="F186" t="n">
-        <v>5794.8265</v>
+        <v>37</v>
       </c>
       <c r="G186" t="n">
-        <v>13.79600000000002</v>
+        <v>13.79416666666669</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7571,9 +7413,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,22 +7428,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="C187" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="D187" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="E187" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="F187" t="n">
-        <v>2649.7949</v>
+        <v>5794.8265</v>
       </c>
       <c r="G187" t="n">
-        <v>13.79783333333336</v>
+        <v>13.79600000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7612,9 +7452,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7629,22 +7467,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.71</v>
+        <v>13.7</v>
       </c>
       <c r="C188" t="n">
-        <v>13.71</v>
+        <v>13.7</v>
       </c>
       <c r="D188" t="n">
-        <v>13.71</v>
+        <v>13.7</v>
       </c>
       <c r="E188" t="n">
-        <v>13.71</v>
+        <v>13.7</v>
       </c>
       <c r="F188" t="n">
-        <v>23228.629</v>
+        <v>2649.7949</v>
       </c>
       <c r="G188" t="n">
-        <v>13.79750000000002</v>
+        <v>13.79783333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7653,9 +7491,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,22 +7506,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.78</v>
+        <v>13.71</v>
       </c>
       <c r="C189" t="n">
-        <v>13.77</v>
+        <v>13.71</v>
       </c>
       <c r="D189" t="n">
-        <v>13.78</v>
+        <v>13.71</v>
       </c>
       <c r="E189" t="n">
-        <v>13.7</v>
+        <v>13.71</v>
       </c>
       <c r="F189" t="n">
-        <v>47022.315</v>
+        <v>23228.629</v>
       </c>
       <c r="G189" t="n">
-        <v>13.79866666666669</v>
+        <v>13.79750000000002</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7694,9 +7530,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7711,22 +7545,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>13.76</v>
+        <v>13.78</v>
       </c>
       <c r="C190" t="n">
-        <v>13.76</v>
+        <v>13.77</v>
       </c>
       <c r="D190" t="n">
-        <v>13.76</v>
+        <v>13.78</v>
       </c>
       <c r="E190" t="n">
-        <v>13.76</v>
+        <v>13.7</v>
       </c>
       <c r="F190" t="n">
-        <v>100</v>
+        <v>47022.315</v>
       </c>
       <c r="G190" t="n">
-        <v>13.80166666666669</v>
+        <v>13.79866666666669</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7735,9 +7569,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7752,22 +7584,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="C191" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="D191" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="E191" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="F191" t="n">
-        <v>4250</v>
+        <v>100</v>
       </c>
       <c r="G191" t="n">
-        <v>13.80416666666669</v>
+        <v>13.80166666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7776,9 +7608,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,22 +7623,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.6</v>
+        <v>13.71</v>
       </c>
       <c r="C192" t="n">
-        <v>13.58</v>
+        <v>13.71</v>
       </c>
       <c r="D192" t="n">
-        <v>13.6</v>
+        <v>13.71</v>
       </c>
       <c r="E192" t="n">
-        <v>13.58</v>
+        <v>13.71</v>
       </c>
       <c r="F192" t="n">
-        <v>116414.7897</v>
+        <v>4250</v>
       </c>
       <c r="G192" t="n">
-        <v>13.80450000000003</v>
+        <v>13.80416666666669</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7817,9 +7647,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7834,22 +7662,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>13.65</v>
+        <v>13.6</v>
       </c>
       <c r="C193" t="n">
-        <v>13.65</v>
+        <v>13.58</v>
       </c>
       <c r="D193" t="n">
-        <v>13.65</v>
+        <v>13.6</v>
       </c>
       <c r="E193" t="n">
-        <v>13.65</v>
+        <v>13.58</v>
       </c>
       <c r="F193" t="n">
-        <v>4240</v>
+        <v>116414.7897</v>
       </c>
       <c r="G193" t="n">
-        <v>13.80600000000003</v>
+        <v>13.80450000000003</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7858,9 +7686,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7875,22 +7701,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>13.75</v>
+        <v>13.65</v>
       </c>
       <c r="C194" t="n">
-        <v>13.75</v>
+        <v>13.65</v>
       </c>
       <c r="D194" t="n">
-        <v>13.75</v>
+        <v>13.65</v>
       </c>
       <c r="E194" t="n">
-        <v>13.75</v>
+        <v>13.65</v>
       </c>
       <c r="F194" t="n">
-        <v>37</v>
+        <v>4240</v>
       </c>
       <c r="G194" t="n">
-        <v>13.80900000000003</v>
+        <v>13.80600000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7899,9 +7725,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7928,10 +7752,10 @@
         <v>13.75</v>
       </c>
       <c r="F195" t="n">
-        <v>24400</v>
+        <v>37</v>
       </c>
       <c r="G195" t="n">
-        <v>13.81183333333336</v>
+        <v>13.80900000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7940,9 +7764,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,10 +7791,10 @@
         <v>13.75</v>
       </c>
       <c r="F196" t="n">
-        <v>5445.9639</v>
+        <v>24400</v>
       </c>
       <c r="G196" t="n">
-        <v>13.81633333333336</v>
+        <v>13.81183333333336</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7981,9 +7803,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,22 +7818,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>13.65</v>
+        <v>13.75</v>
       </c>
       <c r="C197" t="n">
-        <v>13.65</v>
+        <v>13.75</v>
       </c>
       <c r="D197" t="n">
-        <v>13.65</v>
+        <v>13.75</v>
       </c>
       <c r="E197" t="n">
-        <v>13.65</v>
+        <v>13.75</v>
       </c>
       <c r="F197" t="n">
-        <v>40974.606</v>
+        <v>5445.9639</v>
       </c>
       <c r="G197" t="n">
-        <v>13.82066666666669</v>
+        <v>13.81633333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8022,9 +7842,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>12.94</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,39 +7857,76 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C198" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D198" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F198" t="n">
+        <v>40974.606</v>
+      </c>
+      <c r="G198" t="n">
+        <v>13.82066666666669</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>13.59</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C199" t="n">
         <v>13.59</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D199" t="n">
         <v>13.59</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E199" t="n">
         <v>13.59</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F199" t="n">
         <v>886.76</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G199" t="n">
         <v>13.82400000000002</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6740.7335</v>
       </c>
       <c r="G2" t="n">
+        <v>12.31600000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.18716666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>22479.4023</v>
       </c>
       <c r="G3" t="n">
+        <v>12.33133333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.192</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>6017.0173</v>
       </c>
       <c r="G4" t="n">
+        <v>12.35733333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.19883333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>78244.2749</v>
       </c>
       <c r="G5" t="n">
+        <v>12.39466666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.20916666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>26430.9973</v>
       </c>
       <c r="G6" t="n">
+        <v>12.43266666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.21766666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>14000</v>
       </c>
       <c r="G7" t="n">
+        <v>12.47133333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.22483333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>15527.8186</v>
       </c>
       <c r="G8" t="n">
+        <v>12.50933333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.23533333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>8399.709800000001</v>
       </c>
       <c r="G9" t="n">
+        <v>12.55600000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.248</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,21 @@
         <v>169409.3070144522</v>
       </c>
       <c r="G10" t="n">
+        <v>12.60266666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.26066666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,21 @@
         <v>3004.9014</v>
       </c>
       <c r="G11" t="n">
+        <v>12.65666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.277</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,21 @@
         <v>112271.0655</v>
       </c>
       <c r="G12" t="n">
+        <v>12.71000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.29316666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +889,21 @@
         <v>4000</v>
       </c>
       <c r="G13" t="n">
+        <v>12.77066666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.31133333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +927,21 @@
         <v>20000</v>
       </c>
       <c r="G14" t="n">
+        <v>12.83133333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.3295</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +965,21 @@
         <v>50642</v>
       </c>
       <c r="G15" t="n">
+        <v>12.89266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.346</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1003,21 @@
         <v>62603</v>
       </c>
       <c r="G16" t="n">
+        <v>12.94333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.36433333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1041,21 @@
         <v>8000</v>
       </c>
       <c r="G17" t="n">
+        <v>12.994</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.38266666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1079,21 @@
         <v>256477.1964</v>
       </c>
       <c r="G18" t="n">
+        <v>13.05866666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.40266666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1117,21 @@
         <v>5304</v>
       </c>
       <c r="G19" t="n">
+        <v>13.10866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.42500000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1155,21 @@
         <v>21565.2535</v>
       </c>
       <c r="G20" t="n">
+        <v>13.14733333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.44816666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1193,21 @@
         <v>385574.4126</v>
       </c>
       <c r="G21" t="n">
+        <v>13.18933333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.47166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1231,21 @@
         <v>61387.2739</v>
       </c>
       <c r="G22" t="n">
+        <v>13.23133333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1269,21 @@
         <v>117898.0691</v>
       </c>
       <c r="G23" t="n">
+        <v>13.28533333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.52266666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1307,21 @@
         <v>121810.5145</v>
       </c>
       <c r="G24" t="n">
+        <v>13.32933333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.55016666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1345,21 @@
         <v>25876.6914</v>
       </c>
       <c r="G25" t="n">
+        <v>13.37333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.57766666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,21 @@
         <v>63710.0416</v>
       </c>
       <c r="G26" t="n">
+        <v>13.41133333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.60466666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1421,21 @@
         <v>44926.109</v>
       </c>
       <c r="G27" t="n">
+        <v>13.438</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.62616666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1459,21 @@
         <v>49655.1256</v>
       </c>
       <c r="G28" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.6505</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1497,21 @@
         <v>13671.9424</v>
       </c>
       <c r="G29" t="n">
+        <v>13.502</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.67783333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1535,21 @@
         <v>72364.16220000001</v>
       </c>
       <c r="G30" t="n">
+        <v>13.54333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.70766666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1573,21 @@
         <v>283064.1106307857</v>
       </c>
       <c r="G31" t="n">
+        <v>13.59533333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.74266666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1611,21 @@
         <v>15623.6632</v>
       </c>
       <c r="G32" t="n">
+        <v>13.64733333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.77766666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1649,21 @@
         <v>26182.9914</v>
       </c>
       <c r="G33" t="n">
+        <v>13.68466666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.81266666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1687,21 @@
         <v>238443.0081</v>
       </c>
       <c r="G34" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.84766666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1725,21 @@
         <v>196579.9747692143</v>
       </c>
       <c r="G35" t="n">
+        <v>13.76266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.88116666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1763,21 @@
         <v>127904.4482</v>
       </c>
       <c r="G36" t="n">
+        <v>13.764</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.90483333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1801,21 @@
         <v>18372.2658</v>
       </c>
       <c r="G37" t="n">
+        <v>13.788</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.93583333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1839,21 @@
         <v>9957.9519</v>
       </c>
       <c r="G38" t="n">
+        <v>13.77733333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.95733333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,21 @@
         <v>77886.0336</v>
       </c>
       <c r="G39" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.97933333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1915,21 @@
         <v>102792.7216</v>
       </c>
       <c r="G40" t="n">
+        <v>13.76066666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>13.00083333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1953,21 @@
         <v>9392.5797</v>
       </c>
       <c r="G41" t="n">
+        <v>13.75600000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>13.02366666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1991,21 @@
         <v>3050</v>
       </c>
       <c r="G42" t="n">
+        <v>13.76466666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>13.04683333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2029,21 @@
         <v>3050</v>
       </c>
       <c r="G43" t="n">
+        <v>13.76066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>13.07000000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2067,21 @@
         <v>79109.432</v>
       </c>
       <c r="G44" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>13.094</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2105,21 @@
         <v>4539.0579</v>
       </c>
       <c r="G45" t="n">
+        <v>13.738</v>
+      </c>
+      <c r="H45" t="n">
         <v>13.11516666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2143,21 @@
         <v>4530</v>
       </c>
       <c r="G46" t="n">
+        <v>13.70533333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>13.13633333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2181,21 @@
         <v>12307.8943</v>
       </c>
       <c r="G47" t="n">
+        <v>13.67266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>13.1575</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2219,21 @@
         <v>2650</v>
       </c>
       <c r="G48" t="n">
+        <v>13.63733333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>13.178</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2257,21 @@
         <v>60743.9123</v>
       </c>
       <c r="G49" t="n">
+        <v>13.59666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>13.19616666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2295,21 @@
         <v>8918</v>
       </c>
       <c r="G50" t="n">
+        <v>13.55933333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>13.21600000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2333,21 @@
         <v>37885.8897</v>
       </c>
       <c r="G51" t="n">
+        <v>13.55733333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>13.23583333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2371,21 @@
         <v>339885.0329</v>
       </c>
       <c r="G52" t="n">
+        <v>13.502</v>
+      </c>
+      <c r="H52" t="n">
         <v>13.24816666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2409,21 @@
         <v>31946.9479</v>
       </c>
       <c r="G53" t="n">
+        <v>13.49266666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>13.26616666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2447,21 @@
         <v>5162.5565</v>
       </c>
       <c r="G54" t="n">
+        <v>13.476</v>
+      </c>
+      <c r="H54" t="n">
         <v>13.28283333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2485,21 @@
         <v>61940.6242</v>
       </c>
       <c r="G55" t="n">
+        <v>13.46733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>13.30100000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2523,21 @@
         <v>1955.7116</v>
       </c>
       <c r="G56" t="n">
+        <v>13.44133333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>13.31633333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2561,21 @@
         <v>75157.3251</v>
       </c>
       <c r="G57" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>13.33150000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2599,21 @@
         <v>22582</v>
       </c>
       <c r="G58" t="n">
+        <v>13.38333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>13.34616666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,24 +2637,21 @@
         <v>10539.4023</v>
       </c>
       <c r="G59" t="n">
+        <v>13.34333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>13.35916666666668</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,22 +2675,21 @@
         <v>1488.9127</v>
       </c>
       <c r="G60" t="n">
+        <v>13.31466666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>13.37216666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,24 +2713,21 @@
         <v>1935.5865</v>
       </c>
       <c r="G61" t="n">
+        <v>13.28600000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>13.38250000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>13.08</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,22 +2751,21 @@
         <v>11448.0012</v>
       </c>
       <c r="G62" t="n">
+        <v>13.25666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>13.39266666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,24 +2789,21 @@
         <v>11448.0775</v>
       </c>
       <c r="G63" t="n">
+        <v>13.23000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>13.40266666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,24 +2827,21 @@
         <v>10008.9151</v>
       </c>
       <c r="G64" t="n">
+        <v>13.20933333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>13.40916666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,22 +2865,21 @@
         <v>46062</v>
       </c>
       <c r="G65" t="n">
+        <v>13.18533333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>13.41366666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,22 +2903,21 @@
         <v>1454</v>
       </c>
       <c r="G66" t="n">
+        <v>13.16133333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>13.41800000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,22 +2941,21 @@
         <v>7722.043</v>
       </c>
       <c r="G67" t="n">
+        <v>13.16933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>13.42266666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,22 +2979,21 @@
         <v>46268</v>
       </c>
       <c r="G68" t="n">
+        <v>13.15466666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>13.42750000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,22 +3017,21 @@
         <v>931</v>
       </c>
       <c r="G69" t="n">
+        <v>13.14533333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>13.43016666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +3055,21 @@
         <v>6008.3114</v>
       </c>
       <c r="G70" t="n">
+        <v>13.13733333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>13.43466666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,22 +3093,21 @@
         <v>555.8056</v>
       </c>
       <c r="G71" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="H71" t="n">
         <v>13.43466666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,22 +3131,21 @@
         <v>2656.231003039514</v>
       </c>
       <c r="G72" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>13.43566666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,22 +3169,21 @@
         <v>590.9709</v>
       </c>
       <c r="G73" t="n">
+        <v>13.12133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>13.43383333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +3207,21 @@
         <v>14936.3623</v>
       </c>
       <c r="G74" t="n">
+        <v>13.11933333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>13.43116666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,22 +3245,21 @@
         <v>603.7968</v>
       </c>
       <c r="G75" t="n">
+        <v>13.10933333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>13.42633333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,22 +3283,21 @@
         <v>2335</v>
       </c>
       <c r="G76" t="n">
+        <v>13.092</v>
+      </c>
+      <c r="H76" t="n">
         <v>13.41966666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,22 +3321,21 @@
         <v>3500</v>
       </c>
       <c r="G77" t="n">
+        <v>13.08333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>13.41500000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,22 +3359,21 @@
         <v>420</v>
       </c>
       <c r="G78" t="n">
+        <v>13.07466666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>13.40666666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,22 +3397,21 @@
         <v>2709.9999</v>
       </c>
       <c r="G79" t="n">
+        <v>13.066</v>
+      </c>
+      <c r="H79" t="n">
         <v>13.39850000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,22 +3435,21 @@
         <v>11586.9424</v>
       </c>
       <c r="G80" t="n">
+        <v>13.04933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>13.38916666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,22 +3473,21 @@
         <v>5727.7183</v>
       </c>
       <c r="G81" t="n">
+        <v>13.03666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>13.37983333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,22 +3511,21 @@
         <v>38800</v>
       </c>
       <c r="G82" t="n">
+        <v>13.028</v>
+      </c>
+      <c r="H82" t="n">
         <v>13.37183333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,22 +3549,21 @@
         <v>19400</v>
       </c>
       <c r="G83" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H83" t="n">
         <v>13.36116666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,22 +3587,21 @@
         <v>6171.8201</v>
       </c>
       <c r="G84" t="n">
+        <v>13.012</v>
+      </c>
+      <c r="H84" t="n">
         <v>13.35083333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,22 +3625,21 @@
         <v>5586.676</v>
       </c>
       <c r="G85" t="n">
+        <v>12.99933333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>13.34116666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,22 +3663,21 @@
         <v>5015.5046</v>
       </c>
       <c r="G86" t="n">
+        <v>12.998</v>
+      </c>
+      <c r="H86" t="n">
         <v>13.33133333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,22 +3701,21 @@
         <v>26000</v>
       </c>
       <c r="G87" t="n">
+        <v>12.99866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>13.32583333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,22 +3739,21 @@
         <v>13000</v>
       </c>
       <c r="G88" t="n">
+        <v>13.01266666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>13.31950000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3621,22 +3777,21 @@
         <v>12726.9456</v>
       </c>
       <c r="G89" t="n">
+        <v>13.02866666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>13.31283333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,22 +3815,21 @@
         <v>872.8262</v>
       </c>
       <c r="G90" t="n">
+        <v>13.048</v>
+      </c>
+      <c r="H90" t="n">
         <v>13.30250000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,22 +3853,21 @@
         <v>11854.1194</v>
       </c>
       <c r="G91" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="H91" t="n">
         <v>13.28833333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,22 +3891,21 @@
         <v>2999</v>
       </c>
       <c r="G92" t="n">
+        <v>13.09866666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>13.27783333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,22 +3929,21 @@
         <v>76</v>
       </c>
       <c r="G93" t="n">
+        <v>13.12933333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>13.26783333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,22 +3967,21 @@
         <v>2694.231</v>
       </c>
       <c r="G94" t="n">
+        <v>13.156</v>
+      </c>
+      <c r="H94" t="n">
         <v>13.25700000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,22 +4005,21 @@
         <v>38</v>
       </c>
       <c r="G95" t="n">
+        <v>13.18866666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>13.24566666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,22 +4043,21 @@
         <v>38</v>
       </c>
       <c r="G96" t="n">
+        <v>13.21866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>13.24350000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,22 +4081,21 @@
         <v>2714.4109</v>
       </c>
       <c r="G97" t="n">
+        <v>13.24266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.23550000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,22 +4119,21 @@
         <v>113941.4686</v>
       </c>
       <c r="G98" t="n">
+        <v>13.308</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.24383333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,22 +4157,21 @@
         <v>15708.77944325482</v>
       </c>
       <c r="G99" t="n">
+        <v>13.37266666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.25150000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,22 +4195,21 @@
         <v>2196.9696</v>
       </c>
       <c r="G100" t="n">
+        <v>13.422</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.25650000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,22 +4233,21 @@
         <v>104.2137</v>
       </c>
       <c r="G101" t="n">
+        <v>13.47133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.26016666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,22 +4271,21 @@
         <v>16000</v>
       </c>
       <c r="G102" t="n">
+        <v>13.50666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.26133333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,22 +4309,21 @@
         <v>126261.2504</v>
       </c>
       <c r="G103" t="n">
+        <v>13.55933333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.26916666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,22 +4347,21 @@
         <v>62460.2234</v>
       </c>
       <c r="G104" t="n">
+        <v>13.62066666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.27800000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,22 +4385,21 @@
         <v>127932.9764</v>
       </c>
       <c r="G105" t="n">
+        <v>13.68933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.29033333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,22 +4423,21 @@
         <v>195526.6981</v>
       </c>
       <c r="G106" t="n">
+        <v>13.756</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.30100000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,22 +4461,21 @@
         <v>16516</v>
       </c>
       <c r="G107" t="n">
+        <v>13.818</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.31416666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,22 +4499,21 @@
         <v>7420.0277</v>
       </c>
       <c r="G108" t="n">
+        <v>13.878</v>
+      </c>
+      <c r="H108" t="n">
         <v>13.32800000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,22 +4537,21 @@
         <v>27511.466</v>
       </c>
       <c r="G109" t="n">
+        <v>13.94133333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>13.34316666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,22 +4575,21 @@
         <v>136247.7294</v>
       </c>
       <c r="G110" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="H110" t="n">
         <v>13.35833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,22 +4613,21 @@
         <v>5238.9439</v>
       </c>
       <c r="G111" t="n">
+        <v>14.06466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>13.37033333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,22 +4651,21 @@
         <v>117085.405</v>
       </c>
       <c r="G112" t="n">
+        <v>14.10133333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>13.38533333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,22 +4689,21 @@
         <v>177837.571</v>
       </c>
       <c r="G113" t="n">
+        <v>14.10466666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>13.39683333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,22 +4727,21 @@
         <v>6260.1131</v>
       </c>
       <c r="G114" t="n">
+        <v>14.10933333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>13.40983333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,22 +4765,21 @@
         <v>230255.64</v>
       </c>
       <c r="G115" t="n">
+        <v>14.13066666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>13.42233333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,22 +4803,21 @@
         <v>291311.4313</v>
       </c>
       <c r="G116" t="n">
+        <v>14.14733333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>13.43666666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4713,22 +4841,21 @@
         <v>7600</v>
       </c>
       <c r="G117" t="n">
+        <v>14.16666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>13.44966666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,22 +4879,21 @@
         <v>4340</v>
       </c>
       <c r="G118" t="n">
+        <v>14.15733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>13.46266666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,22 +4917,21 @@
         <v>6133.521</v>
       </c>
       <c r="G119" t="n">
+        <v>14.12800000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>13.47416666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,22 +4955,21 @@
         <v>36</v>
       </c>
       <c r="G120" t="n">
+        <v>14.10866666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>13.48883333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,22 +4993,21 @@
         <v>190097.6323</v>
       </c>
       <c r="G121" t="n">
+        <v>14.07933333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>13.49933333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,22 +5031,21 @@
         <v>34630.2794</v>
       </c>
       <c r="G122" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H122" t="n">
         <v>13.51000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,22 +5069,21 @@
         <v>8308.854300000001</v>
       </c>
       <c r="G123" t="n">
+        <v>14.01533333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>13.52433333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,22 +5107,21 @@
         <v>22430.741</v>
       </c>
       <c r="G124" t="n">
+        <v>13.976</v>
+      </c>
+      <c r="H124" t="n">
         <v>13.53483333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,22 +5145,21 @@
         <v>12306.546</v>
       </c>
       <c r="G125" t="n">
+        <v>13.93466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>13.54566666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,22 +5183,21 @@
         <v>2574.8379</v>
       </c>
       <c r="G126" t="n">
+        <v>13.906</v>
+      </c>
+      <c r="H126" t="n">
         <v>13.55650000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,22 +5221,21 @@
         <v>7129.0276</v>
       </c>
       <c r="G127" t="n">
+        <v>13.886</v>
+      </c>
+      <c r="H127" t="n">
         <v>13.56450000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,22 +5259,21 @@
         <v>24051.7735</v>
       </c>
       <c r="G128" t="n">
+        <v>13.854</v>
+      </c>
+      <c r="H128" t="n">
         <v>13.57166666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5181,22 +5297,21 @@
         <v>9330</v>
       </c>
       <c r="G129" t="n">
+        <v>13.83066666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>13.58116666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,22 +5335,21 @@
         <v>59751.3525</v>
       </c>
       <c r="G130" t="n">
+        <v>13.80133333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>13.58833333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,22 +5373,21 @@
         <v>178419.0854</v>
       </c>
       <c r="G131" t="n">
+        <v>13.76866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>13.59633333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,22 +5411,21 @@
         <v>26004.7286</v>
       </c>
       <c r="G132" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="H132" t="n">
         <v>13.60300000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,22 +5449,21 @@
         <v>3400.02</v>
       </c>
       <c r="G133" t="n">
+        <v>13.71333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>13.61066666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,22 +5487,21 @@
         <v>296</v>
       </c>
       <c r="G134" t="n">
+        <v>13.69933333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>13.61916666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,22 +5525,21 @@
         <v>37</v>
       </c>
       <c r="G135" t="n">
+        <v>13.67333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>13.62983333333335</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,22 +5563,21 @@
         <v>11800</v>
       </c>
       <c r="G136" t="n">
+        <v>13.66466666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.64250000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,22 +5601,21 @@
         <v>7209.9714</v>
       </c>
       <c r="G137" t="n">
+        <v>13.64933333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>13.65150000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,22 +5639,21 @@
         <v>61253.7543</v>
       </c>
       <c r="G138" t="n">
+        <v>13.61333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>13.65900000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,22 +5677,21 @@
         <v>106647.5166</v>
       </c>
       <c r="G139" t="n">
+        <v>13.592</v>
+      </c>
+      <c r="H139" t="n">
         <v>13.66633333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,22 +5715,21 @@
         <v>1.8309</v>
       </c>
       <c r="G140" t="n">
+        <v>13.566</v>
+      </c>
+      <c r="H140" t="n">
         <v>13.67483333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,22 +5753,21 @@
         <v>40412.1236</v>
       </c>
       <c r="G141" t="n">
+        <v>13.546</v>
+      </c>
+      <c r="H141" t="n">
         <v>13.68383333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,22 +5791,21 @@
         <v>64970.7181</v>
       </c>
       <c r="G142" t="n">
+        <v>13.536</v>
+      </c>
+      <c r="H142" t="n">
         <v>13.69150000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,22 +5829,21 @@
         <v>9080.3141</v>
       </c>
       <c r="G143" t="n">
+        <v>13.52866666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>13.69883333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,22 +5867,21 @@
         <v>28376.5129</v>
       </c>
       <c r="G144" t="n">
+        <v>13.512</v>
+      </c>
+      <c r="H144" t="n">
         <v>13.70616666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,22 +5905,21 @@
         <v>10157.1448</v>
       </c>
       <c r="G145" t="n">
+        <v>13.49733333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>13.71283333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,22 +5943,21 @@
         <v>16191</v>
       </c>
       <c r="G146" t="n">
+        <v>13.49066666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>13.71950000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,22 +5981,21 @@
         <v>38166.9171</v>
       </c>
       <c r="G147" t="n">
+        <v>13.48533333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>13.72466666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5922,22 +6019,21 @@
         <v>7476</v>
       </c>
       <c r="G148" t="n">
+        <v>13.47999999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>13.72750000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,22 +6057,21 @@
         <v>12000</v>
       </c>
       <c r="G149" t="n">
+        <v>13.47466666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>13.73066666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,22 +6095,21 @@
         <v>140514.2994</v>
       </c>
       <c r="G150" t="n">
+        <v>13.49133333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>13.74066666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6039,22 +6133,21 @@
         <v>37</v>
       </c>
       <c r="G151" t="n">
+        <v>13.50866666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>13.75216666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6078,22 +6171,21 @@
         <v>89802.4019</v>
       </c>
       <c r="G152" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>13.76016666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,22 +6209,21 @@
         <v>23818.3105</v>
       </c>
       <c r="G153" t="n">
+        <v>13.57066666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.76933333333335</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,22 +6247,21 @@
         <v>3567.4542</v>
       </c>
       <c r="G154" t="n">
+        <v>13.61466666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.78100000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,22 +6285,21 @@
         <v>36</v>
       </c>
       <c r="G155" t="n">
+        <v>13.66133333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.79300000000002</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,22 +6323,21 @@
         <v>177284.9417</v>
       </c>
       <c r="G156" t="n">
+        <v>13.69866666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.80383333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,22 +6361,21 @@
         <v>36</v>
       </c>
       <c r="G157" t="n">
+        <v>13.73933333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.81566666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,22 +6399,21 @@
         <v>14571.02272727273</v>
       </c>
       <c r="G158" t="n">
+        <v>13.77933333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.81666666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,22 +6437,21 @@
         <v>90400.9547</v>
       </c>
       <c r="G159" t="n">
+        <v>13.80666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.81466666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6390,22 +6475,21 @@
         <v>14571.0227</v>
       </c>
       <c r="G160" t="n">
+        <v>13.83133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.81516666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,22 +6513,21 @@
         <v>36</v>
       </c>
       <c r="G161" t="n">
+        <v>13.86533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.81800000000002</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,22 +6551,21 @@
         <v>63400</v>
       </c>
       <c r="G162" t="n">
+        <v>13.90466666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.82416666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6507,22 +6589,21 @@
         <v>5153.3673</v>
       </c>
       <c r="G163" t="n">
+        <v>13.934</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.82116666666668</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6546,22 +6627,21 @@
         <v>36</v>
       </c>
       <c r="G164" t="n">
+        <v>13.968</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.81750000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6585,22 +6665,21 @@
         <v>36</v>
       </c>
       <c r="G165" t="n">
+        <v>13.97666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.81250000000002</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,22 +6703,21 @@
         <v>72</v>
       </c>
       <c r="G166" t="n">
+        <v>13.99133333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.81100000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,22 +6741,21 @@
         <v>22489.9999</v>
       </c>
       <c r="G167" t="n">
+        <v>14.00066666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.80583333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6702,22 +6779,21 @@
         <v>62975.8244</v>
       </c>
       <c r="G168" t="n">
+        <v>14.00266666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.80050000000002</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6741,22 +6817,21 @@
         <v>78931.7651</v>
       </c>
       <c r="G169" t="n">
+        <v>13.996</v>
+      </c>
+      <c r="H169" t="n">
         <v>13.79466666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,22 +6855,21 @@
         <v>12038.9554</v>
       </c>
       <c r="G170" t="n">
+        <v>13.996</v>
+      </c>
+      <c r="H170" t="n">
         <v>13.78950000000002</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,22 +6893,21 @@
         <v>13130.08374733854</v>
       </c>
       <c r="G171" t="n">
+        <v>13.99933333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>13.78750000000002</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,22 +6931,21 @@
         <v>39098.7296</v>
       </c>
       <c r="G172" t="n">
+        <v>13.99933333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.79016666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6897,22 +6969,21 @@
         <v>1330</v>
       </c>
       <c r="G173" t="n">
+        <v>14</v>
+      </c>
+      <c r="H173" t="n">
         <v>13.79050000000002</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,22 +7007,21 @@
         <v>1604.7682</v>
       </c>
       <c r="G174" t="n">
+        <v>14.01066666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>13.79000000000002</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6975,22 +7045,21 @@
         <v>10000</v>
       </c>
       <c r="G175" t="n">
+        <v>14.01666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>13.78666666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,22 +7083,21 @@
         <v>13130.0838</v>
       </c>
       <c r="G176" t="n">
+        <v>14.014</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.78466666666669</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7053,22 +7121,21 @@
         <v>26846.24</v>
       </c>
       <c r="G177" t="n">
+        <v>14.01533333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.78633333333335</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,22 +7159,21 @@
         <v>35486</v>
       </c>
       <c r="G178" t="n">
+        <v>14.02666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>13.78850000000002</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7131,22 +7197,21 @@
         <v>2353.2398</v>
       </c>
       <c r="G179" t="n">
+        <v>14.02533333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>13.79183333333335</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7170,22 +7235,21 @@
         <v>58798.152</v>
       </c>
       <c r="G180" t="n">
+        <v>14.026</v>
+      </c>
+      <c r="H180" t="n">
         <v>13.79183333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7209,22 +7273,21 @@
         <v>8975.2166</v>
       </c>
       <c r="G181" t="n">
+        <v>14.01133333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>13.79400000000002</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,22 +7311,21 @@
         <v>5941.6402</v>
       </c>
       <c r="G182" t="n">
+        <v>14.00133333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.79616666666669</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,22 +7349,21 @@
         <v>58643.46</v>
       </c>
       <c r="G183" t="n">
+        <v>13.99133333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.79450000000002</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,22 +7387,21 @@
         <v>54977.4633</v>
       </c>
       <c r="G184" t="n">
+        <v>13.98266666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>13.79633333333336</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,22 +7425,21 @@
         <v>89164.99189999999</v>
       </c>
       <c r="G185" t="n">
+        <v>13.94933333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>13.79316666666669</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7404,22 +7463,21 @@
         <v>37</v>
       </c>
       <c r="G186" t="n">
+        <v>13.93266666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.79416666666669</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,22 +7501,21 @@
         <v>5794.8265</v>
       </c>
       <c r="G187" t="n">
+        <v>13.90933333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>13.79600000000002</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,22 +7539,21 @@
         <v>2649.7949</v>
       </c>
       <c r="G188" t="n">
+        <v>13.88333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>13.79783333333336</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,22 +7577,21 @@
         <v>23228.629</v>
       </c>
       <c r="G189" t="n">
+        <v>13.86066666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>13.79750000000002</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,22 +7615,21 @@
         <v>47022.315</v>
       </c>
       <c r="G190" t="n">
+        <v>13.84933333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>13.79866666666669</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7599,22 +7653,21 @@
         <v>100</v>
       </c>
       <c r="G191" t="n">
+        <v>13.83666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>13.80166666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7638,22 +7691,21 @@
         <v>4250</v>
       </c>
       <c r="G192" t="n">
+        <v>13.81133333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>13.80416666666669</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7677,22 +7729,21 @@
         <v>116414.7897</v>
       </c>
       <c r="G193" t="n">
+        <v>13.77733333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>13.80450000000003</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7716,22 +7767,21 @@
         <v>4240</v>
       </c>
       <c r="G194" t="n">
+        <v>13.756</v>
+      </c>
+      <c r="H194" t="n">
         <v>13.80600000000003</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7755,22 +7805,21 @@
         <v>37</v>
       </c>
       <c r="G195" t="n">
+        <v>13.742</v>
+      </c>
+      <c r="H195" t="n">
         <v>13.80900000000003</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7794,22 +7843,21 @@
         <v>24400</v>
       </c>
       <c r="G196" t="n">
+        <v>13.736</v>
+      </c>
+      <c r="H196" t="n">
         <v>13.81183333333336</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,22 +7881,21 @@
         <v>5445.9639</v>
       </c>
       <c r="G197" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.81633333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7872,22 +7919,21 @@
         <v>40974.606</v>
       </c>
       <c r="G198" t="n">
+        <v>13.718</v>
+      </c>
+      <c r="H198" t="n">
         <v>13.82066666666669</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7911,22 +7957,401 @@
         <v>886.76</v>
       </c>
       <c r="G199" t="n">
+        <v>13.70266666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>13.82400000000002</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="C200" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="D200" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.3365</v>
+      </c>
+      <c r="G200" t="n">
+        <v>13.70266666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>13.82733333333336</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="C201" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="E201" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12284.5641</v>
+      </c>
+      <c r="G201" t="n">
+        <v>13.682</v>
+      </c>
+      <c r="H201" t="n">
+        <v>13.82816666666669</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C202" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E202" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F202" t="n">
+        <v>131539.2197</v>
+      </c>
+      <c r="G202" t="n">
+        <v>13.676</v>
+      </c>
+      <c r="H202" t="n">
+        <v>13.83100000000002</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C203" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E203" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2046.1271</v>
+      </c>
+      <c r="G203" t="n">
+        <v>13.67266666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>13.83383333333336</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="C204" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="D204" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="E204" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3109.0421</v>
+      </c>
+      <c r="G204" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>13.83616666666669</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C205" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D205" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="E205" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F205" t="n">
+        <v>27836.20510174672</v>
+      </c>
+      <c r="G205" t="n">
+        <v>13.66466666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>13.84050000000002</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C206" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D206" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F206" t="n">
+        <v>24572.4099</v>
+      </c>
+      <c r="G206" t="n">
+        <v>13.65266666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>13.84216666666669</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C207" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D207" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E207" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F207" t="n">
+        <v>37</v>
+      </c>
+      <c r="G207" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H207" t="n">
+        <v>13.84533333333336</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C208" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D208" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21565.2535</v>
+      </c>
+      <c r="G208" t="n">
+        <v>13.64733333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>13.84633333333336</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D209" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F209" t="n">
+        <v>37</v>
+      </c>
+      <c r="G209" t="n">
+        <v>13.64866666666667</v>
+      </c>
+      <c r="H209" t="n">
+        <v>13.84950000000002</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9</v>
+        <v>13.21</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9</v>
+        <v>13.19</v>
       </c>
       <c r="F2" t="n">
-        <v>31092.437</v>
+        <v>50642</v>
       </c>
       <c r="G2" t="n">
-        <v>-705683.0904999998</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>13.21</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13.22</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9</v>
+        <v>13.19</v>
       </c>
       <c r="F3" t="n">
-        <v>4000</v>
+        <v>62603</v>
       </c>
       <c r="G3" t="n">
-        <v>-705683.0904999998</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -503,28 +509,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.93</v>
+        <v>13.22</v>
       </c>
       <c r="C4" t="n">
-        <v>12.04</v>
+        <v>13.22</v>
       </c>
       <c r="D4" t="n">
-        <v>12.04</v>
+        <v>13.22</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="F4" t="n">
-        <v>427302.6312</v>
+        <v>8000</v>
       </c>
       <c r="G4" t="n">
-        <v>-278380.4592999998</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -533,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9</v>
+        <v>13.22</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -544,36 +551,39 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>13.22</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1</v>
+        <v>13.44</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1</v>
+        <v>13.44</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>13.22</v>
       </c>
       <c r="F5" t="n">
-        <v>960</v>
+        <v>256477.1964</v>
       </c>
       <c r="G5" t="n">
-        <v>-277420.4592999998</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>13.22</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -583,36 +593,39 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>13.44</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13.44</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13.44</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13.44</v>
       </c>
       <c r="F6" t="n">
-        <v>2770.1415</v>
+        <v>5304</v>
       </c>
       <c r="G6" t="n">
-        <v>-280190.6007999998</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>13.44</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -622,28 +635,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.12</v>
+        <v>13.44</v>
       </c>
       <c r="C7" t="n">
-        <v>12.23</v>
+        <v>13.44</v>
       </c>
       <c r="D7" t="n">
-        <v>12.23</v>
+        <v>13.44</v>
       </c>
       <c r="E7" t="n">
-        <v>12.12</v>
+        <v>13.44</v>
       </c>
       <c r="F7" t="n">
-        <v>72071.352</v>
+        <v>21565.2535</v>
       </c>
       <c r="G7" t="n">
-        <v>-208119.2487999998</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -661,28 +675,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.23</v>
+        <v>13.43</v>
       </c>
       <c r="C8" t="n">
-        <v>12.23</v>
+        <v>13.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12.23</v>
+        <v>13.5</v>
       </c>
       <c r="E8" t="n">
-        <v>12.23</v>
+        <v>13.43</v>
       </c>
       <c r="F8" t="n">
-        <v>2364</v>
+        <v>385574.4126</v>
       </c>
       <c r="G8" t="n">
-        <v>-208119.2487999998</v>
+        <v>664693.6485000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -700,28 +715,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.23</v>
+        <v>13.52</v>
       </c>
       <c r="C9" t="n">
-        <v>12.23</v>
+        <v>13.5</v>
       </c>
       <c r="D9" t="n">
-        <v>12.23</v>
+        <v>13.69</v>
       </c>
       <c r="E9" t="n">
-        <v>12.23</v>
+        <v>13.5</v>
       </c>
       <c r="F9" t="n">
-        <v>27492.4867</v>
+        <v>61387.2739</v>
       </c>
       <c r="G9" t="n">
-        <v>-208119.2487999998</v>
+        <v>664693.6485000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -739,28 +755,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12.23</v>
+        <v>13.68</v>
       </c>
       <c r="D10" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="E10" t="n">
-        <v>12.23</v>
+        <v>13.5</v>
       </c>
       <c r="F10" t="n">
-        <v>25823.4293</v>
+        <v>117898.0691</v>
       </c>
       <c r="G10" t="n">
-        <v>-208119.2487999998</v>
+        <v>782591.7176000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -778,38 +795,37 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.23</v>
+        <v>13.66</v>
       </c>
       <c r="C11" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="D11" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="E11" t="n">
-        <v>12.23</v>
+        <v>13.66</v>
       </c>
       <c r="F11" t="n">
-        <v>7875.4875</v>
+        <v>121810.5145</v>
       </c>
       <c r="G11" t="n">
-        <v>-200243.7612999998</v>
+        <v>660781.2031</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.23</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -819,38 +835,37 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="C12" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="D12" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="E12" t="n">
-        <v>12.24</v>
+        <v>13.66</v>
       </c>
       <c r="F12" t="n">
-        <v>29920.9762</v>
+        <v>25876.6914</v>
       </c>
       <c r="G12" t="n">
-        <v>-200243.7612999998</v>
+        <v>660781.2031</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.24</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -860,38 +875,37 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.24</v>
+        <v>13.67</v>
       </c>
       <c r="C13" t="n">
-        <v>12.24</v>
+        <v>13.67</v>
       </c>
       <c r="D13" t="n">
-        <v>12.24</v>
+        <v>13.67</v>
       </c>
       <c r="E13" t="n">
-        <v>12.24</v>
+        <v>13.67</v>
       </c>
       <c r="F13" t="n">
-        <v>33191.4146</v>
+        <v>63710.0416</v>
       </c>
       <c r="G13" t="n">
-        <v>-200243.7612999998</v>
+        <v>724491.2447</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>12.24</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -901,28 +915,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="C14" t="n">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="D14" t="n">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="E14" t="n">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="F14" t="n">
-        <v>30660.3143</v>
+        <v>44926.109</v>
       </c>
       <c r="G14" t="n">
-        <v>-200243.7612999998</v>
+        <v>679565.1357</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -940,28 +955,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.24</v>
+        <v>13.51</v>
       </c>
       <c r="C15" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="D15" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="E15" t="n">
-        <v>12.24</v>
+        <v>13.4</v>
       </c>
       <c r="F15" t="n">
-        <v>50051.7864</v>
+        <v>49655.1256</v>
       </c>
       <c r="G15" t="n">
-        <v>-200243.7612999998</v>
+        <v>729220.2613</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -979,28 +995,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="C16" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="D16" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="E16" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="F16" t="n">
-        <v>2534.3202</v>
+        <v>13671.9424</v>
       </c>
       <c r="G16" t="n">
-        <v>-200243.7612999998</v>
+        <v>729220.2613</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1018,28 +1035,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="C17" t="n">
-        <v>12.24</v>
+        <v>13.84</v>
       </c>
       <c r="D17" t="n">
-        <v>12.24</v>
+        <v>13.84</v>
       </c>
       <c r="E17" t="n">
-        <v>12.24</v>
+        <v>13.69</v>
       </c>
       <c r="F17" t="n">
-        <v>3799</v>
+        <v>72364.16220000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-200243.7612999998</v>
+        <v>801584.4235</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1057,38 +1075,37 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.24</v>
+        <v>13.84</v>
       </c>
       <c r="C18" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>12.24</v>
+        <v>13.84</v>
       </c>
       <c r="F18" t="n">
-        <v>16841.9551</v>
+        <v>283064.1106307857</v>
       </c>
       <c r="G18" t="n">
-        <v>-183401.8061999998</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>12.24</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1098,28 +1115,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>87418.0316</v>
+        <v>15623.6632</v>
       </c>
       <c r="G19" t="n">
-        <v>-183401.8061999998</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1137,38 +1155,37 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="C20" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="F20" t="n">
-        <v>7588.7766</v>
+        <v>26182.9914</v>
       </c>
       <c r="G20" t="n">
-        <v>-183401.8061999998</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1178,28 +1195,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.29</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>12.29</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>12.29</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>12.29</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>238443.0081</v>
       </c>
       <c r="G21" t="n">
-        <v>-233401.8061999998</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1217,28 +1235,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>12.3</v>
+        <v>14.05</v>
       </c>
       <c r="D22" t="n">
-        <v>12.3</v>
+        <v>14.05</v>
       </c>
       <c r="E22" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
-        <v>26231.8695</v>
+        <v>196579.9747692143</v>
       </c>
       <c r="G22" t="n">
-        <v>-207169.9366999998</v>
+        <v>1281228.5089</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1256,28 +1275,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3</v>
+        <v>13.52</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>12.3</v>
+        <v>13.52</v>
       </c>
       <c r="F23" t="n">
-        <v>65559</v>
+        <v>127904.4482</v>
       </c>
       <c r="G23" t="n">
-        <v>-207169.9366999998</v>
+        <v>1153324.0607</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1295,28 +1315,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.3</v>
+        <v>13.86</v>
       </c>
       <c r="C24" t="n">
-        <v>12.3</v>
+        <v>13.86</v>
       </c>
       <c r="D24" t="n">
-        <v>12.3</v>
+        <v>13.86</v>
       </c>
       <c r="E24" t="n">
-        <v>12.3</v>
+        <v>13.86</v>
       </c>
       <c r="F24" t="n">
-        <v>870</v>
+        <v>18372.2658</v>
       </c>
       <c r="G24" t="n">
-        <v>-207169.9366999998</v>
+        <v>1171696.3265</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1334,28 +1355,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.29</v>
+        <v>13.74</v>
       </c>
       <c r="C25" t="n">
-        <v>12.29</v>
+        <v>13.52</v>
       </c>
       <c r="D25" t="n">
-        <v>12.29</v>
+        <v>13.74</v>
       </c>
       <c r="E25" t="n">
-        <v>12.29</v>
+        <v>13.52</v>
       </c>
       <c r="F25" t="n">
-        <v>13852.3268</v>
+        <v>9957.9519</v>
       </c>
       <c r="G25" t="n">
-        <v>-221022.2634999999</v>
+        <v>1161738.3746</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1373,28 +1395,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.29</v>
+        <v>13.51</v>
       </c>
       <c r="C26" t="n">
-        <v>12.3</v>
+        <v>13.55</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3</v>
+        <v>13.65</v>
       </c>
       <c r="E26" t="n">
-        <v>12.29</v>
+        <v>13.42</v>
       </c>
       <c r="F26" t="n">
-        <v>40774</v>
+        <v>77886.0336</v>
       </c>
       <c r="G26" t="n">
-        <v>-180248.2634999999</v>
+        <v>1239624.4082</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1412,28 +1435,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.3</v>
+        <v>13.5</v>
       </c>
       <c r="C27" t="n">
-        <v>12.3</v>
+        <v>13.52</v>
       </c>
       <c r="D27" t="n">
-        <v>12.3</v>
+        <v>13.52</v>
       </c>
       <c r="E27" t="n">
-        <v>12.3</v>
+        <v>13.46</v>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>102792.7216</v>
       </c>
       <c r="G27" t="n">
-        <v>-180248.2634999999</v>
+        <v>1136831.6866</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1451,28 +1475,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.3</v>
+        <v>13.55</v>
       </c>
       <c r="C28" t="n">
-        <v>12.3</v>
+        <v>13.6</v>
       </c>
       <c r="D28" t="n">
-        <v>12.3</v>
+        <v>13.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.3</v>
+        <v>13.55</v>
       </c>
       <c r="F28" t="n">
-        <v>201001.2095</v>
+        <v>9392.5797</v>
       </c>
       <c r="G28" t="n">
-        <v>-180248.2634999999</v>
+        <v>1146224.2663</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1490,28 +1515,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="F29" t="n">
-        <v>114862.3739</v>
+        <v>3050</v>
       </c>
       <c r="G29" t="n">
-        <v>-180248.2634999999</v>
+        <v>1149274.2663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1529,28 +1555,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="C30" t="n">
-        <v>12.46</v>
+        <v>13.63</v>
       </c>
       <c r="D30" t="n">
-        <v>12.46</v>
+        <v>13.63</v>
       </c>
       <c r="E30" t="n">
-        <v>12.3</v>
+        <v>13.63</v>
       </c>
       <c r="F30" t="n">
-        <v>3672</v>
+        <v>3050</v>
       </c>
       <c r="G30" t="n">
-        <v>-176576.2634999999</v>
+        <v>1149274.2663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1568,28 +1595,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.46</v>
+        <v>13.62</v>
       </c>
       <c r="C31" t="n">
-        <v>12.46</v>
+        <v>13.68</v>
       </c>
       <c r="D31" t="n">
-        <v>12.46</v>
+        <v>13.68</v>
       </c>
       <c r="E31" t="n">
-        <v>12.46</v>
+        <v>13.53</v>
       </c>
       <c r="F31" t="n">
-        <v>6740.7335</v>
+        <v>79109.432</v>
       </c>
       <c r="G31" t="n">
-        <v>-176576.2634999999</v>
+        <v>1228383.6983</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1607,28 +1635,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="C32" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="D32" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="E32" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="F32" t="n">
-        <v>22479.4023</v>
+        <v>4539.0579</v>
       </c>
       <c r="G32" t="n">
-        <v>-154096.8611999999</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1646,28 +1675,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="C33" t="n">
-        <v>12.69</v>
+        <v>13.51</v>
       </c>
       <c r="D33" t="n">
-        <v>12.69</v>
+        <v>13.51</v>
       </c>
       <c r="E33" t="n">
-        <v>12.47</v>
+        <v>13.51</v>
       </c>
       <c r="F33" t="n">
-        <v>6017.0173</v>
+        <v>4530</v>
       </c>
       <c r="G33" t="n">
-        <v>-148079.8438999999</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1685,28 +1715,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.69</v>
+        <v>13.56</v>
       </c>
       <c r="C34" t="n">
-        <v>12.86</v>
+        <v>13.51</v>
       </c>
       <c r="D34" t="n">
-        <v>12.86</v>
+        <v>13.56</v>
       </c>
       <c r="E34" t="n">
-        <v>12.69</v>
+        <v>13.51</v>
       </c>
       <c r="F34" t="n">
-        <v>78244.2749</v>
+        <v>12307.8943</v>
       </c>
       <c r="G34" t="n">
-        <v>-69835.56899999986</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1724,28 +1755,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.86</v>
+        <v>13.47</v>
       </c>
       <c r="C35" t="n">
-        <v>12.87</v>
+        <v>13.47</v>
       </c>
       <c r="D35" t="n">
-        <v>12.87</v>
+        <v>13.47</v>
       </c>
       <c r="E35" t="n">
-        <v>12.86</v>
+        <v>13.47</v>
       </c>
       <c r="F35" t="n">
-        <v>26430.9973</v>
+        <v>2650</v>
       </c>
       <c r="G35" t="n">
-        <v>-43404.57169999985</v>
+        <v>1221194.6404</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1763,28 +1795,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.87</v>
+        <v>13.37</v>
       </c>
       <c r="C36" t="n">
-        <v>12.87</v>
+        <v>13.39</v>
       </c>
       <c r="D36" t="n">
-        <v>12.87</v>
+        <v>13.39</v>
       </c>
       <c r="E36" t="n">
-        <v>12.87</v>
+        <v>13.31</v>
       </c>
       <c r="F36" t="n">
-        <v>14000</v>
+        <v>60743.9123</v>
       </c>
       <c r="G36" t="n">
-        <v>-43404.57169999985</v>
+        <v>1160450.7281</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1802,28 +1835,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.87</v>
+        <v>13.39</v>
       </c>
       <c r="C37" t="n">
-        <v>12.87</v>
+        <v>13.49</v>
       </c>
       <c r="D37" t="n">
-        <v>12.87</v>
+        <v>13.49</v>
       </c>
       <c r="E37" t="n">
-        <v>12.87</v>
+        <v>13.39</v>
       </c>
       <c r="F37" t="n">
-        <v>15527.8186</v>
+        <v>8918</v>
       </c>
       <c r="G37" t="n">
-        <v>-43404.57169999985</v>
+        <v>1169368.7281</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1841,28 +1875,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.87</v>
+        <v>13.32</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>13.49</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>13.49</v>
       </c>
       <c r="E38" t="n">
-        <v>12.87</v>
+        <v>13.31</v>
       </c>
       <c r="F38" t="n">
-        <v>8399.709800000001</v>
+        <v>37885.8897</v>
       </c>
       <c r="G38" t="n">
-        <v>-35004.86189999986</v>
+        <v>1169368.7281</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1880,28 +1915,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>13.35</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>13.03</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>13.35</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>13.03</v>
       </c>
       <c r="F39" t="n">
-        <v>169409.3070144522</v>
+        <v>339885.0329</v>
       </c>
       <c r="G39" t="n">
-        <v>-35004.86189999986</v>
+        <v>829483.6952</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1919,28 +1955,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.08</v>
+        <v>13.03</v>
       </c>
       <c r="C40" t="n">
-        <v>13.1</v>
+        <v>13.38</v>
       </c>
       <c r="D40" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="E40" t="n">
-        <v>13.08</v>
+        <v>13.03</v>
       </c>
       <c r="F40" t="n">
-        <v>3004.9014</v>
+        <v>31946.9479</v>
       </c>
       <c r="G40" t="n">
-        <v>-31999.96049999986</v>
+        <v>861430.6431</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1958,28 +1995,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.1</v>
+        <v>13.32</v>
       </c>
       <c r="C41" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D41" t="n">
-        <v>13.1</v>
+        <v>13.32</v>
       </c>
       <c r="E41" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="F41" t="n">
-        <v>112271.0655</v>
+        <v>5162.5565</v>
       </c>
       <c r="G41" t="n">
-        <v>-31999.96049999986</v>
+        <v>856268.0866</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1997,28 +2035,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.18</v>
+        <v>13.3</v>
       </c>
       <c r="C42" t="n">
-        <v>13.21</v>
+        <v>13.39</v>
       </c>
       <c r="D42" t="n">
-        <v>13.21</v>
+        <v>13.47</v>
       </c>
       <c r="E42" t="n">
-        <v>13.18</v>
+        <v>13.3</v>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>61940.6242</v>
       </c>
       <c r="G42" t="n">
-        <v>-27999.96049999986</v>
+        <v>918208.7108</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2036,28 +2075,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.21</v>
+        <v>13.36</v>
       </c>
       <c r="C43" t="n">
         <v>13.21</v>
       </c>
       <c r="D43" t="n">
-        <v>13.21</v>
+        <v>13.36</v>
       </c>
       <c r="E43" t="n">
         <v>13.21</v>
       </c>
       <c r="F43" t="n">
-        <v>20000</v>
+        <v>1955.7116</v>
       </c>
       <c r="G43" t="n">
-        <v>-27999.96049999986</v>
+        <v>916252.9992</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2075,6 +2115,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,19 +2125,19 @@
         <v>13.21</v>
       </c>
       <c r="C44" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="D44" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="E44" t="n">
-        <v>13.19</v>
+        <v>13.2</v>
       </c>
       <c r="F44" t="n">
-        <v>50642</v>
+        <v>75157.3251</v>
       </c>
       <c r="G44" t="n">
-        <v>22642.03950000014</v>
+        <v>916252.9992</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2114,28 +2155,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D45" t="n">
         <v>13.21</v>
       </c>
-      <c r="C45" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13.22</v>
-      </c>
       <c r="E45" t="n">
-        <v>13.19</v>
+        <v>13.18</v>
       </c>
       <c r="F45" t="n">
-        <v>62603</v>
+        <v>22582</v>
       </c>
       <c r="G45" t="n">
-        <v>22642.03950000014</v>
+        <v>893670.9992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2153,28 +2195,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.22</v>
+        <v>13.08</v>
       </c>
       <c r="C46" t="n">
-        <v>13.22</v>
+        <v>13.08</v>
       </c>
       <c r="D46" t="n">
-        <v>13.22</v>
+        <v>13.13</v>
       </c>
       <c r="E46" t="n">
-        <v>13.22</v>
+        <v>13.08</v>
       </c>
       <c r="F46" t="n">
-        <v>8000</v>
+        <v>10539.4023</v>
       </c>
       <c r="G46" t="n">
-        <v>22642.03950000014</v>
+        <v>883131.5969</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2192,28 +2235,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.22</v>
+        <v>13.08</v>
       </c>
       <c r="C47" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="D47" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="E47" t="n">
-        <v>13.22</v>
+        <v>13.08</v>
       </c>
       <c r="F47" t="n">
-        <v>256477.1964</v>
+        <v>1488.9127</v>
       </c>
       <c r="G47" t="n">
-        <v>279119.2359000001</v>
+        <v>883131.5969</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2231,28 +2275,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="C48" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="D48" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="E48" t="n">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
       <c r="F48" t="n">
-        <v>5304</v>
+        <v>1935.5865</v>
       </c>
       <c r="G48" t="n">
-        <v>279119.2359000001</v>
+        <v>883131.5969</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2270,28 +2315,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.44</v>
+        <v>13.07</v>
       </c>
       <c r="C49" t="n">
-        <v>13.44</v>
+        <v>13.07</v>
       </c>
       <c r="D49" t="n">
-        <v>13.44</v>
+        <v>13.07</v>
       </c>
       <c r="E49" t="n">
-        <v>13.44</v>
+        <v>13.07</v>
       </c>
       <c r="F49" t="n">
-        <v>21565.2535</v>
+        <v>11448.0012</v>
       </c>
       <c r="G49" t="n">
-        <v>279119.2359000001</v>
+        <v>871683.5956999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2309,28 +2355,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.43</v>
+        <v>13.07</v>
       </c>
       <c r="C50" t="n">
-        <v>13.5</v>
+        <v>13.07</v>
       </c>
       <c r="D50" t="n">
-        <v>13.5</v>
+        <v>13.07</v>
       </c>
       <c r="E50" t="n">
-        <v>13.43</v>
+        <v>13.07</v>
       </c>
       <c r="F50" t="n">
-        <v>385574.4126</v>
+        <v>11448.0775</v>
       </c>
       <c r="G50" t="n">
-        <v>664693.6485000001</v>
+        <v>871683.5956999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2348,28 +2395,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.52</v>
+        <v>13.07</v>
       </c>
       <c r="C51" t="n">
-        <v>13.5</v>
+        <v>13.08</v>
       </c>
       <c r="D51" t="n">
-        <v>13.69</v>
+        <v>13.08</v>
       </c>
       <c r="E51" t="n">
-        <v>13.5</v>
+        <v>13.07</v>
       </c>
       <c r="F51" t="n">
-        <v>61387.2739</v>
+        <v>10008.9151</v>
       </c>
       <c r="G51" t="n">
-        <v>664693.6485000001</v>
+        <v>881692.5107999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2387,28 +2435,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.5</v>
+        <v>13.08</v>
       </c>
       <c r="C52" t="n">
-        <v>13.68</v>
+        <v>13.13</v>
       </c>
       <c r="D52" t="n">
-        <v>13.69</v>
+        <v>13.14</v>
       </c>
       <c r="E52" t="n">
-        <v>13.5</v>
+        <v>13.07</v>
       </c>
       <c r="F52" t="n">
-        <v>117898.0691</v>
+        <v>46062</v>
       </c>
       <c r="G52" t="n">
-        <v>782591.7176000001</v>
+        <v>927754.5107999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2426,28 +2475,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.66</v>
+        <v>13.13</v>
       </c>
       <c r="C53" t="n">
-        <v>13.66</v>
+        <v>13.13</v>
       </c>
       <c r="D53" t="n">
-        <v>13.66</v>
+        <v>13.13</v>
       </c>
       <c r="E53" t="n">
-        <v>13.66</v>
+        <v>13.13</v>
       </c>
       <c r="F53" t="n">
-        <v>121810.5145</v>
+        <v>1454</v>
       </c>
       <c r="G53" t="n">
-        <v>660781.2031</v>
+        <v>927754.5107999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2465,28 +2515,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.66</v>
+        <v>13.12</v>
       </c>
       <c r="C54" t="n">
-        <v>13.66</v>
+        <v>13.15</v>
       </c>
       <c r="D54" t="n">
-        <v>13.66</v>
+        <v>13.15</v>
       </c>
       <c r="E54" t="n">
-        <v>13.66</v>
+        <v>13.12</v>
       </c>
       <c r="F54" t="n">
-        <v>25876.6914</v>
+        <v>7722.043</v>
       </c>
       <c r="G54" t="n">
-        <v>660781.2031</v>
+        <v>935476.5537999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2504,28 +2555,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.67</v>
+        <v>13.05</v>
       </c>
       <c r="C55" t="n">
-        <v>13.67</v>
+        <v>13.16</v>
       </c>
       <c r="D55" t="n">
-        <v>13.67</v>
+        <v>13.16</v>
       </c>
       <c r="E55" t="n">
-        <v>13.67</v>
+        <v>13.05</v>
       </c>
       <c r="F55" t="n">
-        <v>63710.0416</v>
+        <v>46268</v>
       </c>
       <c r="G55" t="n">
-        <v>724491.2447</v>
+        <v>981744.5537999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2543,28 +2595,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.5</v>
+        <v>13.16</v>
       </c>
       <c r="C56" t="n">
-        <v>13.5</v>
+        <v>13.16</v>
       </c>
       <c r="D56" t="n">
-        <v>13.5</v>
+        <v>13.16</v>
       </c>
       <c r="E56" t="n">
-        <v>13.5</v>
+        <v>13.16</v>
       </c>
       <c r="F56" t="n">
-        <v>44926.109</v>
+        <v>931</v>
       </c>
       <c r="G56" t="n">
-        <v>679565.1357</v>
+        <v>981744.5537999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2582,28 +2635,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.51</v>
+        <v>13.16</v>
       </c>
       <c r="C57" t="n">
-        <v>13.69</v>
+        <v>13.27</v>
       </c>
       <c r="D57" t="n">
-        <v>13.69</v>
+        <v>13.27</v>
       </c>
       <c r="E57" t="n">
-        <v>13.4</v>
+        <v>13.16</v>
       </c>
       <c r="F57" t="n">
-        <v>49655.1256</v>
+        <v>6008.3114</v>
       </c>
       <c r="G57" t="n">
-        <v>729220.2613</v>
+        <v>987752.8651999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2621,28 +2675,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.69</v>
+        <v>13.1</v>
       </c>
       <c r="C58" t="n">
-        <v>13.69</v>
+        <v>13.1</v>
       </c>
       <c r="D58" t="n">
-        <v>13.69</v>
+        <v>13.1</v>
       </c>
       <c r="E58" t="n">
-        <v>13.69</v>
+        <v>13.1</v>
       </c>
       <c r="F58" t="n">
-        <v>13671.9424</v>
+        <v>555.8056</v>
       </c>
       <c r="G58" t="n">
-        <v>729220.2613</v>
+        <v>987197.0595999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2660,28 +2715,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.69</v>
+        <v>13.16</v>
       </c>
       <c r="C59" t="n">
-        <v>13.84</v>
+        <v>13.16</v>
       </c>
       <c r="D59" t="n">
-        <v>13.84</v>
+        <v>13.16</v>
       </c>
       <c r="E59" t="n">
-        <v>13.69</v>
+        <v>13.16</v>
       </c>
       <c r="F59" t="n">
-        <v>72364.16220000001</v>
+        <v>2656.231003039514</v>
       </c>
       <c r="G59" t="n">
-        <v>801584.4235</v>
+        <v>989853.2906030394</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2699,28 +2755,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.84</v>
+        <v>13.1</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="E60" t="n">
-        <v>13.84</v>
+        <v>13.1</v>
       </c>
       <c r="F60" t="n">
-        <v>283064.1106307857</v>
+        <v>590.9709</v>
       </c>
       <c r="G60" t="n">
-        <v>1084648.534130786</v>
+        <v>989262.3197030395</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2738,28 +2795,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>13.01</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>13.05</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>13.05</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>13.01</v>
       </c>
       <c r="F61" t="n">
-        <v>15623.6632</v>
+        <v>14936.3623</v>
       </c>
       <c r="G61" t="n">
-        <v>1084648.534130786</v>
+        <v>974325.9574030394</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2777,28 +2835,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.9</v>
+        <v>12.93</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>12.93</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>12.93</v>
       </c>
       <c r="E62" t="n">
-        <v>13.9</v>
+        <v>12.93</v>
       </c>
       <c r="F62" t="n">
-        <v>26182.9914</v>
+        <v>603.7968</v>
       </c>
       <c r="G62" t="n">
-        <v>1084648.534130786</v>
+        <v>973722.1606030394</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2816,28 +2875,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>12.82</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>12.82</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>12.82</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>12.82</v>
       </c>
       <c r="F63" t="n">
-        <v>238443.0081</v>
+        <v>2335</v>
       </c>
       <c r="G63" t="n">
-        <v>1084648.534130786</v>
+        <v>971387.1606030394</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2855,28 +2915,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14</v>
+        <v>12.94</v>
       </c>
       <c r="C64" t="n">
-        <v>14.05</v>
+        <v>12.94</v>
       </c>
       <c r="D64" t="n">
-        <v>14.05</v>
+        <v>12.94</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>12.94</v>
       </c>
       <c r="F64" t="n">
-        <v>196579.9747692143</v>
+        <v>3500</v>
       </c>
       <c r="G64" t="n">
-        <v>1281228.5089</v>
+        <v>974887.1606030394</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2894,28 +2955,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14</v>
+        <v>12.94</v>
       </c>
       <c r="C65" t="n">
-        <v>13.52</v>
+        <v>12.94</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>12.94</v>
       </c>
       <c r="E65" t="n">
-        <v>13.52</v>
+        <v>12.94</v>
       </c>
       <c r="F65" t="n">
-        <v>127904.4482</v>
+        <v>420</v>
       </c>
       <c r="G65" t="n">
-        <v>1153324.0607</v>
+        <v>974887.1606030394</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2933,28 +2995,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.86</v>
+        <v>12.95</v>
       </c>
       <c r="C66" t="n">
-        <v>13.86</v>
+        <v>12.95</v>
       </c>
       <c r="D66" t="n">
-        <v>13.86</v>
+        <v>12.95</v>
       </c>
       <c r="E66" t="n">
-        <v>13.86</v>
+        <v>12.95</v>
       </c>
       <c r="F66" t="n">
-        <v>18372.2658</v>
+        <v>2709.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>1171696.3265</v>
+        <v>977597.1605030395</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2972,28 +3035,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.74</v>
+        <v>12.9</v>
       </c>
       <c r="C67" t="n">
-        <v>13.52</v>
+        <v>12.88</v>
       </c>
       <c r="D67" t="n">
-        <v>13.74</v>
+        <v>12.9</v>
       </c>
       <c r="E67" t="n">
-        <v>13.52</v>
+        <v>12.88</v>
       </c>
       <c r="F67" t="n">
-        <v>9957.9519</v>
+        <v>11586.9424</v>
       </c>
       <c r="G67" t="n">
-        <v>1161738.3746</v>
+        <v>966010.2181030395</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3011,28 +3075,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.51</v>
+        <v>12.89</v>
       </c>
       <c r="C68" t="n">
-        <v>13.55</v>
+        <v>12.94</v>
       </c>
       <c r="D68" t="n">
-        <v>13.65</v>
+        <v>12.94</v>
       </c>
       <c r="E68" t="n">
-        <v>13.42</v>
+        <v>12.89</v>
       </c>
       <c r="F68" t="n">
-        <v>77886.0336</v>
+        <v>5727.7183</v>
       </c>
       <c r="G68" t="n">
-        <v>1239624.4082</v>
+        <v>971737.9364030395</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3050,28 +3115,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.5</v>
+        <v>12.98</v>
       </c>
       <c r="C69" t="n">
-        <v>13.52</v>
+        <v>13.02</v>
       </c>
       <c r="D69" t="n">
-        <v>13.52</v>
+        <v>13.02</v>
       </c>
       <c r="E69" t="n">
-        <v>13.46</v>
+        <v>12.98</v>
       </c>
       <c r="F69" t="n">
-        <v>102792.7216</v>
+        <v>38800</v>
       </c>
       <c r="G69" t="n">
-        <v>1136831.6866</v>
+        <v>1010537.936403039</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3089,28 +3155,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.55</v>
+        <v>13.03</v>
       </c>
       <c r="C70" t="n">
-        <v>13.6</v>
+        <v>13.04</v>
       </c>
       <c r="D70" t="n">
-        <v>13.6</v>
+        <v>13.04</v>
       </c>
       <c r="E70" t="n">
-        <v>13.55</v>
+        <v>13.03</v>
       </c>
       <c r="F70" t="n">
-        <v>9392.5797</v>
+        <v>19400</v>
       </c>
       <c r="G70" t="n">
-        <v>1146224.2663</v>
+        <v>1029937.936403039</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3128,28 +3195,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="C71" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="D71" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="E71" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="F71" t="n">
-        <v>3050</v>
+        <v>6171.8201</v>
       </c>
       <c r="G71" t="n">
-        <v>1149274.2663</v>
+        <v>1029937.936403039</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3167,28 +3235,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="C72" t="n">
-        <v>13.63</v>
+        <v>13.08</v>
       </c>
       <c r="D72" t="n">
-        <v>13.63</v>
+        <v>13.08</v>
       </c>
       <c r="E72" t="n">
-        <v>13.63</v>
+        <v>13.04</v>
       </c>
       <c r="F72" t="n">
-        <v>3050</v>
+        <v>5586.676</v>
       </c>
       <c r="G72" t="n">
-        <v>1149274.2663</v>
+        <v>1035524.612403039</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3206,28 +3275,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.62</v>
+        <v>13.08</v>
       </c>
       <c r="C73" t="n">
-        <v>13.68</v>
+        <v>13.08</v>
       </c>
       <c r="D73" t="n">
-        <v>13.68</v>
+        <v>13.08</v>
       </c>
       <c r="E73" t="n">
-        <v>13.53</v>
+        <v>13.08</v>
       </c>
       <c r="F73" t="n">
-        <v>79109.432</v>
+        <v>5015.5046</v>
       </c>
       <c r="G73" t="n">
-        <v>1228383.6983</v>
+        <v>1035524.612403039</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3245,28 +3315,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.51</v>
+        <v>13.07</v>
       </c>
       <c r="C74" t="n">
-        <v>13.51</v>
+        <v>13.17</v>
       </c>
       <c r="D74" t="n">
-        <v>13.51</v>
+        <v>13.17</v>
       </c>
       <c r="E74" t="n">
-        <v>13.51</v>
+        <v>13.07</v>
       </c>
       <c r="F74" t="n">
-        <v>4539.0579</v>
+        <v>26000</v>
       </c>
       <c r="G74" t="n">
-        <v>1223844.6404</v>
+        <v>1061524.612403039</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3284,28 +3355,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.51</v>
+        <v>13.2</v>
       </c>
       <c r="C75" t="n">
-        <v>13.51</v>
+        <v>13.31</v>
       </c>
       <c r="D75" t="n">
-        <v>13.51</v>
+        <v>13.31</v>
       </c>
       <c r="E75" t="n">
-        <v>13.51</v>
+        <v>13.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4530</v>
+        <v>13000</v>
       </c>
       <c r="G75" t="n">
-        <v>1223844.6404</v>
+        <v>1074524.612403039</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3323,28 +3395,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.56</v>
+        <v>13.29</v>
       </c>
       <c r="C76" t="n">
-        <v>13.51</v>
+        <v>13.29</v>
       </c>
       <c r="D76" t="n">
-        <v>13.56</v>
+        <v>13.29</v>
       </c>
       <c r="E76" t="n">
-        <v>13.51</v>
+        <v>13.29</v>
       </c>
       <c r="F76" t="n">
-        <v>12307.8943</v>
+        <v>12726.9456</v>
       </c>
       <c r="G76" t="n">
-        <v>1223844.6404</v>
+        <v>1061797.666803039</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3362,28 +3435,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.47</v>
+        <v>13.22</v>
       </c>
       <c r="C77" t="n">
-        <v>13.47</v>
+        <v>13.22</v>
       </c>
       <c r="D77" t="n">
-        <v>13.47</v>
+        <v>13.22</v>
       </c>
       <c r="E77" t="n">
-        <v>13.47</v>
+        <v>13.22</v>
       </c>
       <c r="F77" t="n">
-        <v>2650</v>
+        <v>872.8262</v>
       </c>
       <c r="G77" t="n">
-        <v>1221194.6404</v>
+        <v>1060924.840603039</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3401,28 +3475,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="C78" t="n">
-        <v>13.39</v>
+        <v>13.15</v>
       </c>
       <c r="D78" t="n">
-        <v>13.39</v>
+        <v>13.15</v>
       </c>
       <c r="E78" t="n">
-        <v>13.31</v>
+        <v>13.15</v>
       </c>
       <c r="F78" t="n">
-        <v>60743.9123</v>
+        <v>11854.1194</v>
       </c>
       <c r="G78" t="n">
-        <v>1160450.7281</v>
+        <v>1049070.721203039</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3440,28 +3515,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.39</v>
+        <v>13.22</v>
       </c>
       <c r="C79" t="n">
-        <v>13.49</v>
+        <v>13.37</v>
       </c>
       <c r="D79" t="n">
-        <v>13.49</v>
+        <v>13.37</v>
       </c>
       <c r="E79" t="n">
-        <v>13.39</v>
+        <v>13.22</v>
       </c>
       <c r="F79" t="n">
-        <v>8918</v>
+        <v>2999</v>
       </c>
       <c r="G79" t="n">
-        <v>1169368.7281</v>
+        <v>1052069.721203039</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3479,28 +3555,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.32</v>
+        <v>13.39</v>
       </c>
       <c r="C80" t="n">
-        <v>13.49</v>
+        <v>13.4</v>
       </c>
       <c r="D80" t="n">
-        <v>13.49</v>
+        <v>13.4</v>
       </c>
       <c r="E80" t="n">
-        <v>13.31</v>
+        <v>13.39</v>
       </c>
       <c r="F80" t="n">
-        <v>37885.8897</v>
+        <v>76</v>
       </c>
       <c r="G80" t="n">
-        <v>1169368.7281</v>
+        <v>1052145.721203039</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3518,28 +3595,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="C81" t="n">
         <v>13.35</v>
-      </c>
-      <c r="C81" t="n">
-        <v>13.03</v>
       </c>
       <c r="D81" t="n">
         <v>13.35</v>
       </c>
       <c r="E81" t="n">
-        <v>13.03</v>
+        <v>13.23</v>
       </c>
       <c r="F81" t="n">
-        <v>339885.0329</v>
+        <v>2694.231</v>
       </c>
       <c r="G81" t="n">
-        <v>829483.6952</v>
+        <v>1049451.490203039</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3557,28 +3635,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.03</v>
+        <v>13.37</v>
       </c>
       <c r="C82" t="n">
-        <v>13.38</v>
+        <v>13.37</v>
       </c>
       <c r="D82" t="n">
-        <v>13.4</v>
+        <v>13.37</v>
       </c>
       <c r="E82" t="n">
-        <v>13.03</v>
+        <v>13.37</v>
       </c>
       <c r="F82" t="n">
-        <v>31946.9479</v>
+        <v>38</v>
       </c>
       <c r="G82" t="n">
-        <v>861430.6431</v>
+        <v>1049489.490203039</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3596,28 +3675,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.32</v>
+        <v>13.39</v>
       </c>
       <c r="C83" t="n">
-        <v>13.3</v>
+        <v>13.39</v>
       </c>
       <c r="D83" t="n">
-        <v>13.32</v>
+        <v>13.39</v>
       </c>
       <c r="E83" t="n">
-        <v>13.3</v>
+        <v>13.39</v>
       </c>
       <c r="F83" t="n">
-        <v>5162.5565</v>
+        <v>38</v>
       </c>
       <c r="G83" t="n">
-        <v>856268.0866</v>
+        <v>1049527.490203039</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3635,28 +3715,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.3</v>
+        <v>13.38</v>
       </c>
       <c r="C84" t="n">
-        <v>13.39</v>
+        <v>13.38</v>
       </c>
       <c r="D84" t="n">
-        <v>13.47</v>
+        <v>13.38</v>
       </c>
       <c r="E84" t="n">
-        <v>13.3</v>
+        <v>13.38</v>
       </c>
       <c r="F84" t="n">
-        <v>61940.6242</v>
+        <v>2714.4109</v>
       </c>
       <c r="G84" t="n">
-        <v>918208.7108</v>
+        <v>1046813.079303039</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3674,28 +3755,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.36</v>
+        <v>13.38</v>
       </c>
       <c r="C85" t="n">
-        <v>13.21</v>
+        <v>14.02</v>
       </c>
       <c r="D85" t="n">
-        <v>13.36</v>
+        <v>14.03</v>
       </c>
       <c r="E85" t="n">
-        <v>13.21</v>
+        <v>13.38</v>
       </c>
       <c r="F85" t="n">
-        <v>1955.7116</v>
+        <v>113941.4686</v>
       </c>
       <c r="G85" t="n">
-        <v>916252.9992</v>
+        <v>1160754.547903039</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3713,28 +3795,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.21</v>
+        <v>14</v>
       </c>
       <c r="C86" t="n">
-        <v>13.21</v>
+        <v>14.01</v>
       </c>
       <c r="D86" t="n">
-        <v>13.21</v>
+        <v>14.01</v>
       </c>
       <c r="E86" t="n">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="F86" t="n">
-        <v>75157.3251</v>
+        <v>15708.77944325482</v>
       </c>
       <c r="G86" t="n">
-        <v>916252.9992</v>
+        <v>1145045.768459785</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3752,28 +3835,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.2</v>
+        <v>13.82</v>
       </c>
       <c r="C87" t="n">
-        <v>13.18</v>
+        <v>13.82</v>
       </c>
       <c r="D87" t="n">
-        <v>13.21</v>
+        <v>13.82</v>
       </c>
       <c r="E87" t="n">
-        <v>13.18</v>
+        <v>13.82</v>
       </c>
       <c r="F87" t="n">
-        <v>22582</v>
+        <v>2196.9696</v>
       </c>
       <c r="G87" t="n">
-        <v>893670.9992</v>
+        <v>1142848.798859785</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3791,28 +3875,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.08</v>
+        <v>13.82</v>
       </c>
       <c r="C88" t="n">
-        <v>13.08</v>
+        <v>13.82</v>
       </c>
       <c r="D88" t="n">
-        <v>13.13</v>
+        <v>13.82</v>
       </c>
       <c r="E88" t="n">
-        <v>13.08</v>
+        <v>13.82</v>
       </c>
       <c r="F88" t="n">
-        <v>10539.4023</v>
+        <v>104.2137</v>
       </c>
       <c r="G88" t="n">
-        <v>883131.5969</v>
+        <v>1142848.798859785</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3830,28 +3915,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.08</v>
+        <v>13.7</v>
       </c>
       <c r="C89" t="n">
-        <v>13.08</v>
+        <v>13.7</v>
       </c>
       <c r="D89" t="n">
-        <v>13.08</v>
+        <v>13.7</v>
       </c>
       <c r="E89" t="n">
-        <v>13.08</v>
+        <v>13.7</v>
       </c>
       <c r="F89" t="n">
-        <v>1488.9127</v>
+        <v>16000</v>
       </c>
       <c r="G89" t="n">
-        <v>883131.5969</v>
+        <v>1126848.798859785</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3869,28 +3955,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.08</v>
+        <v>13.82</v>
       </c>
       <c r="C90" t="n">
-        <v>13.08</v>
+        <v>14.1</v>
       </c>
       <c r="D90" t="n">
-        <v>13.08</v>
+        <v>14.1</v>
       </c>
       <c r="E90" t="n">
-        <v>13.08</v>
+        <v>13.82</v>
       </c>
       <c r="F90" t="n">
-        <v>1935.5865</v>
+        <v>126261.2504</v>
       </c>
       <c r="G90" t="n">
-        <v>883131.5969</v>
+        <v>1253110.049259785</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3908,28 +3995,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.07</v>
+        <v>14.1</v>
       </c>
       <c r="C91" t="n">
-        <v>13.07</v>
+        <v>14.21</v>
       </c>
       <c r="D91" t="n">
-        <v>13.07</v>
+        <v>14.21</v>
       </c>
       <c r="E91" t="n">
-        <v>13.07</v>
+        <v>14.1</v>
       </c>
       <c r="F91" t="n">
-        <v>11448.0012</v>
+        <v>62460.2234</v>
       </c>
       <c r="G91" t="n">
-        <v>871683.5956999999</v>
+        <v>1315570.272659785</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3947,28 +4035,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.07</v>
+        <v>14.21</v>
       </c>
       <c r="C92" t="n">
-        <v>13.07</v>
+        <v>14.25</v>
       </c>
       <c r="D92" t="n">
-        <v>13.07</v>
+        <v>14.25</v>
       </c>
       <c r="E92" t="n">
-        <v>13.07</v>
+        <v>14.21</v>
       </c>
       <c r="F92" t="n">
-        <v>11448.0775</v>
+        <v>127932.9764</v>
       </c>
       <c r="G92" t="n">
-        <v>871683.5956999999</v>
+        <v>1443503.249059785</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3986,28 +4075,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.07</v>
+        <v>14.22</v>
       </c>
       <c r="C93" t="n">
-        <v>13.08</v>
+        <v>14.15</v>
       </c>
       <c r="D93" t="n">
-        <v>13.08</v>
+        <v>14.28</v>
       </c>
       <c r="E93" t="n">
-        <v>13.07</v>
+        <v>13.91</v>
       </c>
       <c r="F93" t="n">
-        <v>10008.9151</v>
+        <v>195526.6981</v>
       </c>
       <c r="G93" t="n">
-        <v>881692.5107999999</v>
+        <v>1247976.550959785</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4025,1081 +4115,1003 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.08</v>
+        <v>14.15</v>
       </c>
       <c r="C94" t="n">
-        <v>13.13</v>
+        <v>14.3</v>
       </c>
       <c r="D94" t="n">
-        <v>13.14</v>
+        <v>14.3</v>
       </c>
       <c r="E94" t="n">
-        <v>13.07</v>
+        <v>14.15</v>
       </c>
       <c r="F94" t="n">
-        <v>46062</v>
+        <v>16516</v>
       </c>
       <c r="G94" t="n">
-        <v>927754.5107999999</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.13</v>
+        <v>14.3</v>
       </c>
       <c r="C95" t="n">
-        <v>13.13</v>
+        <v>14.3</v>
       </c>
       <c r="D95" t="n">
-        <v>13.13</v>
+        <v>14.3</v>
       </c>
       <c r="E95" t="n">
-        <v>13.13</v>
+        <v>14.3</v>
       </c>
       <c r="F95" t="n">
-        <v>1454</v>
+        <v>7420.0277</v>
       </c>
       <c r="G95" t="n">
-        <v>927754.5107999999</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.12</v>
+        <v>14.3</v>
       </c>
       <c r="C96" t="n">
-        <v>13.15</v>
+        <v>14.3</v>
       </c>
       <c r="D96" t="n">
-        <v>13.15</v>
+        <v>14.3</v>
       </c>
       <c r="E96" t="n">
-        <v>13.12</v>
+        <v>14.3</v>
       </c>
       <c r="F96" t="n">
-        <v>7722.043</v>
+        <v>27511.466</v>
       </c>
       <c r="G96" t="n">
-        <v>935476.5537999999</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.05</v>
+        <v>14.37</v>
       </c>
       <c r="C97" t="n">
-        <v>13.16</v>
+        <v>14.4</v>
       </c>
       <c r="D97" t="n">
-        <v>13.16</v>
+        <v>14.4</v>
       </c>
       <c r="E97" t="n">
-        <v>13.05</v>
+        <v>14.37</v>
       </c>
       <c r="F97" t="n">
-        <v>46268</v>
+        <v>136247.7294</v>
       </c>
       <c r="G97" t="n">
-        <v>981744.5537999999</v>
+        <v>1400740.280359785</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.16</v>
+        <v>14.41</v>
       </c>
       <c r="C98" t="n">
-        <v>13.16</v>
+        <v>14.21</v>
       </c>
       <c r="D98" t="n">
-        <v>13.16</v>
+        <v>14.41</v>
       </c>
       <c r="E98" t="n">
-        <v>13.16</v>
+        <v>14.21</v>
       </c>
       <c r="F98" t="n">
-        <v>931</v>
+        <v>5238.9439</v>
       </c>
       <c r="G98" t="n">
-        <v>981744.5537999999</v>
+        <v>1395501.336459785</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.16</v>
+        <v>14.1</v>
       </c>
       <c r="C99" t="n">
-        <v>13.27</v>
+        <v>13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>13.27</v>
+        <v>14.23</v>
       </c>
       <c r="E99" t="n">
-        <v>13.16</v>
+        <v>13.93</v>
       </c>
       <c r="F99" t="n">
-        <v>6008.3114</v>
+        <v>117085.405</v>
       </c>
       <c r="G99" t="n">
-        <v>987752.8651999999</v>
+        <v>1278415.931459785</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.1</v>
+        <v>13.99</v>
       </c>
       <c r="C100" t="n">
-        <v>13.1</v>
+        <v>14.07</v>
       </c>
       <c r="D100" t="n">
-        <v>13.1</v>
+        <v>14.27</v>
       </c>
       <c r="E100" t="n">
-        <v>13.1</v>
+        <v>13.99</v>
       </c>
       <c r="F100" t="n">
-        <v>555.8056</v>
+        <v>177837.571</v>
       </c>
       <c r="G100" t="n">
-        <v>987197.0595999999</v>
+        <v>1456253.502459785</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.16</v>
+        <v>14.08</v>
       </c>
       <c r="C101" t="n">
-        <v>13.16</v>
+        <v>14.08</v>
       </c>
       <c r="D101" t="n">
-        <v>13.16</v>
+        <v>14.08</v>
       </c>
       <c r="E101" t="n">
-        <v>13.16</v>
+        <v>14.08</v>
       </c>
       <c r="F101" t="n">
-        <v>2656.231003039514</v>
+        <v>6260.1131</v>
       </c>
       <c r="G101" t="n">
-        <v>989853.2906030394</v>
+        <v>1462513.615559785</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.1</v>
+        <v>14.14</v>
       </c>
       <c r="C102" t="n">
-        <v>13.1</v>
+        <v>14.14</v>
       </c>
       <c r="D102" t="n">
-        <v>13.1</v>
+        <v>14.14</v>
       </c>
       <c r="E102" t="n">
-        <v>13.1</v>
+        <v>14.14</v>
       </c>
       <c r="F102" t="n">
-        <v>590.9709</v>
+        <v>230255.64</v>
       </c>
       <c r="G102" t="n">
-        <v>989262.3197030395</v>
+        <v>1692769.255559785</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.01</v>
+        <v>14.14</v>
       </c>
       <c r="C103" t="n">
-        <v>13.05</v>
+        <v>14.07</v>
       </c>
       <c r="D103" t="n">
-        <v>13.05</v>
+        <v>14.17</v>
       </c>
       <c r="E103" t="n">
-        <v>13.01</v>
+        <v>13.81</v>
       </c>
       <c r="F103" t="n">
-        <v>14936.3623</v>
+        <v>291311.4313</v>
       </c>
       <c r="G103" t="n">
-        <v>974325.9574030394</v>
+        <v>1401457.824259785</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.93</v>
+        <v>13.99</v>
       </c>
       <c r="C104" t="n">
-        <v>12.93</v>
+        <v>13.99</v>
       </c>
       <c r="D104" t="n">
-        <v>12.93</v>
+        <v>13.99</v>
       </c>
       <c r="E104" t="n">
-        <v>12.93</v>
+        <v>13.99</v>
       </c>
       <c r="F104" t="n">
-        <v>603.7968</v>
+        <v>7600</v>
       </c>
       <c r="G104" t="n">
-        <v>973722.1606030394</v>
+        <v>1393857.824259785</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.82</v>
+        <v>13.96</v>
       </c>
       <c r="C105" t="n">
-        <v>12.82</v>
+        <v>13.96</v>
       </c>
       <c r="D105" t="n">
-        <v>12.82</v>
+        <v>13.96</v>
       </c>
       <c r="E105" t="n">
-        <v>12.82</v>
+        <v>13.96</v>
       </c>
       <c r="F105" t="n">
-        <v>2335</v>
+        <v>4340</v>
       </c>
       <c r="G105" t="n">
-        <v>971387.1606030394</v>
+        <v>1389517.824259785</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.94</v>
+        <v>13.86</v>
       </c>
       <c r="C106" t="n">
-        <v>12.94</v>
+        <v>13.77</v>
       </c>
       <c r="D106" t="n">
-        <v>12.94</v>
+        <v>14</v>
       </c>
       <c r="E106" t="n">
-        <v>12.94</v>
+        <v>13.77</v>
       </c>
       <c r="F106" t="n">
-        <v>3500</v>
+        <v>6133.521</v>
       </c>
       <c r="G106" t="n">
-        <v>974887.1606030394</v>
+        <v>1383384.303259785</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.94</v>
+        <v>13.96</v>
       </c>
       <c r="C107" t="n">
-        <v>12.94</v>
+        <v>13.96</v>
       </c>
       <c r="D107" t="n">
-        <v>12.94</v>
+        <v>13.96</v>
       </c>
       <c r="E107" t="n">
-        <v>12.94</v>
+        <v>13.96</v>
       </c>
       <c r="F107" t="n">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="G107" t="n">
-        <v>974887.1606030394</v>
+        <v>1383420.303259785</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.95</v>
+        <v>13.76</v>
       </c>
       <c r="C108" t="n">
-        <v>12.95</v>
+        <v>13.71</v>
       </c>
       <c r="D108" t="n">
-        <v>12.95</v>
+        <v>13.76</v>
       </c>
       <c r="E108" t="n">
-        <v>12.95</v>
+        <v>13.71</v>
       </c>
       <c r="F108" t="n">
-        <v>2709.9999</v>
+        <v>190097.6323</v>
       </c>
       <c r="G108" t="n">
-        <v>977597.1605030395</v>
+        <v>1193322.670959785</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.9</v>
+        <v>13.71</v>
       </c>
       <c r="C109" t="n">
-        <v>12.88</v>
+        <v>13.71</v>
       </c>
       <c r="D109" t="n">
-        <v>12.9</v>
+        <v>13.71</v>
       </c>
       <c r="E109" t="n">
-        <v>12.88</v>
+        <v>13.71</v>
       </c>
       <c r="F109" t="n">
-        <v>11586.9424</v>
+        <v>34630.2794</v>
       </c>
       <c r="G109" t="n">
-        <v>966010.2181030395</v>
+        <v>1193322.670959785</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.89</v>
+        <v>13.71</v>
       </c>
       <c r="C110" t="n">
-        <v>12.94</v>
+        <v>13.93</v>
       </c>
       <c r="D110" t="n">
-        <v>12.94</v>
+        <v>13.93</v>
       </c>
       <c r="E110" t="n">
-        <v>12.89</v>
+        <v>13.71</v>
       </c>
       <c r="F110" t="n">
-        <v>5727.7183</v>
+        <v>8308.854300000001</v>
       </c>
       <c r="G110" t="n">
-        <v>971737.9364030395</v>
+        <v>1201631.525259785</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.98</v>
+        <v>13.72</v>
       </c>
       <c r="C111" t="n">
-        <v>13.02</v>
+        <v>13.71</v>
       </c>
       <c r="D111" t="n">
-        <v>13.02</v>
+        <v>13.72</v>
       </c>
       <c r="E111" t="n">
-        <v>12.98</v>
+        <v>13.71</v>
       </c>
       <c r="F111" t="n">
-        <v>38800</v>
+        <v>22430.741</v>
       </c>
       <c r="G111" t="n">
-        <v>1010537.936403039</v>
+        <v>1179200.784259785</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.03</v>
+        <v>13.78</v>
       </c>
       <c r="C112" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="D112" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="E112" t="n">
-        <v>13.03</v>
+        <v>13.78</v>
       </c>
       <c r="F112" t="n">
-        <v>19400</v>
+        <v>12306.546</v>
       </c>
       <c r="G112" t="n">
-        <v>1029937.936403039</v>
+        <v>1191507.330259785</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="C113" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="D113" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="E113" t="n">
-        <v>13.04</v>
+        <v>13.78</v>
       </c>
       <c r="F113" t="n">
-        <v>6171.8201</v>
+        <v>2574.8379</v>
       </c>
       <c r="G113" t="n">
-        <v>1029937.936403039</v>
+        <v>1191507.330259785</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13.04</v>
+        <v>13.63</v>
       </c>
       <c r="C114" t="n">
-        <v>13.08</v>
+        <v>13.63</v>
       </c>
       <c r="D114" t="n">
-        <v>13.08</v>
+        <v>13.63</v>
       </c>
       <c r="E114" t="n">
-        <v>13.04</v>
+        <v>13.63</v>
       </c>
       <c r="F114" t="n">
-        <v>5586.676</v>
+        <v>7129.0276</v>
       </c>
       <c r="G114" t="n">
-        <v>1035524.612403039</v>
+        <v>1184378.302659785</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.08</v>
+        <v>13.63</v>
       </c>
       <c r="C115" t="n">
-        <v>13.08</v>
+        <v>13.59</v>
       </c>
       <c r="D115" t="n">
-        <v>13.08</v>
+        <v>13.63</v>
       </c>
       <c r="E115" t="n">
-        <v>13.08</v>
+        <v>13.59</v>
       </c>
       <c r="F115" t="n">
-        <v>5015.5046</v>
+        <v>24051.7735</v>
       </c>
       <c r="G115" t="n">
-        <v>1035524.612403039</v>
+        <v>1160326.529159785</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.07</v>
+        <v>13.74</v>
       </c>
       <c r="C116" t="n">
-        <v>13.17</v>
+        <v>13.73</v>
       </c>
       <c r="D116" t="n">
-        <v>13.17</v>
+        <v>13.74</v>
       </c>
       <c r="E116" t="n">
-        <v>13.07</v>
+        <v>13.73</v>
       </c>
       <c r="F116" t="n">
-        <v>26000</v>
+        <v>9330</v>
       </c>
       <c r="G116" t="n">
-        <v>1061524.612403039</v>
+        <v>1169656.529159785</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="C117" t="n">
-        <v>13.31</v>
+        <v>13.7</v>
       </c>
       <c r="D117" t="n">
-        <v>13.31</v>
+        <v>13.7</v>
       </c>
       <c r="E117" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="F117" t="n">
-        <v>13000</v>
+        <v>59751.3525</v>
       </c>
       <c r="G117" t="n">
-        <v>1074524.612403039</v>
+        <v>1109905.176659785</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.29</v>
+        <v>13.7</v>
       </c>
       <c r="C118" t="n">
-        <v>13.29</v>
+        <v>13.58</v>
       </c>
       <c r="D118" t="n">
-        <v>13.29</v>
+        <v>13.7</v>
       </c>
       <c r="E118" t="n">
-        <v>13.29</v>
+        <v>13.58</v>
       </c>
       <c r="F118" t="n">
-        <v>12726.9456</v>
+        <v>178419.0854</v>
       </c>
       <c r="G118" t="n">
-        <v>1061797.666803039</v>
+        <v>931486.0912597852</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13.22</v>
+        <v>13.58</v>
       </c>
       <c r="C119" t="n">
-        <v>13.22</v>
+        <v>13.56</v>
       </c>
       <c r="D119" t="n">
-        <v>13.22</v>
+        <v>13.58</v>
       </c>
       <c r="E119" t="n">
-        <v>13.22</v>
+        <v>13.56</v>
       </c>
       <c r="F119" t="n">
-        <v>872.8262</v>
+        <v>26004.7286</v>
       </c>
       <c r="G119" t="n">
-        <v>1060924.840603039</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.15</v>
+        <v>13.56</v>
       </c>
       <c r="C120" t="n">
-        <v>13.15</v>
+        <v>13.56</v>
       </c>
       <c r="D120" t="n">
-        <v>13.15</v>
+        <v>13.56</v>
       </c>
       <c r="E120" t="n">
-        <v>13.15</v>
+        <v>13.56</v>
       </c>
       <c r="F120" t="n">
-        <v>11854.1194</v>
+        <v>3400.02</v>
       </c>
       <c r="G120" t="n">
-        <v>1049070.721203039</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.22</v>
+        <v>13.56</v>
       </c>
       <c r="C121" t="n">
-        <v>13.37</v>
+        <v>13.56</v>
       </c>
       <c r="D121" t="n">
-        <v>13.37</v>
+        <v>13.56</v>
       </c>
       <c r="E121" t="n">
-        <v>13.22</v>
+        <v>13.56</v>
       </c>
       <c r="F121" t="n">
-        <v>2999</v>
+        <v>296</v>
       </c>
       <c r="G121" t="n">
-        <v>1052069.721203039</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5109,36 +5121,33 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.39</v>
+        <v>13.56</v>
       </c>
       <c r="C122" t="n">
-        <v>13.4</v>
+        <v>13.57</v>
       </c>
       <c r="D122" t="n">
-        <v>13.4</v>
+        <v>13.57</v>
       </c>
       <c r="E122" t="n">
-        <v>13.39</v>
+        <v>13.56</v>
       </c>
       <c r="F122" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G122" t="n">
-        <v>1052145.721203039</v>
+        <v>905518.3626597852</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5148,153 +5157,141 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>13.24</v>
+        <v>13.57</v>
       </c>
       <c r="C123" t="n">
-        <v>13.35</v>
+        <v>13.58</v>
       </c>
       <c r="D123" t="n">
-        <v>13.35</v>
+        <v>13.58</v>
       </c>
       <c r="E123" t="n">
-        <v>13.23</v>
+        <v>13.57</v>
       </c>
       <c r="F123" t="n">
-        <v>2694.231</v>
+        <v>11800</v>
       </c>
       <c r="G123" t="n">
-        <v>1049451.490203039</v>
+        <v>917318.3626597852</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.37</v>
+        <v>13.5</v>
       </c>
       <c r="C124" t="n">
-        <v>13.37</v>
+        <v>13.48</v>
       </c>
       <c r="D124" t="n">
-        <v>13.37</v>
+        <v>13.5</v>
       </c>
       <c r="E124" t="n">
-        <v>13.37</v>
+        <v>13.48</v>
       </c>
       <c r="F124" t="n">
-        <v>38</v>
+        <v>7209.9714</v>
       </c>
       <c r="G124" t="n">
-        <v>1049489.490203039</v>
+        <v>910108.3912597852</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.39</v>
+        <v>13.48</v>
       </c>
       <c r="C125" t="n">
         <v>13.39</v>
       </c>
       <c r="D125" t="n">
-        <v>13.39</v>
+        <v>13.48</v>
       </c>
       <c r="E125" t="n">
         <v>13.39</v>
       </c>
       <c r="F125" t="n">
-        <v>38</v>
+        <v>61253.7543</v>
       </c>
       <c r="G125" t="n">
-        <v>1049527.490203039</v>
+        <v>848854.6369597851</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="C126" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="D126" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="E126" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="F126" t="n">
-        <v>2714.4109</v>
+        <v>106647.5166</v>
       </c>
       <c r="G126" t="n">
-        <v>1046813.079303039</v>
+        <v>848854.6369597851</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5304,75 +5301,69 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="C127" t="n">
-        <v>14.02</v>
+        <v>13.39</v>
       </c>
       <c r="D127" t="n">
-        <v>14.03</v>
+        <v>13.39</v>
       </c>
       <c r="E127" t="n">
-        <v>13.38</v>
+        <v>13.39</v>
       </c>
       <c r="F127" t="n">
-        <v>113941.4686</v>
+        <v>1.8309</v>
       </c>
       <c r="G127" t="n">
-        <v>1160754.547903039</v>
+        <v>848854.6369597851</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>13.48</v>
       </c>
       <c r="C128" t="n">
-        <v>14.01</v>
+        <v>13.48</v>
       </c>
       <c r="D128" t="n">
-        <v>14.01</v>
+        <v>13.48</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>13.48</v>
       </c>
       <c r="F128" t="n">
-        <v>15708.77944325482</v>
+        <v>40412.1236</v>
       </c>
       <c r="G128" t="n">
-        <v>1145045.768459785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5382,75 +5373,69 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="C129" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="D129" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="E129" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="F129" t="n">
-        <v>2196.9696</v>
+        <v>64970.7181</v>
       </c>
       <c r="G129" t="n">
-        <v>1142848.798859785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="C130" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="D130" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="E130" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="F130" t="n">
-        <v>104.2137</v>
+        <v>9080.3141</v>
       </c>
       <c r="G130" t="n">
-        <v>1142848.798859785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5460,36 +5445,33 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.7</v>
+        <v>13.48</v>
       </c>
       <c r="C131" t="n">
-        <v>13.7</v>
+        <v>13.48</v>
       </c>
       <c r="D131" t="n">
-        <v>13.7</v>
+        <v>13.48</v>
       </c>
       <c r="E131" t="n">
-        <v>13.7</v>
+        <v>13.48</v>
       </c>
       <c r="F131" t="n">
-        <v>16000</v>
+        <v>28376.5129</v>
       </c>
       <c r="G131" t="n">
-        <v>1126848.798859785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5499,36 +5481,33 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="C132" t="n">
-        <v>14.1</v>
+        <v>13.48</v>
       </c>
       <c r="D132" t="n">
-        <v>14.1</v>
+        <v>13.48</v>
       </c>
       <c r="E132" t="n">
-        <v>13.82</v>
+        <v>13.48</v>
       </c>
       <c r="F132" t="n">
-        <v>126261.2504</v>
+        <v>10157.1448</v>
       </c>
       <c r="G132" t="n">
-        <v>1253110.049259785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5538,36 +5517,33 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>14.1</v>
+        <v>13.48</v>
       </c>
       <c r="C133" t="n">
-        <v>14.21</v>
+        <v>13.48</v>
       </c>
       <c r="D133" t="n">
-        <v>14.21</v>
+        <v>13.48</v>
       </c>
       <c r="E133" t="n">
-        <v>14.1</v>
+        <v>13.48</v>
       </c>
       <c r="F133" t="n">
-        <v>62460.2234</v>
+        <v>16191</v>
       </c>
       <c r="G133" t="n">
-        <v>1315570.272659785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5577,36 +5553,33 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>14.21</v>
+        <v>13.48</v>
       </c>
       <c r="C134" t="n">
-        <v>14.25</v>
+        <v>13.48</v>
       </c>
       <c r="D134" t="n">
-        <v>14.25</v>
+        <v>13.48</v>
       </c>
       <c r="E134" t="n">
-        <v>14.21</v>
+        <v>13.48</v>
       </c>
       <c r="F134" t="n">
-        <v>127932.9764</v>
+        <v>38166.9171</v>
       </c>
       <c r="G134" t="n">
-        <v>1443503.249059785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5616,36 +5589,33 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14.22</v>
+        <v>13.48</v>
       </c>
       <c r="C135" t="n">
-        <v>14.15</v>
+        <v>13.48</v>
       </c>
       <c r="D135" t="n">
-        <v>14.28</v>
+        <v>13.48</v>
       </c>
       <c r="E135" t="n">
-        <v>13.91</v>
+        <v>13.48</v>
       </c>
       <c r="F135" t="n">
-        <v>195526.6981</v>
+        <v>7476</v>
       </c>
       <c r="G135" t="n">
-        <v>1247976.550959785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5655,34 +5625,33 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14.15</v>
+        <v>13.48</v>
       </c>
       <c r="C136" t="n">
-        <v>14.3</v>
+        <v>13.48</v>
       </c>
       <c r="D136" t="n">
-        <v>14.3</v>
+        <v>13.48</v>
       </c>
       <c r="E136" t="n">
-        <v>14.15</v>
+        <v>13.48</v>
       </c>
       <c r="F136" t="n">
-        <v>16516</v>
+        <v>12000</v>
       </c>
       <c r="G136" t="n">
-        <v>1264492.550959785</v>
+        <v>889266.7605597852</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5696,34 +5665,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>14.3</v>
+        <v>13.48</v>
       </c>
       <c r="C137" t="n">
-        <v>14.3</v>
+        <v>13.82</v>
       </c>
       <c r="D137" t="n">
-        <v>14.3</v>
+        <v>13.82</v>
       </c>
       <c r="E137" t="n">
-        <v>14.3</v>
+        <v>13.48</v>
       </c>
       <c r="F137" t="n">
-        <v>7420.0277</v>
+        <v>140514.2994</v>
       </c>
       <c r="G137" t="n">
-        <v>1264492.550959785</v>
+        <v>1029781.059959785</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5731,34 +5701,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>14.3</v>
+        <v>13.84</v>
       </c>
       <c r="C138" t="n">
-        <v>14.3</v>
+        <v>13.84</v>
       </c>
       <c r="D138" t="n">
-        <v>14.3</v>
+        <v>13.84</v>
       </c>
       <c r="E138" t="n">
-        <v>14.3</v>
+        <v>13.84</v>
       </c>
       <c r="F138" t="n">
-        <v>27511.466</v>
+        <v>37</v>
       </c>
       <c r="G138" t="n">
-        <v>1264492.550959785</v>
+        <v>1029818.059959785</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5766,34 +5737,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14.37</v>
+        <v>13.83</v>
       </c>
       <c r="C139" t="n">
-        <v>14.4</v>
+        <v>13.85</v>
       </c>
       <c r="D139" t="n">
-        <v>14.4</v>
+        <v>13.85</v>
       </c>
       <c r="E139" t="n">
-        <v>14.37</v>
+        <v>13.83</v>
       </c>
       <c r="F139" t="n">
-        <v>136247.7294</v>
+        <v>89802.4019</v>
       </c>
       <c r="G139" t="n">
-        <v>1400740.280359785</v>
+        <v>1119620.461859785</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5801,34 +5773,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>14.41</v>
+        <v>13.85</v>
       </c>
       <c r="C140" t="n">
-        <v>14.21</v>
+        <v>13.95</v>
       </c>
       <c r="D140" t="n">
-        <v>14.41</v>
+        <v>13.95</v>
       </c>
       <c r="E140" t="n">
-        <v>14.21</v>
+        <v>13.85</v>
       </c>
       <c r="F140" t="n">
-        <v>5238.9439</v>
+        <v>23818.3105</v>
       </c>
       <c r="G140" t="n">
-        <v>1395501.336459785</v>
+        <v>1143438.772359785</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5836,28 +5809,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="C141" t="n">
-        <v>13.93</v>
+        <v>14.05</v>
       </c>
       <c r="D141" t="n">
-        <v>14.23</v>
+        <v>14.05</v>
       </c>
       <c r="E141" t="n">
-        <v>13.93</v>
+        <v>13.95</v>
       </c>
       <c r="F141" t="n">
-        <v>117085.405</v>
+        <v>3567.4542</v>
       </c>
       <c r="G141" t="n">
-        <v>1278415.931459785</v>
+        <v>1147006.226559785</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5871,28 +5845,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="C142" t="n">
-        <v>14.07</v>
+        <v>14.09</v>
       </c>
       <c r="D142" t="n">
-        <v>14.27</v>
+        <v>14.09</v>
       </c>
       <c r="E142" t="n">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="F142" t="n">
-        <v>177837.571</v>
+        <v>36</v>
       </c>
       <c r="G142" t="n">
-        <v>1456253.502459785</v>
+        <v>1147042.226559785</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5906,28 +5881,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>14.08</v>
+        <v>14.09</v>
       </c>
       <c r="C143" t="n">
-        <v>14.08</v>
+        <v>14.04</v>
       </c>
       <c r="D143" t="n">
-        <v>14.08</v>
+        <v>14.11</v>
       </c>
       <c r="E143" t="n">
-        <v>14.08</v>
+        <v>14.04</v>
       </c>
       <c r="F143" t="n">
-        <v>6260.1131</v>
+        <v>177284.9417</v>
       </c>
       <c r="G143" t="n">
-        <v>1462513.615559785</v>
+        <v>969757.2848597852</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5941,28 +5917,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>14.14</v>
+        <v>14.09</v>
       </c>
       <c r="C144" t="n">
-        <v>14.14</v>
+        <v>14.09</v>
       </c>
       <c r="D144" t="n">
-        <v>14.14</v>
+        <v>14.09</v>
       </c>
       <c r="E144" t="n">
-        <v>14.14</v>
+        <v>14.09</v>
       </c>
       <c r="F144" t="n">
-        <v>230255.64</v>
+        <v>36</v>
       </c>
       <c r="G144" t="n">
-        <v>1692769.255559785</v>
+        <v>969793.2848597852</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5976,28 +5953,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14.14</v>
+        <v>14.06</v>
       </c>
       <c r="C145" t="n">
-        <v>14.07</v>
+        <v>14.08</v>
       </c>
       <c r="D145" t="n">
-        <v>14.17</v>
+        <v>14.08</v>
       </c>
       <c r="E145" t="n">
-        <v>13.81</v>
+        <v>14.06</v>
       </c>
       <c r="F145" t="n">
-        <v>291311.4313</v>
+        <v>14571.02272727273</v>
       </c>
       <c r="G145" t="n">
-        <v>1401457.824259785</v>
+        <v>955222.2621325125</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6011,28 +5989,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="C146" t="n">
-        <v>13.99</v>
+        <v>13.89</v>
       </c>
       <c r="D146" t="n">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="E146" t="n">
-        <v>13.99</v>
+        <v>13.89</v>
       </c>
       <c r="F146" t="n">
-        <v>7600</v>
+        <v>90400.9547</v>
       </c>
       <c r="G146" t="n">
-        <v>1393857.824259785</v>
+        <v>864821.3074325125</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6046,28 +6025,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.96</v>
+        <v>13.85</v>
       </c>
       <c r="C147" t="n">
-        <v>13.96</v>
+        <v>13.85</v>
       </c>
       <c r="D147" t="n">
-        <v>13.96</v>
+        <v>13.85</v>
       </c>
       <c r="E147" t="n">
-        <v>13.96</v>
+        <v>13.85</v>
       </c>
       <c r="F147" t="n">
-        <v>4340</v>
+        <v>14571.0227</v>
       </c>
       <c r="G147" t="n">
-        <v>1389517.824259785</v>
+        <v>850250.2847325125</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6081,28 +6061,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.86</v>
+        <v>13.99</v>
       </c>
       <c r="C148" t="n">
-        <v>13.77</v>
+        <v>13.99</v>
       </c>
       <c r="D148" t="n">
-        <v>14</v>
+        <v>13.99</v>
       </c>
       <c r="E148" t="n">
-        <v>13.77</v>
+        <v>13.99</v>
       </c>
       <c r="F148" t="n">
-        <v>6133.521</v>
+        <v>36</v>
       </c>
       <c r="G148" t="n">
-        <v>1383384.303259785</v>
+        <v>850286.2847325125</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6116,28 +6097,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.96</v>
+        <v>13.86</v>
       </c>
       <c r="C149" t="n">
-        <v>13.96</v>
+        <v>14.07</v>
       </c>
       <c r="D149" t="n">
-        <v>13.96</v>
+        <v>14.07</v>
       </c>
       <c r="E149" t="n">
-        <v>13.96</v>
+        <v>13.86</v>
       </c>
       <c r="F149" t="n">
-        <v>36</v>
+        <v>63400</v>
       </c>
       <c r="G149" t="n">
-        <v>1383420.303259785</v>
+        <v>913686.2847325125</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6151,34 +6133,35 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.76</v>
+        <v>13.92</v>
       </c>
       <c r="C150" t="n">
-        <v>13.71</v>
+        <v>13.92</v>
       </c>
       <c r="D150" t="n">
-        <v>13.76</v>
+        <v>13.92</v>
       </c>
       <c r="E150" t="n">
-        <v>13.71</v>
+        <v>13.92</v>
       </c>
       <c r="F150" t="n">
-        <v>190097.6323</v>
+        <v>5153.3673</v>
       </c>
       <c r="G150" t="n">
-        <v>1193322.670959785</v>
+        <v>908532.9174325125</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6186,28 +6169,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.71</v>
+        <v>13.99</v>
       </c>
       <c r="C151" t="n">
-        <v>13.71</v>
+        <v>13.99</v>
       </c>
       <c r="D151" t="n">
-        <v>13.71</v>
+        <v>13.99</v>
       </c>
       <c r="E151" t="n">
-        <v>13.71</v>
+        <v>13.99</v>
       </c>
       <c r="F151" t="n">
-        <v>34630.2794</v>
+        <v>36</v>
       </c>
       <c r="G151" t="n">
-        <v>1193322.670959785</v>
+        <v>908568.9174325125</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6221,34 +6205,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.71</v>
+        <v>13.95</v>
       </c>
       <c r="C152" t="n">
-        <v>13.93</v>
+        <v>13.95</v>
       </c>
       <c r="D152" t="n">
-        <v>13.93</v>
+        <v>13.95</v>
       </c>
       <c r="E152" t="n">
-        <v>13.71</v>
+        <v>13.95</v>
       </c>
       <c r="F152" t="n">
-        <v>8308.854300000001</v>
+        <v>36</v>
       </c>
       <c r="G152" t="n">
-        <v>1201631.525259785</v>
+        <v>908532.9174325125</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6256,34 +6241,35 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.72</v>
+        <v>13.99</v>
       </c>
       <c r="C153" t="n">
-        <v>13.71</v>
+        <v>14.06</v>
       </c>
       <c r="D153" t="n">
-        <v>13.72</v>
+        <v>14.06</v>
       </c>
       <c r="E153" t="n">
-        <v>13.71</v>
+        <v>13.99</v>
       </c>
       <c r="F153" t="n">
-        <v>22430.741</v>
+        <v>72</v>
       </c>
       <c r="G153" t="n">
-        <v>1179200.784259785</v>
+        <v>908604.9174325125</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6291,28 +6277,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.78</v>
+        <v>13.95</v>
       </c>
       <c r="C154" t="n">
-        <v>13.78</v>
+        <v>13.99</v>
       </c>
       <c r="D154" t="n">
-        <v>13.78</v>
+        <v>13.99</v>
       </c>
       <c r="E154" t="n">
-        <v>13.78</v>
+        <v>13.95</v>
       </c>
       <c r="F154" t="n">
-        <v>12306.546</v>
+        <v>22489.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>1191507.330259785</v>
+        <v>886114.9175325125</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6326,28 +6313,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.78</v>
+        <v>13.98</v>
       </c>
       <c r="C155" t="n">
-        <v>13.78</v>
+        <v>13.98</v>
       </c>
       <c r="D155" t="n">
-        <v>13.78</v>
+        <v>13.98</v>
       </c>
       <c r="E155" t="n">
-        <v>13.78</v>
+        <v>13.98</v>
       </c>
       <c r="F155" t="n">
-        <v>2574.8379</v>
+        <v>62975.8244</v>
       </c>
       <c r="G155" t="n">
-        <v>1191507.330259785</v>
+        <v>823139.0931325124</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6361,28 +6349,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.63</v>
+        <v>13.97</v>
       </c>
       <c r="C156" t="n">
-        <v>13.63</v>
+        <v>13.95</v>
       </c>
       <c r="D156" t="n">
-        <v>13.63</v>
+        <v>13.97</v>
       </c>
       <c r="E156" t="n">
-        <v>13.63</v>
+        <v>13.95</v>
       </c>
       <c r="F156" t="n">
-        <v>7129.0276</v>
+        <v>78931.7651</v>
       </c>
       <c r="G156" t="n">
-        <v>1184378.302659785</v>
+        <v>744207.3280325125</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6396,28 +6385,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.63</v>
+        <v>14.09</v>
       </c>
       <c r="C157" t="n">
-        <v>13.59</v>
+        <v>14.09</v>
       </c>
       <c r="D157" t="n">
-        <v>13.63</v>
+        <v>14.09</v>
       </c>
       <c r="E157" t="n">
-        <v>13.59</v>
+        <v>13.96</v>
       </c>
       <c r="F157" t="n">
-        <v>24051.7735</v>
+        <v>12038.9554</v>
       </c>
       <c r="G157" t="n">
-        <v>1160326.529159785</v>
+        <v>756246.2834325124</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6431,28 +6421,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.74</v>
+        <v>14.08</v>
       </c>
       <c r="C158" t="n">
-        <v>13.73</v>
+        <v>14.09</v>
       </c>
       <c r="D158" t="n">
-        <v>13.74</v>
+        <v>14.09</v>
       </c>
       <c r="E158" t="n">
-        <v>13.73</v>
+        <v>14.08</v>
       </c>
       <c r="F158" t="n">
-        <v>9330</v>
+        <v>13130.08374733854</v>
       </c>
       <c r="G158" t="n">
-        <v>1169656.529159785</v>
+        <v>756246.2834325124</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6466,28 +6457,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="C159" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="D159" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="E159" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="F159" t="n">
-        <v>59751.3525</v>
+        <v>39098.7296</v>
       </c>
       <c r="G159" t="n">
-        <v>1109905.176659785</v>
+        <v>756246.2834325124</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6501,28 +6493,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="C160" t="n">
-        <v>13.58</v>
+        <v>14.09</v>
       </c>
       <c r="D160" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="E160" t="n">
-        <v>13.58</v>
+        <v>14.09</v>
       </c>
       <c r="F160" t="n">
-        <v>178419.0854</v>
+        <v>1330</v>
       </c>
       <c r="G160" t="n">
-        <v>931486.0912597852</v>
+        <v>756246.2834325124</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6536,34 +6529,35 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.58</v>
+        <v>14.05</v>
       </c>
       <c r="C161" t="n">
-        <v>13.56</v>
+        <v>14.05</v>
       </c>
       <c r="D161" t="n">
-        <v>13.58</v>
+        <v>14.05</v>
       </c>
       <c r="E161" t="n">
-        <v>13.56</v>
+        <v>14.05</v>
       </c>
       <c r="F161" t="n">
-        <v>26004.7286</v>
+        <v>1604.7682</v>
       </c>
       <c r="G161" t="n">
-        <v>905481.3626597852</v>
+        <v>754641.5152325124</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6571,28 +6565,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.56</v>
+        <v>13.94</v>
       </c>
       <c r="C162" t="n">
-        <v>13.56</v>
+        <v>13.94</v>
       </c>
       <c r="D162" t="n">
-        <v>13.56</v>
+        <v>13.94</v>
       </c>
       <c r="E162" t="n">
-        <v>13.56</v>
+        <v>13.94</v>
       </c>
       <c r="F162" t="n">
-        <v>3400.02</v>
+        <v>10000</v>
       </c>
       <c r="G162" t="n">
-        <v>905481.3626597852</v>
+        <v>744641.5152325124</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6606,28 +6601,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.56</v>
+        <v>13.95</v>
       </c>
       <c r="C163" t="n">
-        <v>13.56</v>
+        <v>13.95</v>
       </c>
       <c r="D163" t="n">
-        <v>13.56</v>
+        <v>13.95</v>
       </c>
       <c r="E163" t="n">
-        <v>13.56</v>
+        <v>13.95</v>
       </c>
       <c r="F163" t="n">
-        <v>296</v>
+        <v>13130.0838</v>
       </c>
       <c r="G163" t="n">
-        <v>905481.3626597852</v>
+        <v>757771.5990325124</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6641,28 +6637,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.56</v>
+        <v>13.99</v>
       </c>
       <c r="C164" t="n">
-        <v>13.57</v>
+        <v>14.09</v>
       </c>
       <c r="D164" t="n">
-        <v>13.57</v>
+        <v>14.09</v>
       </c>
       <c r="E164" t="n">
-        <v>13.56</v>
+        <v>13.99</v>
       </c>
       <c r="F164" t="n">
-        <v>37</v>
+        <v>26846.24</v>
       </c>
       <c r="G164" t="n">
-        <v>905518.3626597852</v>
+        <v>784617.8390325124</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6676,28 +6673,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.57</v>
+        <v>14.09</v>
       </c>
       <c r="C165" t="n">
-        <v>13.58</v>
+        <v>14.09</v>
       </c>
       <c r="D165" t="n">
-        <v>13.58</v>
+        <v>14.09</v>
       </c>
       <c r="E165" t="n">
-        <v>13.57</v>
+        <v>14.09</v>
       </c>
       <c r="F165" t="n">
-        <v>11800</v>
+        <v>35486</v>
       </c>
       <c r="G165" t="n">
-        <v>917318.3626597852</v>
+        <v>784617.8390325124</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6711,28 +6709,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.5</v>
+        <v>13.97</v>
       </c>
       <c r="C166" t="n">
-        <v>13.48</v>
+        <v>13.97</v>
       </c>
       <c r="D166" t="n">
-        <v>13.5</v>
+        <v>13.97</v>
       </c>
       <c r="E166" t="n">
-        <v>13.48</v>
+        <v>13.97</v>
       </c>
       <c r="F166" t="n">
-        <v>7209.9714</v>
+        <v>2353.2398</v>
       </c>
       <c r="G166" t="n">
-        <v>910108.3912597852</v>
+        <v>782264.5992325124</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6746,28 +6745,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.48</v>
+        <v>13.96</v>
       </c>
       <c r="C167" t="n">
-        <v>13.39</v>
+        <v>13.96</v>
       </c>
       <c r="D167" t="n">
-        <v>13.48</v>
+        <v>13.96</v>
       </c>
       <c r="E167" t="n">
-        <v>13.39</v>
+        <v>13.96</v>
       </c>
       <c r="F167" t="n">
-        <v>61253.7543</v>
+        <v>58798.152</v>
       </c>
       <c r="G167" t="n">
-        <v>848854.6369597851</v>
+        <v>723466.4472325124</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6781,28 +6781,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="C168" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="D168" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="E168" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="F168" t="n">
-        <v>106647.5166</v>
+        <v>8975.2166</v>
       </c>
       <c r="G168" t="n">
-        <v>848854.6369597851</v>
+        <v>714491.2306325124</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6816,28 +6817,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="C169" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="D169" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="E169" t="n">
-        <v>13.39</v>
+        <v>13.84</v>
       </c>
       <c r="F169" t="n">
-        <v>1.8309</v>
+        <v>5941.6402</v>
       </c>
       <c r="G169" t="n">
-        <v>848854.6369597851</v>
+        <v>714491.2306325124</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6851,28 +6853,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="C170" t="n">
-        <v>13.48</v>
+        <v>13.83</v>
       </c>
       <c r="D170" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="E170" t="n">
-        <v>13.48</v>
+        <v>13.83</v>
       </c>
       <c r="F170" t="n">
-        <v>40412.1236</v>
+        <v>58643.46</v>
       </c>
       <c r="G170" t="n">
-        <v>889266.7605597852</v>
+        <v>655847.7706325124</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6886,28 +6889,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13.48</v>
+        <v>13.83</v>
       </c>
       <c r="C171" t="n">
-        <v>13.48</v>
+        <v>13.82</v>
       </c>
       <c r="D171" t="n">
-        <v>13.48</v>
+        <v>13.83</v>
       </c>
       <c r="E171" t="n">
-        <v>13.48</v>
+        <v>13.82</v>
       </c>
       <c r="F171" t="n">
-        <v>64970.7181</v>
+        <v>54977.4633</v>
       </c>
       <c r="G171" t="n">
-        <v>889266.7605597852</v>
+        <v>600870.3073325125</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6921,28 +6925,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.48</v>
+        <v>13.82</v>
       </c>
       <c r="C172" t="n">
-        <v>13.48</v>
+        <v>13.59</v>
       </c>
       <c r="D172" t="n">
-        <v>13.48</v>
+        <v>13.94</v>
       </c>
       <c r="E172" t="n">
-        <v>13.48</v>
+        <v>13.59</v>
       </c>
       <c r="F172" t="n">
-        <v>9080.3141</v>
+        <v>89164.99189999999</v>
       </c>
       <c r="G172" t="n">
-        <v>889266.7605597852</v>
+        <v>511705.3154325124</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6956,28 +6961,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="C173" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="D173" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="E173" t="n">
-        <v>13.48</v>
+        <v>13.84</v>
       </c>
       <c r="F173" t="n">
-        <v>28376.5129</v>
+        <v>37</v>
       </c>
       <c r="G173" t="n">
-        <v>889266.7605597852</v>
+        <v>511742.3154325124</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6991,28 +6997,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13.48</v>
+        <v>13.74</v>
       </c>
       <c r="C174" t="n">
-        <v>13.48</v>
+        <v>13.74</v>
       </c>
       <c r="D174" t="n">
-        <v>13.48</v>
+        <v>13.74</v>
       </c>
       <c r="E174" t="n">
-        <v>13.48</v>
+        <v>13.74</v>
       </c>
       <c r="F174" t="n">
-        <v>10157.1448</v>
+        <v>5794.8265</v>
       </c>
       <c r="G174" t="n">
-        <v>889266.7605597852</v>
+        <v>505947.4889325124</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7026,28 +7033,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.48</v>
+        <v>13.7</v>
       </c>
       <c r="C175" t="n">
-        <v>13.48</v>
+        <v>13.7</v>
       </c>
       <c r="D175" t="n">
-        <v>13.48</v>
+        <v>13.7</v>
       </c>
       <c r="E175" t="n">
-        <v>13.48</v>
+        <v>13.7</v>
       </c>
       <c r="F175" t="n">
-        <v>16191</v>
+        <v>2649.7949</v>
       </c>
       <c r="G175" t="n">
-        <v>889266.7605597852</v>
+        <v>503297.6940325124</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7061,28 +7069,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="C176" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="D176" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="E176" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="F176" t="n">
-        <v>38166.9171</v>
+        <v>23228.629</v>
       </c>
       <c r="G176" t="n">
-        <v>889266.7605597852</v>
+        <v>526526.3230325124</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7096,28 +7105,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13.48</v>
+        <v>13.78</v>
       </c>
       <c r="C177" t="n">
-        <v>13.48</v>
+        <v>13.77</v>
       </c>
       <c r="D177" t="n">
-        <v>13.48</v>
+        <v>13.78</v>
       </c>
       <c r="E177" t="n">
-        <v>13.48</v>
+        <v>13.7</v>
       </c>
       <c r="F177" t="n">
-        <v>7476</v>
+        <v>47022.315</v>
       </c>
       <c r="G177" t="n">
-        <v>889266.7605597852</v>
+        <v>573548.6380325125</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7131,28 +7141,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>13.48</v>
+        <v>13.76</v>
       </c>
       <c r="C178" t="n">
-        <v>13.48</v>
+        <v>13.76</v>
       </c>
       <c r="D178" t="n">
-        <v>13.48</v>
+        <v>13.76</v>
       </c>
       <c r="E178" t="n">
-        <v>13.48</v>
+        <v>13.76</v>
       </c>
       <c r="F178" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>889266.7605597852</v>
+        <v>573448.6380325125</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7166,28 +7177,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="C179" t="n">
-        <v>13.82</v>
+        <v>13.71</v>
       </c>
       <c r="D179" t="n">
-        <v>13.82</v>
+        <v>13.71</v>
       </c>
       <c r="E179" t="n">
-        <v>13.48</v>
+        <v>13.71</v>
       </c>
       <c r="F179" t="n">
-        <v>140514.2994</v>
+        <v>4250</v>
       </c>
       <c r="G179" t="n">
-        <v>1029781.059959785</v>
+        <v>569198.6380325125</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7201,28 +7213,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>13.84</v>
+        <v>13.6</v>
       </c>
       <c r="C180" t="n">
-        <v>13.84</v>
+        <v>13.58</v>
       </c>
       <c r="D180" t="n">
-        <v>13.84</v>
+        <v>13.6</v>
       </c>
       <c r="E180" t="n">
-        <v>13.84</v>
+        <v>13.58</v>
       </c>
       <c r="F180" t="n">
-        <v>37</v>
+        <v>116414.7897</v>
       </c>
       <c r="G180" t="n">
-        <v>1029818.059959785</v>
+        <v>452783.8483325125</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7236,28 +7249,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>13.83</v>
+        <v>13.65</v>
       </c>
       <c r="C181" t="n">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
       <c r="D181" t="n">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
       <c r="E181" t="n">
-        <v>13.83</v>
+        <v>13.65</v>
       </c>
       <c r="F181" t="n">
-        <v>89802.4019</v>
+        <v>4240</v>
       </c>
       <c r="G181" t="n">
-        <v>1119620.461859785</v>
+        <v>457023.8483325125</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7271,28 +7285,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>13.85</v>
+        <v>13.75</v>
       </c>
       <c r="C182" t="n">
-        <v>13.95</v>
+        <v>13.75</v>
       </c>
       <c r="D182" t="n">
-        <v>13.95</v>
+        <v>13.75</v>
       </c>
       <c r="E182" t="n">
-        <v>13.85</v>
+        <v>13.75</v>
       </c>
       <c r="F182" t="n">
-        <v>23818.3105</v>
+        <v>37</v>
       </c>
       <c r="G182" t="n">
-        <v>1143438.772359785</v>
+        <v>457060.8483325125</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7306,28 +7321,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>13.95</v>
+        <v>13.75</v>
       </c>
       <c r="C183" t="n">
-        <v>14.05</v>
+        <v>13.75</v>
       </c>
       <c r="D183" t="n">
-        <v>14.05</v>
+        <v>13.75</v>
       </c>
       <c r="E183" t="n">
-        <v>13.95</v>
+        <v>13.75</v>
       </c>
       <c r="F183" t="n">
-        <v>3567.4542</v>
+        <v>24400</v>
       </c>
       <c r="G183" t="n">
-        <v>1147006.226559785</v>
+        <v>457060.8483325125</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7341,28 +7357,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>14.09</v>
+        <v>13.75</v>
       </c>
       <c r="C184" t="n">
-        <v>14.09</v>
+        <v>13.75</v>
       </c>
       <c r="D184" t="n">
-        <v>14.09</v>
+        <v>13.75</v>
       </c>
       <c r="E184" t="n">
-        <v>14.09</v>
+        <v>13.75</v>
       </c>
       <c r="F184" t="n">
-        <v>36</v>
+        <v>5445.9639</v>
       </c>
       <c r="G184" t="n">
-        <v>1147042.226559785</v>
+        <v>457060.8483325125</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7376,28 +7393,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>14.09</v>
+        <v>13.65</v>
       </c>
       <c r="C185" t="n">
-        <v>14.04</v>
+        <v>13.65</v>
       </c>
       <c r="D185" t="n">
-        <v>14.11</v>
+        <v>13.65</v>
       </c>
       <c r="E185" t="n">
-        <v>14.04</v>
+        <v>13.65</v>
       </c>
       <c r="F185" t="n">
-        <v>177284.9417</v>
+        <v>40974.606</v>
       </c>
       <c r="G185" t="n">
-        <v>969757.2848597852</v>
+        <v>416086.2423325125</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7411,28 +7429,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>14.09</v>
+        <v>13.59</v>
       </c>
       <c r="C186" t="n">
-        <v>14.09</v>
+        <v>13.59</v>
       </c>
       <c r="D186" t="n">
-        <v>14.09</v>
+        <v>13.59</v>
       </c>
       <c r="E186" t="n">
-        <v>14.09</v>
+        <v>13.59</v>
       </c>
       <c r="F186" t="n">
-        <v>36</v>
+        <v>886.76</v>
       </c>
       <c r="G186" t="n">
-        <v>969793.2848597852</v>
+        <v>415199.4823325125</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7446,28 +7465,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14.06</v>
+        <v>13.59</v>
       </c>
       <c r="C187" t="n">
-        <v>14.08</v>
+        <v>13.59</v>
       </c>
       <c r="D187" t="n">
-        <v>14.08</v>
+        <v>13.59</v>
       </c>
       <c r="E187" t="n">
-        <v>14.06</v>
+        <v>13.59</v>
       </c>
       <c r="F187" t="n">
-        <v>14571.02272727273</v>
+        <v>1.3365</v>
       </c>
       <c r="G187" t="n">
-        <v>955222.2621325125</v>
+        <v>415199.4823325125</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7481,28 +7501,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>14.09</v>
+        <v>13.53</v>
       </c>
       <c r="C188" t="n">
-        <v>13.89</v>
+        <v>13.53</v>
       </c>
       <c r="D188" t="n">
-        <v>14.09</v>
+        <v>13.53</v>
       </c>
       <c r="E188" t="n">
-        <v>13.89</v>
+        <v>13.53</v>
       </c>
       <c r="F188" t="n">
-        <v>90400.9547</v>
+        <v>12284.5641</v>
       </c>
       <c r="G188" t="n">
-        <v>864821.3074325125</v>
+        <v>402914.9182325125</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7516,28 +7537,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.85</v>
+        <v>13.64</v>
       </c>
       <c r="C189" t="n">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
       <c r="D189" t="n">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
       <c r="E189" t="n">
-        <v>13.85</v>
+        <v>13.64</v>
       </c>
       <c r="F189" t="n">
-        <v>14571.0227</v>
+        <v>131539.2197</v>
       </c>
       <c r="G189" t="n">
-        <v>850250.2847325125</v>
+        <v>534454.1379325124</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7551,28 +7573,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>13.99</v>
+        <v>13.65</v>
       </c>
       <c r="C190" t="n">
-        <v>13.99</v>
+        <v>13.65</v>
       </c>
       <c r="D190" t="n">
-        <v>13.99</v>
+        <v>13.65</v>
       </c>
       <c r="E190" t="n">
-        <v>13.99</v>
+        <v>13.65</v>
       </c>
       <c r="F190" t="n">
-        <v>36</v>
+        <v>2046.1271</v>
       </c>
       <c r="G190" t="n">
-        <v>850286.2847325125</v>
+        <v>534454.1379325124</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7586,28 +7609,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.86</v>
+        <v>13.62</v>
       </c>
       <c r="C191" t="n">
-        <v>14.07</v>
+        <v>13.62</v>
       </c>
       <c r="D191" t="n">
-        <v>14.07</v>
+        <v>13.62</v>
       </c>
       <c r="E191" t="n">
-        <v>13.86</v>
+        <v>13.62</v>
       </c>
       <c r="F191" t="n">
-        <v>63400</v>
+        <v>3109.0421</v>
       </c>
       <c r="G191" t="n">
-        <v>913686.2847325125</v>
+        <v>531345.0958325125</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7621,28 +7645,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.92</v>
+        <v>13.64</v>
       </c>
       <c r="C192" t="n">
-        <v>13.92</v>
+        <v>13.74</v>
       </c>
       <c r="D192" t="n">
-        <v>13.92</v>
+        <v>13.74</v>
       </c>
       <c r="E192" t="n">
-        <v>13.92</v>
+        <v>13.64</v>
       </c>
       <c r="F192" t="n">
-        <v>5153.3673</v>
+        <v>27836.20510174672</v>
       </c>
       <c r="G192" t="n">
-        <v>908532.9174325125</v>
+        <v>559181.3009342592</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7656,28 +7681,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>13.99</v>
+        <v>13.68</v>
       </c>
       <c r="C193" t="n">
-        <v>13.99</v>
+        <v>13.58</v>
       </c>
       <c r="D193" t="n">
-        <v>13.99</v>
+        <v>13.68</v>
       </c>
       <c r="E193" t="n">
-        <v>13.99</v>
+        <v>13.58</v>
       </c>
       <c r="F193" t="n">
-        <v>36</v>
+        <v>24572.4099</v>
       </c>
       <c r="G193" t="n">
-        <v>908568.9174325125</v>
+        <v>534608.8910342592</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7691,28 +7717,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>13.95</v>
+        <v>13.58</v>
       </c>
       <c r="C194" t="n">
-        <v>13.95</v>
+        <v>13.67</v>
       </c>
       <c r="D194" t="n">
-        <v>13.95</v>
+        <v>13.67</v>
       </c>
       <c r="E194" t="n">
-        <v>13.95</v>
+        <v>13.58</v>
       </c>
       <c r="F194" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G194" t="n">
-        <v>908532.9174325125</v>
+        <v>534645.8910342592</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7726,28 +7753,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.99</v>
+        <v>13.63</v>
       </c>
       <c r="C195" t="n">
-        <v>14.06</v>
+        <v>13.54</v>
       </c>
       <c r="D195" t="n">
-        <v>14.06</v>
+        <v>13.64</v>
       </c>
       <c r="E195" t="n">
-        <v>13.99</v>
+        <v>13.54</v>
       </c>
       <c r="F195" t="n">
-        <v>72</v>
+        <v>21565.2535</v>
       </c>
       <c r="G195" t="n">
-        <v>908604.9174325125</v>
+        <v>513080.6375342592</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7761,28 +7789,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>13.95</v>
+        <v>13.67</v>
       </c>
       <c r="C196" t="n">
-        <v>13.99</v>
+        <v>13.67</v>
       </c>
       <c r="D196" t="n">
-        <v>13.99</v>
+        <v>13.67</v>
       </c>
       <c r="E196" t="n">
-        <v>13.95</v>
+        <v>13.67</v>
       </c>
       <c r="F196" t="n">
-        <v>22489.9999</v>
+        <v>37</v>
       </c>
       <c r="G196" t="n">
-        <v>886114.9175325125</v>
+        <v>513117.6375342592</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7796,1476 +7825,7 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="C197" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="D197" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="E197" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="F197" t="n">
-        <v>62975.8244</v>
-      </c>
-      <c r="G197" t="n">
-        <v>823139.0931325124</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="C198" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D198" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="E198" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F198" t="n">
-        <v>78931.7651</v>
-      </c>
-      <c r="G198" t="n">
-        <v>744207.3280325125</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="C199" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D199" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E199" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="F199" t="n">
-        <v>12038.9554</v>
-      </c>
-      <c r="G199" t="n">
-        <v>756246.2834325124</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="C200" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D200" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E200" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="F200" t="n">
-        <v>13130.08374733854</v>
-      </c>
-      <c r="G200" t="n">
-        <v>756246.2834325124</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="C201" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D201" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E201" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="F201" t="n">
-        <v>39098.7296</v>
-      </c>
-      <c r="G201" t="n">
-        <v>756246.2834325124</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="C202" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D202" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E202" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1330</v>
-      </c>
-      <c r="G202" t="n">
-        <v>756246.2834325124</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="C203" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="D203" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="E203" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1604.7682</v>
-      </c>
-      <c r="G203" t="n">
-        <v>754641.5152325124</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="C204" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="D204" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="E204" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>744641.5152325124</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="C205" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D205" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="E205" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F205" t="n">
-        <v>13130.0838</v>
-      </c>
-      <c r="G205" t="n">
-        <v>757771.5990325124</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="C206" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D206" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E206" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="F206" t="n">
-        <v>26846.24</v>
-      </c>
-      <c r="G206" t="n">
-        <v>784617.8390325124</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="C207" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D207" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E207" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="F207" t="n">
-        <v>35486</v>
-      </c>
-      <c r="G207" t="n">
-        <v>784617.8390325124</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="C208" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="D208" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="E208" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2353.2398</v>
-      </c>
-      <c r="G208" t="n">
-        <v>782264.5992325124</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="C209" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="D209" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="E209" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="F209" t="n">
-        <v>58798.152</v>
-      </c>
-      <c r="G209" t="n">
-        <v>723466.4472325124</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="C210" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D210" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="E210" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="F210" t="n">
-        <v>8975.2166</v>
-      </c>
-      <c r="G210" t="n">
-        <v>714491.2306325124</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="C211" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D211" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="E211" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5941.6402</v>
-      </c>
-      <c r="G211" t="n">
-        <v>714491.2306325124</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="C212" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="D212" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="E212" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="F212" t="n">
-        <v>58643.46</v>
-      </c>
-      <c r="G212" t="n">
-        <v>655847.7706325124</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="C213" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="D213" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="E213" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="F213" t="n">
-        <v>54977.4633</v>
-      </c>
-      <c r="G213" t="n">
-        <v>600870.3073325125</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="C214" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="D214" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="E214" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F214" t="n">
-        <v>89164.99189999999</v>
-      </c>
-      <c r="G214" t="n">
-        <v>511705.3154325124</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="C215" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D215" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="E215" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="F215" t="n">
-        <v>37</v>
-      </c>
-      <c r="G215" t="n">
-        <v>511742.3154325124</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="C216" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="D216" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="E216" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5794.8265</v>
-      </c>
-      <c r="G216" t="n">
-        <v>505947.4889325124</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C217" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D217" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E217" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2649.7949</v>
-      </c>
-      <c r="G217" t="n">
-        <v>503297.6940325124</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="C218" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="D218" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E218" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="F218" t="n">
-        <v>23228.629</v>
-      </c>
-      <c r="G218" t="n">
-        <v>526526.3230325124</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="C219" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="D219" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="E219" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F219" t="n">
-        <v>47022.315</v>
-      </c>
-      <c r="G219" t="n">
-        <v>573548.6380325125</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="C220" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="D220" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E220" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="F220" t="n">
-        <v>100</v>
-      </c>
-      <c r="G220" t="n">
-        <v>573448.6380325125</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="C221" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="D221" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E221" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="F221" t="n">
-        <v>4250</v>
-      </c>
-      <c r="G221" t="n">
-        <v>569198.6380325125</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D222" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E222" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F222" t="n">
-        <v>116414.7897</v>
-      </c>
-      <c r="G222" t="n">
-        <v>452783.8483325125</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E223" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F223" t="n">
-        <v>4240</v>
-      </c>
-      <c r="G223" t="n">
-        <v>457023.8483325125</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="C224" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="D224" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="E224" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F224" t="n">
-        <v>37</v>
-      </c>
-      <c r="G224" t="n">
-        <v>457060.8483325125</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="C225" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="D225" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="E225" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F225" t="n">
-        <v>24400</v>
-      </c>
-      <c r="G225" t="n">
-        <v>457060.8483325125</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="C226" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="D226" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="E226" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F226" t="n">
-        <v>5445.9639</v>
-      </c>
-      <c r="G226" t="n">
-        <v>457060.8483325125</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C227" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D227" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E227" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F227" t="n">
-        <v>40974.606</v>
-      </c>
-      <c r="G227" t="n">
-        <v>416086.2423325125</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="C228" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="D228" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="E228" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F228" t="n">
-        <v>886.76</v>
-      </c>
-      <c r="G228" t="n">
-        <v>415199.4823325125</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="C229" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="D229" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="E229" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1.3365</v>
-      </c>
-      <c r="G229" t="n">
-        <v>415199.4823325125</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="C230" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="D230" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="E230" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="F230" t="n">
-        <v>12284.5641</v>
-      </c>
-      <c r="G230" t="n">
-        <v>402914.9182325125</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="C231" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D231" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E231" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="F231" t="n">
-        <v>131539.2197</v>
-      </c>
-      <c r="G231" t="n">
-        <v>534454.1379325124</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C232" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D232" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E232" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2046.1271</v>
-      </c>
-      <c r="G232" t="n">
-        <v>534454.1379325124</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="C233" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="D233" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="E233" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3109.0421</v>
-      </c>
-      <c r="G233" t="n">
-        <v>531345.0958325125</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="C234" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="D234" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="E234" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="F234" t="n">
-        <v>27836.20510174672</v>
-      </c>
-      <c r="G234" t="n">
-        <v>559181.3009342592</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="C235" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D235" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="E235" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F235" t="n">
-        <v>24572.4099</v>
-      </c>
-      <c r="G235" t="n">
-        <v>534608.8910342592</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C236" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="D236" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="E236" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F236" t="n">
-        <v>37</v>
-      </c>
-      <c r="G236" t="n">
-        <v>534645.8910342592</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="C237" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="D237" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E237" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="F237" t="n">
-        <v>21565.2535</v>
-      </c>
-      <c r="G237" t="n">
-        <v>513080.6375342592</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="C238" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="D238" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="E238" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="F238" t="n">
-        <v>37</v>
-      </c>
-      <c r="G238" t="n">
-        <v>513117.6375342592</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.21</v>
+        <v>12.28</v>
       </c>
       <c r="C2" t="n">
-        <v>13.22</v>
+        <v>12.28</v>
       </c>
       <c r="D2" t="n">
-        <v>13.22</v>
+        <v>12.28</v>
       </c>
       <c r="E2" t="n">
-        <v>13.19</v>
+        <v>12.28</v>
       </c>
       <c r="F2" t="n">
-        <v>50642</v>
+        <v>55430.2138</v>
       </c>
       <c r="G2" t="n">
-        <v>22642.03950000014</v>
+        <v>-619255.4744999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="C3" t="n">
-        <v>13.22</v>
+        <v>12.24</v>
       </c>
       <c r="D3" t="n">
-        <v>13.22</v>
+        <v>12.24</v>
       </c>
       <c r="E3" t="n">
-        <v>13.19</v>
+        <v>12.24</v>
       </c>
       <c r="F3" t="n">
-        <v>62603</v>
+        <v>140.9871</v>
       </c>
       <c r="G3" t="n">
-        <v>22642.03950000014</v>
+        <v>-619396.4615999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>13.22</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.22</v>
+        <v>12.29</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22</v>
+        <v>12.36</v>
       </c>
       <c r="D4" t="n">
-        <v>13.22</v>
+        <v>12.36</v>
       </c>
       <c r="E4" t="n">
-        <v>13.22</v>
+        <v>12.29</v>
       </c>
       <c r="F4" t="n">
-        <v>8000</v>
+        <v>55860.2702</v>
       </c>
       <c r="G4" t="n">
-        <v>22642.03950000014</v>
+        <v>-563536.1913999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>13.22</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.22</v>
+        <v>12.37</v>
       </c>
       <c r="C5" t="n">
-        <v>13.44</v>
+        <v>12.44</v>
       </c>
       <c r="D5" t="n">
-        <v>13.44</v>
+        <v>12.44</v>
       </c>
       <c r="E5" t="n">
-        <v>13.22</v>
+        <v>12.37</v>
       </c>
       <c r="F5" t="n">
-        <v>256477.1964</v>
+        <v>36200</v>
       </c>
       <c r="G5" t="n">
-        <v>279119.2359000001</v>
+        <v>-527336.1913999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>13.22</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="C6" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="D6" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="E6" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="F6" t="n">
-        <v>5304</v>
+        <v>144.4156</v>
       </c>
       <c r="G6" t="n">
-        <v>279119.2359000001</v>
+        <v>-527480.6069999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>13.44</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="C7" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="D7" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="E7" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="F7" t="n">
-        <v>21565.2535</v>
+        <v>1053.04</v>
       </c>
       <c r="G7" t="n">
-        <v>279119.2359000001</v>
+        <v>-527480.6069999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -667,11 +643,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -682,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.43</v>
+        <v>12.24</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5</v>
+        <v>12.24</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5</v>
+        <v>12.24</v>
       </c>
       <c r="E8" t="n">
-        <v>13.43</v>
+        <v>12.24</v>
       </c>
       <c r="F8" t="n">
-        <v>385574.4126</v>
+        <v>1.5796</v>
       </c>
       <c r="G8" t="n">
-        <v>664693.6485000001</v>
+        <v>-527480.6069999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -707,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -722,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.52</v>
+        <v>12.12</v>
       </c>
       <c r="C9" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="D9" t="n">
-        <v>13.69</v>
+        <v>12.12</v>
       </c>
       <c r="E9" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="F9" t="n">
-        <v>61387.2739</v>
+        <v>3740.6214</v>
       </c>
       <c r="G9" t="n">
-        <v>664693.6485000001</v>
+        <v>-531221.2283999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -747,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -762,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5</v>
+        <v>12.13</v>
       </c>
       <c r="C10" t="n">
-        <v>13.68</v>
+        <v>12.13</v>
       </c>
       <c r="D10" t="n">
-        <v>13.69</v>
+        <v>12.13</v>
       </c>
       <c r="E10" t="n">
-        <v>13.5</v>
+        <v>12.13</v>
       </c>
       <c r="F10" t="n">
-        <v>117898.0691</v>
+        <v>2666.9899</v>
       </c>
       <c r="G10" t="n">
-        <v>782591.7176000001</v>
+        <v>-528554.2384999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -787,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -802,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="F11" t="n">
-        <v>121810.5145</v>
+        <v>1888.8309</v>
       </c>
       <c r="G11" t="n">
-        <v>660781.2031</v>
+        <v>-530443.0693999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -827,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -842,34 +798,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.66</v>
+        <v>12.21</v>
       </c>
       <c r="C12" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="D12" t="n">
-        <v>13.66</v>
+        <v>12.21</v>
       </c>
       <c r="E12" t="n">
-        <v>13.66</v>
+        <v>12.12</v>
       </c>
       <c r="F12" t="n">
-        <v>25876.6914</v>
+        <v>51066.4262</v>
       </c>
       <c r="G12" t="n">
-        <v>660781.2031</v>
+        <v>-530443.0693999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.12</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -882,30 +840,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.67</v>
+        <v>12.22</v>
       </c>
       <c r="C13" t="n">
-        <v>13.67</v>
+        <v>12.23</v>
       </c>
       <c r="D13" t="n">
-        <v>13.67</v>
+        <v>12.23</v>
       </c>
       <c r="E13" t="n">
-        <v>13.67</v>
+        <v>12.21</v>
       </c>
       <c r="F13" t="n">
-        <v>63710.0416</v>
+        <v>4200</v>
       </c>
       <c r="G13" t="n">
-        <v>724491.2447</v>
+        <v>-526243.0693999997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.12</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -922,30 +882,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="E14" t="n">
-        <v>13.5</v>
+        <v>12.12</v>
       </c>
       <c r="F14" t="n">
-        <v>44926.109</v>
+        <v>429.0539</v>
       </c>
       <c r="G14" t="n">
-        <v>679565.1357</v>
+        <v>-526672.1232999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.23</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -962,30 +924,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.51</v>
+        <v>12.11</v>
       </c>
       <c r="C15" t="n">
-        <v>13.69</v>
+        <v>12.12</v>
       </c>
       <c r="D15" t="n">
-        <v>13.69</v>
+        <v>12.12</v>
       </c>
       <c r="E15" t="n">
-        <v>13.4</v>
+        <v>12.11</v>
       </c>
       <c r="F15" t="n">
-        <v>49655.1256</v>
+        <v>37035</v>
       </c>
       <c r="G15" t="n">
-        <v>729220.2613</v>
+        <v>-526672.1232999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.12</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1002,30 +966,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.69</v>
+        <v>12.12</v>
       </c>
       <c r="C16" t="n">
-        <v>13.69</v>
+        <v>12.24</v>
       </c>
       <c r="D16" t="n">
-        <v>13.69</v>
+        <v>12.24</v>
       </c>
       <c r="E16" t="n">
-        <v>13.69</v>
+        <v>12.12</v>
       </c>
       <c r="F16" t="n">
-        <v>13671.9424</v>
+        <v>17552.5393</v>
       </c>
       <c r="G16" t="n">
-        <v>729220.2613</v>
+        <v>-509119.5839999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.12</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1042,30 +1008,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.69</v>
+        <v>12.11</v>
       </c>
       <c r="C17" t="n">
-        <v>13.84</v>
+        <v>12.1</v>
       </c>
       <c r="D17" t="n">
-        <v>13.84</v>
+        <v>12.11</v>
       </c>
       <c r="E17" t="n">
-        <v>13.69</v>
+        <v>12.1</v>
       </c>
       <c r="F17" t="n">
-        <v>72364.16220000001</v>
+        <v>5630</v>
       </c>
       <c r="G17" t="n">
-        <v>801584.4235</v>
+        <v>-514749.5839999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.24</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1082,30 +1050,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.84</v>
+        <v>12.05</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>12.05</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>12.05</v>
       </c>
       <c r="E18" t="n">
-        <v>13.84</v>
+        <v>12.05</v>
       </c>
       <c r="F18" t="n">
-        <v>283064.1106307857</v>
+        <v>2157</v>
       </c>
       <c r="G18" t="n">
-        <v>1084648.534130786</v>
+        <v>-516906.5839999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1122,30 +1092,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>12.09</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>12.09</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>12.09</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>12.09</v>
       </c>
       <c r="F19" t="n">
-        <v>15623.6632</v>
+        <v>1389.1552</v>
       </c>
       <c r="G19" t="n">
-        <v>1084648.534130786</v>
+        <v>-515517.4287999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.05</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1162,30 +1134,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.9</v>
+        <v>12.06</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>12.06</v>
       </c>
       <c r="E20" t="n">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>26182.9914</v>
+        <v>126375.9501</v>
       </c>
       <c r="G20" t="n">
-        <v>1084648.534130786</v>
+        <v>-641893.3788999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.09</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1202,30 +1176,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>12.12</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>12.12</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>12.12</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>12.12</v>
       </c>
       <c r="F21" t="n">
-        <v>238443.0081</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>1084648.534130786</v>
+        <v>-641851.3788999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1242,30 +1218,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>12.01</v>
       </c>
       <c r="C22" t="n">
-        <v>14.05</v>
+        <v>12.01</v>
       </c>
       <c r="D22" t="n">
-        <v>14.05</v>
+        <v>12.01</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>12.01</v>
       </c>
       <c r="F22" t="n">
-        <v>196579.9747692143</v>
+        <v>67051.8104</v>
       </c>
       <c r="G22" t="n">
-        <v>1281228.5089</v>
+        <v>-708903.1892999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.12</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1282,30 +1260,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>12.01</v>
       </c>
       <c r="C23" t="n">
-        <v>13.52</v>
+        <v>12.01</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>12.01</v>
       </c>
       <c r="E23" t="n">
-        <v>13.52</v>
+        <v>12.01</v>
       </c>
       <c r="F23" t="n">
-        <v>127904.4482</v>
+        <v>17948.1896</v>
       </c>
       <c r="G23" t="n">
-        <v>1153324.0607</v>
+        <v>-708903.1892999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.01</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1322,30 +1302,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.86</v>
+        <v>12.05</v>
       </c>
       <c r="C24" t="n">
-        <v>13.86</v>
+        <v>12.05</v>
       </c>
       <c r="D24" t="n">
-        <v>13.86</v>
+        <v>12.05</v>
       </c>
       <c r="E24" t="n">
-        <v>13.86</v>
+        <v>12.05</v>
       </c>
       <c r="F24" t="n">
-        <v>18372.2658</v>
+        <v>4559.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1171696.3265</v>
+        <v>-704343.5192999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.01</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1362,30 +1344,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.74</v>
+        <v>12.21</v>
       </c>
       <c r="C25" t="n">
-        <v>13.52</v>
+        <v>12.21</v>
       </c>
       <c r="D25" t="n">
-        <v>13.74</v>
+        <v>12.21</v>
       </c>
       <c r="E25" t="n">
-        <v>13.52</v>
+        <v>12.21</v>
       </c>
       <c r="F25" t="n">
-        <v>9957.9519</v>
+        <v>41</v>
       </c>
       <c r="G25" t="n">
-        <v>1161738.3746</v>
+        <v>-704302.5192999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.05</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1402,30 +1386,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.51</v>
+        <v>12.23</v>
       </c>
       <c r="C26" t="n">
-        <v>13.55</v>
+        <v>12.23</v>
       </c>
       <c r="D26" t="n">
-        <v>13.65</v>
+        <v>12.23</v>
       </c>
       <c r="E26" t="n">
-        <v>13.42</v>
+        <v>12.23</v>
       </c>
       <c r="F26" t="n">
-        <v>77886.0336</v>
+        <v>24370.311</v>
       </c>
       <c r="G26" t="n">
-        <v>1239624.4082</v>
+        <v>-679932.2082999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.21</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1442,30 +1428,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.5</v>
+        <v>12.05</v>
       </c>
       <c r="C27" t="n">
-        <v>13.52</v>
+        <v>12.05</v>
       </c>
       <c r="D27" t="n">
-        <v>13.52</v>
+        <v>12.05</v>
       </c>
       <c r="E27" t="n">
-        <v>13.46</v>
+        <v>12.05</v>
       </c>
       <c r="F27" t="n">
-        <v>102792.7216</v>
+        <v>1979.56</v>
       </c>
       <c r="G27" t="n">
-        <v>1136831.6866</v>
+        <v>-681911.7682999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.23</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1482,30 +1470,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.55</v>
+        <v>12.06</v>
       </c>
       <c r="C28" t="n">
-        <v>13.6</v>
+        <v>12.05</v>
       </c>
       <c r="D28" t="n">
-        <v>13.6</v>
+        <v>12.06</v>
       </c>
       <c r="E28" t="n">
-        <v>13.55</v>
+        <v>12.05</v>
       </c>
       <c r="F28" t="n">
-        <v>9392.5797</v>
+        <v>3743.3661</v>
       </c>
       <c r="G28" t="n">
-        <v>1146224.2663</v>
+        <v>-681911.7682999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.05</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1522,30 +1512,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.63</v>
+        <v>12.05</v>
       </c>
       <c r="C29" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>13.63</v>
+        <v>12.15</v>
       </c>
       <c r="E29" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>3050</v>
+        <v>23771.3222</v>
       </c>
       <c r="G29" t="n">
-        <v>1149274.2663</v>
+        <v>-705683.0904999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.05</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1562,30 +1554,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="E30" t="n">
-        <v>13.63</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>3050</v>
+        <v>2356.4922</v>
       </c>
       <c r="G30" t="n">
-        <v>1149274.2663</v>
+        <v>-705683.0904999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1602,30 +1596,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.62</v>
+        <v>11.9</v>
       </c>
       <c r="C31" t="n">
-        <v>13.68</v>
+        <v>11.9</v>
       </c>
       <c r="D31" t="n">
-        <v>13.68</v>
+        <v>11.9</v>
       </c>
       <c r="E31" t="n">
-        <v>13.53</v>
+        <v>11.9</v>
       </c>
       <c r="F31" t="n">
-        <v>79109.432</v>
+        <v>31092.437</v>
       </c>
       <c r="G31" t="n">
-        <v>1228383.6983</v>
+        <v>-705683.0904999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1642,30 +1638,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.51</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>13.51</v>
+        <v>11.9</v>
       </c>
       <c r="D32" t="n">
-        <v>13.51</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>13.51</v>
+        <v>11.9</v>
       </c>
       <c r="F32" t="n">
-        <v>4539.0579</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="n">
-        <v>1223844.6404</v>
+        <v>-705683.0904999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1682,30 +1680,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.51</v>
+        <v>11.93</v>
       </c>
       <c r="C33" t="n">
-        <v>13.51</v>
+        <v>12.04</v>
       </c>
       <c r="D33" t="n">
-        <v>13.51</v>
+        <v>12.04</v>
       </c>
       <c r="E33" t="n">
-        <v>13.51</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>4530</v>
+        <v>427302.6312</v>
       </c>
       <c r="G33" t="n">
-        <v>1223844.6404</v>
+        <v>-278380.4592999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1722,22 +1722,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.56</v>
+        <v>12.1</v>
       </c>
       <c r="C34" t="n">
-        <v>13.51</v>
+        <v>12.1</v>
       </c>
       <c r="D34" t="n">
-        <v>13.56</v>
+        <v>12.1</v>
       </c>
       <c r="E34" t="n">
-        <v>13.51</v>
+        <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>12307.8943</v>
+        <v>960</v>
       </c>
       <c r="G34" t="n">
-        <v>1223844.6404</v>
+        <v>-277420.4592999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.47</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>13.47</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>13.47</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>13.47</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>2650</v>
+        <v>2770.1415</v>
       </c>
       <c r="G35" t="n">
-        <v>1221194.6404</v>
+        <v>-280190.6007999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1802,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.37</v>
+        <v>12.12</v>
       </c>
       <c r="C36" t="n">
-        <v>13.39</v>
+        <v>12.23</v>
       </c>
       <c r="D36" t="n">
-        <v>13.39</v>
+        <v>12.23</v>
       </c>
       <c r="E36" t="n">
-        <v>13.31</v>
+        <v>12.12</v>
       </c>
       <c r="F36" t="n">
-        <v>60743.9123</v>
+        <v>72071.352</v>
       </c>
       <c r="G36" t="n">
-        <v>1160450.7281</v>
+        <v>-208119.2487999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.39</v>
+        <v>12.23</v>
       </c>
       <c r="C37" t="n">
-        <v>13.49</v>
+        <v>12.23</v>
       </c>
       <c r="D37" t="n">
-        <v>13.49</v>
+        <v>12.23</v>
       </c>
       <c r="E37" t="n">
-        <v>13.39</v>
+        <v>12.23</v>
       </c>
       <c r="F37" t="n">
-        <v>8918</v>
+        <v>2364</v>
       </c>
       <c r="G37" t="n">
-        <v>1169368.7281</v>
+        <v>-208119.2487999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.32</v>
+        <v>12.23</v>
       </c>
       <c r="C38" t="n">
-        <v>13.49</v>
+        <v>12.23</v>
       </c>
       <c r="D38" t="n">
-        <v>13.49</v>
+        <v>12.23</v>
       </c>
       <c r="E38" t="n">
-        <v>13.31</v>
+        <v>12.23</v>
       </c>
       <c r="F38" t="n">
-        <v>37885.8897</v>
+        <v>27492.4867</v>
       </c>
       <c r="G38" t="n">
-        <v>1169368.7281</v>
+        <v>-208119.2487999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.35</v>
+        <v>12.24</v>
       </c>
       <c r="C39" t="n">
-        <v>13.03</v>
+        <v>12.23</v>
       </c>
       <c r="D39" t="n">
-        <v>13.35</v>
+        <v>12.24</v>
       </c>
       <c r="E39" t="n">
-        <v>13.03</v>
+        <v>12.23</v>
       </c>
       <c r="F39" t="n">
-        <v>339885.0329</v>
+        <v>25823.4293</v>
       </c>
       <c r="G39" t="n">
-        <v>829483.6952</v>
+        <v>-208119.2487999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1962,22 +1962,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.03</v>
+        <v>12.23</v>
       </c>
       <c r="C40" t="n">
-        <v>13.38</v>
+        <v>12.24</v>
       </c>
       <c r="D40" t="n">
-        <v>13.4</v>
+        <v>12.24</v>
       </c>
       <c r="E40" t="n">
-        <v>13.03</v>
+        <v>12.23</v>
       </c>
       <c r="F40" t="n">
-        <v>31946.9479</v>
+        <v>7875.4875</v>
       </c>
       <c r="G40" t="n">
-        <v>861430.6431</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.32</v>
+        <v>12.24</v>
       </c>
       <c r="C41" t="n">
-        <v>13.3</v>
+        <v>12.24</v>
       </c>
       <c r="D41" t="n">
-        <v>13.32</v>
+        <v>12.24</v>
       </c>
       <c r="E41" t="n">
-        <v>13.3</v>
+        <v>12.24</v>
       </c>
       <c r="F41" t="n">
-        <v>5162.5565</v>
+        <v>29920.9762</v>
       </c>
       <c r="G41" t="n">
-        <v>856268.0866</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2042,22 +2042,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.3</v>
+        <v>12.24</v>
       </c>
       <c r="C42" t="n">
-        <v>13.39</v>
+        <v>12.24</v>
       </c>
       <c r="D42" t="n">
-        <v>13.47</v>
+        <v>12.24</v>
       </c>
       <c r="E42" t="n">
-        <v>13.3</v>
+        <v>12.24</v>
       </c>
       <c r="F42" t="n">
-        <v>61940.6242</v>
+        <v>33191.4146</v>
       </c>
       <c r="G42" t="n">
-        <v>918208.7108</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2082,22 +2082,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.36</v>
+        <v>12.24</v>
       </c>
       <c r="C43" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="D43" t="n">
-        <v>13.36</v>
+        <v>12.24</v>
       </c>
       <c r="E43" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="F43" t="n">
-        <v>1955.7116</v>
+        <v>30660.3143</v>
       </c>
       <c r="G43" t="n">
-        <v>916252.9992</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2122,22 +2122,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="C44" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="D44" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="E44" t="n">
-        <v>13.2</v>
+        <v>12.24</v>
       </c>
       <c r="F44" t="n">
-        <v>75157.3251</v>
+        <v>50051.7864</v>
       </c>
       <c r="G44" t="n">
-        <v>916252.9992</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.2</v>
+        <v>12.24</v>
       </c>
       <c r="C45" t="n">
-        <v>13.18</v>
+        <v>12.24</v>
       </c>
       <c r="D45" t="n">
-        <v>13.21</v>
+        <v>12.24</v>
       </c>
       <c r="E45" t="n">
-        <v>13.18</v>
+        <v>12.24</v>
       </c>
       <c r="F45" t="n">
-        <v>22582</v>
+        <v>2534.3202</v>
       </c>
       <c r="G45" t="n">
-        <v>893670.9992</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.08</v>
+        <v>12.24</v>
       </c>
       <c r="C46" t="n">
-        <v>13.08</v>
+        <v>12.24</v>
       </c>
       <c r="D46" t="n">
-        <v>13.13</v>
+        <v>12.24</v>
       </c>
       <c r="E46" t="n">
-        <v>13.08</v>
+        <v>12.24</v>
       </c>
       <c r="F46" t="n">
-        <v>10539.4023</v>
+        <v>3799</v>
       </c>
       <c r="G46" t="n">
-        <v>883131.5969</v>
+        <v>-200243.7612999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.08</v>
+        <v>12.24</v>
       </c>
       <c r="C47" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="D47" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="E47" t="n">
-        <v>13.08</v>
+        <v>12.24</v>
       </c>
       <c r="F47" t="n">
-        <v>1488.9127</v>
+        <v>16841.9551</v>
       </c>
       <c r="G47" t="n">
-        <v>883131.5969</v>
+        <v>-183401.8061999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="C48" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="D48" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="E48" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1935.5865</v>
+        <v>87418.0316</v>
       </c>
       <c r="G48" t="n">
-        <v>883131.5969</v>
+        <v>-183401.8061999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2322,22 +2322,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="C49" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="D49" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="E49" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="F49" t="n">
-        <v>11448.0012</v>
+        <v>7588.7766</v>
       </c>
       <c r="G49" t="n">
-        <v>871683.5956999999</v>
+        <v>-183401.8061999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.07</v>
+        <v>12.29</v>
       </c>
       <c r="C50" t="n">
-        <v>13.07</v>
+        <v>12.29</v>
       </c>
       <c r="D50" t="n">
-        <v>13.07</v>
+        <v>12.29</v>
       </c>
       <c r="E50" t="n">
-        <v>13.07</v>
+        <v>12.29</v>
       </c>
       <c r="F50" t="n">
-        <v>11448.0775</v>
+        <v>50000</v>
       </c>
       <c r="G50" t="n">
-        <v>871683.5956999999</v>
+        <v>-233401.8061999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="C51" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="D51" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="E51" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="F51" t="n">
-        <v>10008.9151</v>
+        <v>26231.8695</v>
       </c>
       <c r="G51" t="n">
-        <v>881692.5107999999</v>
+        <v>-207169.9366999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.08</v>
+        <v>12.3</v>
       </c>
       <c r="C52" t="n">
-        <v>13.13</v>
+        <v>12.3</v>
       </c>
       <c r="D52" t="n">
-        <v>13.14</v>
+        <v>12.3</v>
       </c>
       <c r="E52" t="n">
-        <v>13.07</v>
+        <v>12.3</v>
       </c>
       <c r="F52" t="n">
-        <v>46062</v>
+        <v>65559</v>
       </c>
       <c r="G52" t="n">
-        <v>927754.5107999999</v>
+        <v>-207169.9366999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2482,22 +2482,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.13</v>
+        <v>12.3</v>
       </c>
       <c r="C53" t="n">
-        <v>13.13</v>
+        <v>12.3</v>
       </c>
       <c r="D53" t="n">
-        <v>13.13</v>
+        <v>12.3</v>
       </c>
       <c r="E53" t="n">
-        <v>13.13</v>
+        <v>12.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1454</v>
+        <v>870</v>
       </c>
       <c r="G53" t="n">
-        <v>927754.5107999999</v>
+        <v>-207169.9366999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2522,22 +2522,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.12</v>
+        <v>12.29</v>
       </c>
       <c r="C54" t="n">
-        <v>13.15</v>
+        <v>12.29</v>
       </c>
       <c r="D54" t="n">
-        <v>13.15</v>
+        <v>12.29</v>
       </c>
       <c r="E54" t="n">
-        <v>13.12</v>
+        <v>12.29</v>
       </c>
       <c r="F54" t="n">
-        <v>7722.043</v>
+        <v>13852.3268</v>
       </c>
       <c r="G54" t="n">
-        <v>935476.5537999999</v>
+        <v>-221022.2634999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.05</v>
+        <v>12.29</v>
       </c>
       <c r="C55" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="D55" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="E55" t="n">
-        <v>13.05</v>
+        <v>12.29</v>
       </c>
       <c r="F55" t="n">
-        <v>46268</v>
+        <v>40774</v>
       </c>
       <c r="G55" t="n">
-        <v>981744.5537999999</v>
+        <v>-180248.2634999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="C56" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="D56" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="E56" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="F56" t="n">
-        <v>931</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="n">
-        <v>981744.5537999999</v>
+        <v>-180248.2634999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="C57" t="n">
-        <v>13.27</v>
+        <v>12.3</v>
       </c>
       <c r="D57" t="n">
-        <v>13.27</v>
+        <v>12.3</v>
       </c>
       <c r="E57" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="F57" t="n">
-        <v>6008.3114</v>
+        <v>201001.2095</v>
       </c>
       <c r="G57" t="n">
-        <v>987752.8651999999</v>
+        <v>-180248.2634999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="C58" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D58" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="E58" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="F58" t="n">
-        <v>555.8056</v>
+        <v>114862.3739</v>
       </c>
       <c r="G58" t="n">
-        <v>987197.0595999999</v>
+        <v>-180248.2634999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2722,22 +2722,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="C59" t="n">
-        <v>13.16</v>
+        <v>12.46</v>
       </c>
       <c r="D59" t="n">
-        <v>13.16</v>
+        <v>12.46</v>
       </c>
       <c r="E59" t="n">
-        <v>13.16</v>
+        <v>12.3</v>
       </c>
       <c r="F59" t="n">
-        <v>2656.231003039514</v>
+        <v>3672</v>
       </c>
       <c r="G59" t="n">
-        <v>989853.2906030394</v>
+        <v>-176576.2634999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2762,22 +2762,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.1</v>
+        <v>12.46</v>
       </c>
       <c r="C60" t="n">
-        <v>13.1</v>
+        <v>12.46</v>
       </c>
       <c r="D60" t="n">
-        <v>13.1</v>
+        <v>12.46</v>
       </c>
       <c r="E60" t="n">
-        <v>13.1</v>
+        <v>12.46</v>
       </c>
       <c r="F60" t="n">
-        <v>590.9709</v>
+        <v>6740.7335</v>
       </c>
       <c r="G60" t="n">
-        <v>989262.3197030395</v>
+        <v>-176576.2634999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2802,22 +2802,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.01</v>
+        <v>12.47</v>
       </c>
       <c r="C61" t="n">
-        <v>13.05</v>
+        <v>12.47</v>
       </c>
       <c r="D61" t="n">
-        <v>13.05</v>
+        <v>12.47</v>
       </c>
       <c r="E61" t="n">
-        <v>13.01</v>
+        <v>12.47</v>
       </c>
       <c r="F61" t="n">
-        <v>14936.3623</v>
+        <v>22479.4023</v>
       </c>
       <c r="G61" t="n">
-        <v>974325.9574030394</v>
+        <v>-154096.8611999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.93</v>
+        <v>12.47</v>
       </c>
       <c r="C62" t="n">
-        <v>12.93</v>
+        <v>12.69</v>
       </c>
       <c r="D62" t="n">
-        <v>12.93</v>
+        <v>12.69</v>
       </c>
       <c r="E62" t="n">
-        <v>12.93</v>
+        <v>12.47</v>
       </c>
       <c r="F62" t="n">
-        <v>603.7968</v>
+        <v>6017.0173</v>
       </c>
       <c r="G62" t="n">
-        <v>973722.1606030394</v>
+        <v>-148079.8438999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2882,22 +2882,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.82</v>
+        <v>12.69</v>
       </c>
       <c r="C63" t="n">
-        <v>12.82</v>
+        <v>12.86</v>
       </c>
       <c r="D63" t="n">
-        <v>12.82</v>
+        <v>12.86</v>
       </c>
       <c r="E63" t="n">
-        <v>12.82</v>
+        <v>12.69</v>
       </c>
       <c r="F63" t="n">
-        <v>2335</v>
+        <v>78244.2749</v>
       </c>
       <c r="G63" t="n">
-        <v>971387.1606030394</v>
+        <v>-69835.56899999986</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.94</v>
+        <v>12.86</v>
       </c>
       <c r="C64" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="D64" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="E64" t="n">
-        <v>12.94</v>
+        <v>12.86</v>
       </c>
       <c r="F64" t="n">
-        <v>3500</v>
+        <v>26430.9973</v>
       </c>
       <c r="G64" t="n">
-        <v>974887.1606030394</v>
+        <v>-43404.57169999985</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="C65" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="D65" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="E65" t="n">
-        <v>12.94</v>
+        <v>12.87</v>
       </c>
       <c r="F65" t="n">
-        <v>420</v>
+        <v>14000</v>
       </c>
       <c r="G65" t="n">
-        <v>974887.1606030394</v>
+        <v>-43404.57169999985</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3002,22 +3002,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.95</v>
+        <v>12.87</v>
       </c>
       <c r="C66" t="n">
-        <v>12.95</v>
+        <v>12.87</v>
       </c>
       <c r="D66" t="n">
-        <v>12.95</v>
+        <v>12.87</v>
       </c>
       <c r="E66" t="n">
-        <v>12.95</v>
+        <v>12.87</v>
       </c>
       <c r="F66" t="n">
-        <v>2709.9999</v>
+        <v>15527.8186</v>
       </c>
       <c r="G66" t="n">
-        <v>977597.1605030395</v>
+        <v>-43404.57169999985</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3042,22 +3042,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.9</v>
+        <v>12.87</v>
       </c>
       <c r="C67" t="n">
-        <v>12.88</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>12.88</v>
+        <v>12.87</v>
       </c>
       <c r="F67" t="n">
-        <v>11586.9424</v>
+        <v>8399.709800000001</v>
       </c>
       <c r="G67" t="n">
-        <v>966010.2181030395</v>
+        <v>-35004.86189999986</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.89</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>12.94</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
-        <v>12.94</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>12.89</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>5727.7183</v>
+        <v>169409.3070144522</v>
       </c>
       <c r="G68" t="n">
-        <v>971737.9364030395</v>
+        <v>-35004.86189999986</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3122,22 +3122,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.98</v>
+        <v>13.08</v>
       </c>
       <c r="C69" t="n">
-        <v>13.02</v>
+        <v>13.1</v>
       </c>
       <c r="D69" t="n">
-        <v>13.02</v>
+        <v>13.1</v>
       </c>
       <c r="E69" t="n">
-        <v>12.98</v>
+        <v>13.08</v>
       </c>
       <c r="F69" t="n">
-        <v>38800</v>
+        <v>3004.9014</v>
       </c>
       <c r="G69" t="n">
-        <v>1010537.936403039</v>
+        <v>-31999.96049999986</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3162,22 +3162,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.03</v>
+        <v>13.1</v>
       </c>
       <c r="C70" t="n">
-        <v>13.04</v>
+        <v>13.1</v>
       </c>
       <c r="D70" t="n">
-        <v>13.04</v>
+        <v>13.1</v>
       </c>
       <c r="E70" t="n">
-        <v>13.03</v>
+        <v>13.1</v>
       </c>
       <c r="F70" t="n">
-        <v>19400</v>
+        <v>112271.0655</v>
       </c>
       <c r="G70" t="n">
-        <v>1029937.936403039</v>
+        <v>-31999.96049999986</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3202,22 +3202,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.04</v>
+        <v>13.18</v>
       </c>
       <c r="C71" t="n">
-        <v>13.04</v>
+        <v>13.21</v>
       </c>
       <c r="D71" t="n">
-        <v>13.04</v>
+        <v>13.21</v>
       </c>
       <c r="E71" t="n">
-        <v>13.04</v>
+        <v>13.18</v>
       </c>
       <c r="F71" t="n">
-        <v>6171.8201</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="n">
-        <v>1029937.936403039</v>
+        <v>-27999.96049999986</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3242,22 +3242,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.04</v>
+        <v>13.21</v>
       </c>
       <c r="C72" t="n">
-        <v>13.08</v>
+        <v>13.21</v>
       </c>
       <c r="D72" t="n">
-        <v>13.08</v>
+        <v>13.21</v>
       </c>
       <c r="E72" t="n">
-        <v>13.04</v>
+        <v>13.21</v>
       </c>
       <c r="F72" t="n">
-        <v>5586.676</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>1035524.612403039</v>
+        <v>-27999.96049999986</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.08</v>
+        <v>13.21</v>
       </c>
       <c r="C73" t="n">
-        <v>13.08</v>
+        <v>13.22</v>
       </c>
       <c r="D73" t="n">
-        <v>13.08</v>
+        <v>13.22</v>
       </c>
       <c r="E73" t="n">
-        <v>13.08</v>
+        <v>13.19</v>
       </c>
       <c r="F73" t="n">
-        <v>5015.5046</v>
+        <v>50642</v>
       </c>
       <c r="G73" t="n">
-        <v>1035524.612403039</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3322,22 +3322,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.07</v>
+        <v>13.21</v>
       </c>
       <c r="C74" t="n">
-        <v>13.17</v>
+        <v>13.22</v>
       </c>
       <c r="D74" t="n">
-        <v>13.17</v>
+        <v>13.22</v>
       </c>
       <c r="E74" t="n">
-        <v>13.07</v>
+        <v>13.19</v>
       </c>
       <c r="F74" t="n">
-        <v>26000</v>
+        <v>62603</v>
       </c>
       <c r="G74" t="n">
-        <v>1061524.612403039</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3362,22 +3362,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.2</v>
+        <v>13.22</v>
       </c>
       <c r="C75" t="n">
-        <v>13.31</v>
+        <v>13.22</v>
       </c>
       <c r="D75" t="n">
-        <v>13.31</v>
+        <v>13.22</v>
       </c>
       <c r="E75" t="n">
-        <v>13.2</v>
+        <v>13.22</v>
       </c>
       <c r="F75" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="G75" t="n">
-        <v>1074524.612403039</v>
+        <v>22642.03950000014</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3402,22 +3402,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.29</v>
+        <v>13.22</v>
       </c>
       <c r="C76" t="n">
-        <v>13.29</v>
+        <v>13.44</v>
       </c>
       <c r="D76" t="n">
-        <v>13.29</v>
+        <v>13.44</v>
       </c>
       <c r="E76" t="n">
-        <v>13.29</v>
+        <v>13.22</v>
       </c>
       <c r="F76" t="n">
-        <v>12726.9456</v>
+        <v>256477.1964</v>
       </c>
       <c r="G76" t="n">
-        <v>1061797.666803039</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3442,22 +3442,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.22</v>
+        <v>13.44</v>
       </c>
       <c r="C77" t="n">
-        <v>13.22</v>
+        <v>13.44</v>
       </c>
       <c r="D77" t="n">
-        <v>13.22</v>
+        <v>13.44</v>
       </c>
       <c r="E77" t="n">
-        <v>13.22</v>
+        <v>13.44</v>
       </c>
       <c r="F77" t="n">
-        <v>872.8262</v>
+        <v>5304</v>
       </c>
       <c r="G77" t="n">
-        <v>1060924.840603039</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3482,22 +3482,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.15</v>
+        <v>13.44</v>
       </c>
       <c r="C78" t="n">
-        <v>13.15</v>
+        <v>13.44</v>
       </c>
       <c r="D78" t="n">
-        <v>13.15</v>
+        <v>13.44</v>
       </c>
       <c r="E78" t="n">
-        <v>13.15</v>
+        <v>13.44</v>
       </c>
       <c r="F78" t="n">
-        <v>11854.1194</v>
+        <v>21565.2535</v>
       </c>
       <c r="G78" t="n">
-        <v>1049070.721203039</v>
+        <v>279119.2359000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3522,22 +3522,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.22</v>
+        <v>13.43</v>
       </c>
       <c r="C79" t="n">
-        <v>13.37</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.37</v>
+        <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.22</v>
+        <v>13.43</v>
       </c>
       <c r="F79" t="n">
-        <v>2999</v>
+        <v>385574.4126</v>
       </c>
       <c r="G79" t="n">
-        <v>1052069.721203039</v>
+        <v>664693.6485000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3562,22 +3562,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.39</v>
+        <v>13.52</v>
       </c>
       <c r="C80" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D80" t="n">
-        <v>13.4</v>
+        <v>13.69</v>
       </c>
       <c r="E80" t="n">
-        <v>13.39</v>
+        <v>13.5</v>
       </c>
       <c r="F80" t="n">
-        <v>76</v>
+        <v>61387.2739</v>
       </c>
       <c r="G80" t="n">
-        <v>1052145.721203039</v>
+        <v>664693.6485000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.24</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13.35</v>
+        <v>13.68</v>
       </c>
       <c r="D81" t="n">
-        <v>13.35</v>
+        <v>13.69</v>
       </c>
       <c r="E81" t="n">
-        <v>13.23</v>
+        <v>13.5</v>
       </c>
       <c r="F81" t="n">
-        <v>2694.231</v>
+        <v>117898.0691</v>
       </c>
       <c r="G81" t="n">
-        <v>1049451.490203039</v>
+        <v>782591.7176000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.37</v>
+        <v>13.66</v>
       </c>
       <c r="C82" t="n">
-        <v>13.37</v>
+        <v>13.66</v>
       </c>
       <c r="D82" t="n">
-        <v>13.37</v>
+        <v>13.66</v>
       </c>
       <c r="E82" t="n">
-        <v>13.37</v>
+        <v>13.66</v>
       </c>
       <c r="F82" t="n">
-        <v>38</v>
+        <v>121810.5145</v>
       </c>
       <c r="G82" t="n">
-        <v>1049489.490203039</v>
+        <v>660781.2031</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3682,22 +3682,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.39</v>
+        <v>13.66</v>
       </c>
       <c r="C83" t="n">
-        <v>13.39</v>
+        <v>13.66</v>
       </c>
       <c r="D83" t="n">
-        <v>13.39</v>
+        <v>13.66</v>
       </c>
       <c r="E83" t="n">
-        <v>13.39</v>
+        <v>13.66</v>
       </c>
       <c r="F83" t="n">
-        <v>38</v>
+        <v>25876.6914</v>
       </c>
       <c r="G83" t="n">
-        <v>1049527.490203039</v>
+        <v>660781.2031</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3722,22 +3722,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.38</v>
+        <v>13.67</v>
       </c>
       <c r="C84" t="n">
-        <v>13.38</v>
+        <v>13.67</v>
       </c>
       <c r="D84" t="n">
-        <v>13.38</v>
+        <v>13.67</v>
       </c>
       <c r="E84" t="n">
-        <v>13.38</v>
+        <v>13.67</v>
       </c>
       <c r="F84" t="n">
-        <v>2714.4109</v>
+        <v>63710.0416</v>
       </c>
       <c r="G84" t="n">
-        <v>1046813.079303039</v>
+        <v>724491.2447</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3762,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.38</v>
+        <v>13.5</v>
       </c>
       <c r="C85" t="n">
-        <v>14.02</v>
+        <v>13.5</v>
       </c>
       <c r="D85" t="n">
-        <v>14.03</v>
+        <v>13.5</v>
       </c>
       <c r="E85" t="n">
-        <v>13.38</v>
+        <v>13.5</v>
       </c>
       <c r="F85" t="n">
-        <v>113941.4686</v>
+        <v>44926.109</v>
       </c>
       <c r="G85" t="n">
-        <v>1160754.547903039</v>
+        <v>679565.1357</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3802,22 +3802,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>13.51</v>
       </c>
       <c r="C86" t="n">
-        <v>14.01</v>
+        <v>13.69</v>
       </c>
       <c r="D86" t="n">
-        <v>14.01</v>
+        <v>13.69</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="F86" t="n">
-        <v>15708.77944325482</v>
+        <v>49655.1256</v>
       </c>
       <c r="G86" t="n">
-        <v>1145045.768459785</v>
+        <v>729220.2613</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3842,22 +3842,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="C87" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="D87" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="E87" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="F87" t="n">
-        <v>2196.9696</v>
+        <v>13671.9424</v>
       </c>
       <c r="G87" t="n">
-        <v>1142848.798859785</v>
+        <v>729220.2613</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3882,22 +3882,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="C88" t="n">
-        <v>13.82</v>
+        <v>13.84</v>
       </c>
       <c r="D88" t="n">
-        <v>13.82</v>
+        <v>13.84</v>
       </c>
       <c r="E88" t="n">
-        <v>13.82</v>
+        <v>13.69</v>
       </c>
       <c r="F88" t="n">
-        <v>104.2137</v>
+        <v>72364.16220000001</v>
       </c>
       <c r="G88" t="n">
-        <v>1142848.798859785</v>
+        <v>801584.4235</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3922,22 +3922,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.7</v>
+        <v>13.84</v>
       </c>
       <c r="C89" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>13.7</v>
+        <v>13.84</v>
       </c>
       <c r="F89" t="n">
-        <v>16000</v>
+        <v>283064.1106307857</v>
       </c>
       <c r="G89" t="n">
-        <v>1126848.798859785</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3962,22 +3962,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.82</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>13.82</v>
+        <v>14</v>
       </c>
       <c r="F90" t="n">
-        <v>126261.2504</v>
+        <v>15623.6632</v>
       </c>
       <c r="G90" t="n">
-        <v>1253110.049259785</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C91" t="n">
-        <v>14.21</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>14.21</v>
+        <v>14</v>
       </c>
       <c r="E91" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F91" t="n">
-        <v>62460.2234</v>
+        <v>26182.9914</v>
       </c>
       <c r="G91" t="n">
-        <v>1315570.272659785</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4042,22 +4042,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.21</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>14.21</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>127932.9764</v>
+        <v>238443.0081</v>
       </c>
       <c r="G92" t="n">
-        <v>1443503.249059785</v>
+        <v>1084648.534130786</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4082,22 +4082,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.22</v>
+        <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>14.15</v>
+        <v>14.05</v>
       </c>
       <c r="D93" t="n">
-        <v>14.28</v>
+        <v>14.05</v>
       </c>
       <c r="E93" t="n">
-        <v>13.91</v>
+        <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>195526.6981</v>
+        <v>196579.9747692143</v>
       </c>
       <c r="G93" t="n">
-        <v>1247976.550959785</v>
+        <v>1281228.5089</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4122,37 +4122,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.15</v>
+        <v>14</v>
       </c>
       <c r="C94" t="n">
-        <v>14.3</v>
+        <v>13.52</v>
       </c>
       <c r="D94" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>14.15</v>
+        <v>13.52</v>
       </c>
       <c r="F94" t="n">
-        <v>16516</v>
+        <v>127904.4482</v>
       </c>
       <c r="G94" t="n">
-        <v>1264492.550959785</v>
+        <v>1153324.0607</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4160,32 +4162,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.3</v>
+        <v>13.86</v>
       </c>
       <c r="C95" t="n">
-        <v>14.3</v>
+        <v>13.86</v>
       </c>
       <c r="D95" t="n">
-        <v>14.3</v>
+        <v>13.86</v>
       </c>
       <c r="E95" t="n">
-        <v>14.3</v>
+        <v>13.86</v>
       </c>
       <c r="F95" t="n">
-        <v>7420.0277</v>
+        <v>18372.2658</v>
       </c>
       <c r="G95" t="n">
-        <v>1264492.550959785</v>
+        <v>1171696.3265</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4196,32 +4202,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.3</v>
+        <v>13.74</v>
       </c>
       <c r="C96" t="n">
-        <v>14.3</v>
+        <v>13.52</v>
       </c>
       <c r="D96" t="n">
-        <v>14.3</v>
+        <v>13.74</v>
       </c>
       <c r="E96" t="n">
-        <v>14.3</v>
+        <v>13.52</v>
       </c>
       <c r="F96" t="n">
-        <v>27511.466</v>
+        <v>9957.9519</v>
       </c>
       <c r="G96" t="n">
-        <v>1264492.550959785</v>
+        <v>1161738.3746</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4232,32 +4242,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.37</v>
+        <v>13.51</v>
       </c>
       <c r="C97" t="n">
-        <v>14.4</v>
+        <v>13.55</v>
       </c>
       <c r="D97" t="n">
-        <v>14.4</v>
+        <v>13.65</v>
       </c>
       <c r="E97" t="n">
-        <v>14.37</v>
+        <v>13.42</v>
       </c>
       <c r="F97" t="n">
-        <v>136247.7294</v>
+        <v>77886.0336</v>
       </c>
       <c r="G97" t="n">
-        <v>1400740.280359785</v>
+        <v>1239624.4082</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4268,32 +4282,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.41</v>
+        <v>13.5</v>
       </c>
       <c r="C98" t="n">
-        <v>14.21</v>
+        <v>13.52</v>
       </c>
       <c r="D98" t="n">
-        <v>14.41</v>
+        <v>13.52</v>
       </c>
       <c r="E98" t="n">
-        <v>14.21</v>
+        <v>13.46</v>
       </c>
       <c r="F98" t="n">
-        <v>5238.9439</v>
+        <v>102792.7216</v>
       </c>
       <c r="G98" t="n">
-        <v>1395501.336459785</v>
+        <v>1136831.6866</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4304,32 +4322,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.1</v>
+        <v>13.55</v>
       </c>
       <c r="C99" t="n">
-        <v>13.93</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>14.23</v>
+        <v>13.6</v>
       </c>
       <c r="E99" t="n">
-        <v>13.93</v>
+        <v>13.55</v>
       </c>
       <c r="F99" t="n">
-        <v>117085.405</v>
+        <v>9392.5797</v>
       </c>
       <c r="G99" t="n">
-        <v>1278415.931459785</v>
+        <v>1146224.2663</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4340,32 +4362,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.99</v>
+        <v>13.63</v>
       </c>
       <c r="C100" t="n">
-        <v>14.07</v>
+        <v>13.63</v>
       </c>
       <c r="D100" t="n">
-        <v>14.27</v>
+        <v>13.63</v>
       </c>
       <c r="E100" t="n">
-        <v>13.99</v>
+        <v>13.63</v>
       </c>
       <c r="F100" t="n">
-        <v>177837.571</v>
+        <v>3050</v>
       </c>
       <c r="G100" t="n">
-        <v>1456253.502459785</v>
+        <v>1149274.2663</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4376,32 +4402,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.08</v>
+        <v>13.63</v>
       </c>
       <c r="C101" t="n">
-        <v>14.08</v>
+        <v>13.63</v>
       </c>
       <c r="D101" t="n">
-        <v>14.08</v>
+        <v>13.63</v>
       </c>
       <c r="E101" t="n">
-        <v>14.08</v>
+        <v>13.63</v>
       </c>
       <c r="F101" t="n">
-        <v>6260.1131</v>
+        <v>3050</v>
       </c>
       <c r="G101" t="n">
-        <v>1462513.615559785</v>
+        <v>1149274.2663</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4412,32 +4442,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.14</v>
+        <v>13.62</v>
       </c>
       <c r="C102" t="n">
-        <v>14.14</v>
+        <v>13.68</v>
       </c>
       <c r="D102" t="n">
-        <v>14.14</v>
+        <v>13.68</v>
       </c>
       <c r="E102" t="n">
-        <v>14.14</v>
+        <v>13.53</v>
       </c>
       <c r="F102" t="n">
-        <v>230255.64</v>
+        <v>79109.432</v>
       </c>
       <c r="G102" t="n">
-        <v>1692769.255559785</v>
+        <v>1228383.6983</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4448,32 +4482,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.14</v>
+        <v>13.51</v>
       </c>
       <c r="C103" t="n">
-        <v>14.07</v>
+        <v>13.51</v>
       </c>
       <c r="D103" t="n">
-        <v>14.17</v>
+        <v>13.51</v>
       </c>
       <c r="E103" t="n">
-        <v>13.81</v>
+        <v>13.51</v>
       </c>
       <c r="F103" t="n">
-        <v>291311.4313</v>
+        <v>4539.0579</v>
       </c>
       <c r="G103" t="n">
-        <v>1401457.824259785</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4484,32 +4522,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.99</v>
+        <v>13.51</v>
       </c>
       <c r="C104" t="n">
-        <v>13.99</v>
+        <v>13.51</v>
       </c>
       <c r="D104" t="n">
-        <v>13.99</v>
+        <v>13.51</v>
       </c>
       <c r="E104" t="n">
-        <v>13.99</v>
+        <v>13.51</v>
       </c>
       <c r="F104" t="n">
-        <v>7600</v>
+        <v>4530</v>
       </c>
       <c r="G104" t="n">
-        <v>1393857.824259785</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4520,32 +4562,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.96</v>
+        <v>13.56</v>
       </c>
       <c r="C105" t="n">
-        <v>13.96</v>
+        <v>13.51</v>
       </c>
       <c r="D105" t="n">
-        <v>13.96</v>
+        <v>13.56</v>
       </c>
       <c r="E105" t="n">
-        <v>13.96</v>
+        <v>13.51</v>
       </c>
       <c r="F105" t="n">
-        <v>4340</v>
+        <v>12307.8943</v>
       </c>
       <c r="G105" t="n">
-        <v>1389517.824259785</v>
+        <v>1223844.6404</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4556,32 +4602,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.86</v>
+        <v>13.47</v>
       </c>
       <c r="C106" t="n">
-        <v>13.77</v>
+        <v>13.47</v>
       </c>
       <c r="D106" t="n">
-        <v>14</v>
+        <v>13.47</v>
       </c>
       <c r="E106" t="n">
-        <v>13.77</v>
+        <v>13.47</v>
       </c>
       <c r="F106" t="n">
-        <v>6133.521</v>
+        <v>2650</v>
       </c>
       <c r="G106" t="n">
-        <v>1383384.303259785</v>
+        <v>1221194.6404</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4592,32 +4642,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.96</v>
+        <v>13.37</v>
       </c>
       <c r="C107" t="n">
-        <v>13.96</v>
+        <v>13.39</v>
       </c>
       <c r="D107" t="n">
-        <v>13.96</v>
+        <v>13.39</v>
       </c>
       <c r="E107" t="n">
-        <v>13.96</v>
+        <v>13.31</v>
       </c>
       <c r="F107" t="n">
-        <v>36</v>
+        <v>60743.9123</v>
       </c>
       <c r="G107" t="n">
-        <v>1383420.303259785</v>
+        <v>1160450.7281</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4628,32 +4682,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.76</v>
+        <v>13.39</v>
       </c>
       <c r="C108" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="D108" t="n">
-        <v>13.76</v>
+        <v>13.49</v>
       </c>
       <c r="E108" t="n">
-        <v>13.71</v>
+        <v>13.39</v>
       </c>
       <c r="F108" t="n">
-        <v>190097.6323</v>
+        <v>8918</v>
       </c>
       <c r="G108" t="n">
-        <v>1193322.670959785</v>
+        <v>1169368.7281</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4664,32 +4722,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.71</v>
+        <v>13.32</v>
       </c>
       <c r="C109" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="D109" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="E109" t="n">
-        <v>13.71</v>
+        <v>13.31</v>
       </c>
       <c r="F109" t="n">
-        <v>34630.2794</v>
+        <v>37885.8897</v>
       </c>
       <c r="G109" t="n">
-        <v>1193322.670959785</v>
+        <v>1169368.7281</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4700,32 +4762,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.71</v>
+        <v>13.35</v>
       </c>
       <c r="C110" t="n">
-        <v>13.93</v>
+        <v>13.03</v>
       </c>
       <c r="D110" t="n">
-        <v>13.93</v>
+        <v>13.35</v>
       </c>
       <c r="E110" t="n">
-        <v>13.71</v>
+        <v>13.03</v>
       </c>
       <c r="F110" t="n">
-        <v>8308.854300000001</v>
+        <v>339885.0329</v>
       </c>
       <c r="G110" t="n">
-        <v>1201631.525259785</v>
+        <v>829483.6952</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4736,32 +4802,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.72</v>
+        <v>13.03</v>
       </c>
       <c r="C111" t="n">
-        <v>13.71</v>
+        <v>13.38</v>
       </c>
       <c r="D111" t="n">
-        <v>13.72</v>
+        <v>13.4</v>
       </c>
       <c r="E111" t="n">
-        <v>13.71</v>
+        <v>13.03</v>
       </c>
       <c r="F111" t="n">
-        <v>22430.741</v>
+        <v>31946.9479</v>
       </c>
       <c r="G111" t="n">
-        <v>1179200.784259785</v>
+        <v>861430.6431</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4772,32 +4842,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.78</v>
+        <v>13.32</v>
       </c>
       <c r="C112" t="n">
-        <v>13.78</v>
+        <v>13.3</v>
       </c>
       <c r="D112" t="n">
-        <v>13.78</v>
+        <v>13.32</v>
       </c>
       <c r="E112" t="n">
-        <v>13.78</v>
+        <v>13.3</v>
       </c>
       <c r="F112" t="n">
-        <v>12306.546</v>
+        <v>5162.5565</v>
       </c>
       <c r="G112" t="n">
-        <v>1191507.330259785</v>
+        <v>856268.0866</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4808,32 +4882,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.78</v>
+        <v>13.3</v>
       </c>
       <c r="C113" t="n">
-        <v>13.78</v>
+        <v>13.39</v>
       </c>
       <c r="D113" t="n">
-        <v>13.78</v>
+        <v>13.47</v>
       </c>
       <c r="E113" t="n">
-        <v>13.78</v>
+        <v>13.3</v>
       </c>
       <c r="F113" t="n">
-        <v>2574.8379</v>
+        <v>61940.6242</v>
       </c>
       <c r="G113" t="n">
-        <v>1191507.330259785</v>
+        <v>918208.7108</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4844,32 +4922,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13.63</v>
+        <v>13.36</v>
       </c>
       <c r="C114" t="n">
-        <v>13.63</v>
+        <v>13.21</v>
       </c>
       <c r="D114" t="n">
-        <v>13.63</v>
+        <v>13.36</v>
       </c>
       <c r="E114" t="n">
-        <v>13.63</v>
+        <v>13.21</v>
       </c>
       <c r="F114" t="n">
-        <v>7129.0276</v>
+        <v>1955.7116</v>
       </c>
       <c r="G114" t="n">
-        <v>1184378.302659785</v>
+        <v>916252.9992</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4880,32 +4962,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.63</v>
+        <v>13.21</v>
       </c>
       <c r="C115" t="n">
-        <v>13.59</v>
+        <v>13.21</v>
       </c>
       <c r="D115" t="n">
-        <v>13.63</v>
+        <v>13.21</v>
       </c>
       <c r="E115" t="n">
-        <v>13.59</v>
+        <v>13.2</v>
       </c>
       <c r="F115" t="n">
-        <v>24051.7735</v>
+        <v>75157.3251</v>
       </c>
       <c r="G115" t="n">
-        <v>1160326.529159785</v>
+        <v>916252.9992</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4916,32 +5002,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.74</v>
+        <v>13.2</v>
       </c>
       <c r="C116" t="n">
-        <v>13.73</v>
+        <v>13.18</v>
       </c>
       <c r="D116" t="n">
-        <v>13.74</v>
+        <v>13.21</v>
       </c>
       <c r="E116" t="n">
-        <v>13.73</v>
+        <v>13.18</v>
       </c>
       <c r="F116" t="n">
-        <v>9330</v>
+        <v>22582</v>
       </c>
       <c r="G116" t="n">
-        <v>1169656.529159785</v>
+        <v>893670.9992</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4952,32 +5042,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.7</v>
+        <v>13.08</v>
       </c>
       <c r="C117" t="n">
-        <v>13.7</v>
+        <v>13.08</v>
       </c>
       <c r="D117" t="n">
-        <v>13.7</v>
+        <v>13.13</v>
       </c>
       <c r="E117" t="n">
-        <v>13.7</v>
+        <v>13.08</v>
       </c>
       <c r="F117" t="n">
-        <v>59751.3525</v>
+        <v>10539.4023</v>
       </c>
       <c r="G117" t="n">
-        <v>1109905.176659785</v>
+        <v>883131.5969</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4988,32 +5082,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.7</v>
+        <v>13.08</v>
       </c>
       <c r="C118" t="n">
-        <v>13.58</v>
+        <v>13.08</v>
       </c>
       <c r="D118" t="n">
-        <v>13.7</v>
+        <v>13.08</v>
       </c>
       <c r="E118" t="n">
-        <v>13.58</v>
+        <v>13.08</v>
       </c>
       <c r="F118" t="n">
-        <v>178419.0854</v>
+        <v>1488.9127</v>
       </c>
       <c r="G118" t="n">
-        <v>931486.0912597852</v>
+        <v>883131.5969</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5024,32 +5122,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13.58</v>
+        <v>13.08</v>
       </c>
       <c r="C119" t="n">
-        <v>13.56</v>
+        <v>13.08</v>
       </c>
       <c r="D119" t="n">
-        <v>13.58</v>
+        <v>13.08</v>
       </c>
       <c r="E119" t="n">
-        <v>13.56</v>
+        <v>13.08</v>
       </c>
       <c r="F119" t="n">
-        <v>26004.7286</v>
+        <v>1935.5865</v>
       </c>
       <c r="G119" t="n">
-        <v>905481.3626597852</v>
+        <v>883131.5969</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5060,32 +5162,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="C120" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="D120" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="E120" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="F120" t="n">
-        <v>3400.02</v>
+        <v>11448.0012</v>
       </c>
       <c r="G120" t="n">
-        <v>905481.3626597852</v>
+        <v>871683.5956999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5096,22 +5202,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="C121" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="D121" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="E121" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="F121" t="n">
-        <v>296</v>
+        <v>11448.0775</v>
       </c>
       <c r="G121" t="n">
-        <v>905481.3626597852</v>
+        <v>871683.5956999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5121,7 +5227,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5132,22 +5242,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="C122" t="n">
-        <v>13.57</v>
+        <v>13.08</v>
       </c>
       <c r="D122" t="n">
-        <v>13.57</v>
+        <v>13.08</v>
       </c>
       <c r="E122" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="F122" t="n">
-        <v>37</v>
+        <v>10008.9151</v>
       </c>
       <c r="G122" t="n">
-        <v>905518.3626597852</v>
+        <v>881692.5107999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5157,7 +5267,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5168,32 +5282,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>13.57</v>
+        <v>13.08</v>
       </c>
       <c r="C123" t="n">
-        <v>13.58</v>
+        <v>13.13</v>
       </c>
       <c r="D123" t="n">
-        <v>13.58</v>
+        <v>13.14</v>
       </c>
       <c r="E123" t="n">
-        <v>13.57</v>
+        <v>13.07</v>
       </c>
       <c r="F123" t="n">
-        <v>11800</v>
+        <v>46062</v>
       </c>
       <c r="G123" t="n">
-        <v>917318.3626597852</v>
+        <v>927754.5107999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5204,32 +5322,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.5</v>
+        <v>13.13</v>
       </c>
       <c r="C124" t="n">
-        <v>13.48</v>
+        <v>13.13</v>
       </c>
       <c r="D124" t="n">
-        <v>13.5</v>
+        <v>13.13</v>
       </c>
       <c r="E124" t="n">
-        <v>13.48</v>
+        <v>13.13</v>
       </c>
       <c r="F124" t="n">
-        <v>7209.9714</v>
+        <v>1454</v>
       </c>
       <c r="G124" t="n">
-        <v>910108.3912597852</v>
+        <v>927754.5107999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5240,32 +5362,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.48</v>
+        <v>13.12</v>
       </c>
       <c r="C125" t="n">
-        <v>13.39</v>
+        <v>13.15</v>
       </c>
       <c r="D125" t="n">
-        <v>13.48</v>
+        <v>13.15</v>
       </c>
       <c r="E125" t="n">
-        <v>13.39</v>
+        <v>13.12</v>
       </c>
       <c r="F125" t="n">
-        <v>61253.7543</v>
+        <v>7722.043</v>
       </c>
       <c r="G125" t="n">
-        <v>848854.6369597851</v>
+        <v>935476.5537999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5276,22 +5402,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.39</v>
+        <v>13.05</v>
       </c>
       <c r="C126" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="D126" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="E126" t="n">
-        <v>13.39</v>
+        <v>13.05</v>
       </c>
       <c r="F126" t="n">
-        <v>106647.5166</v>
+        <v>46268</v>
       </c>
       <c r="G126" t="n">
-        <v>848854.6369597851</v>
+        <v>981744.5537999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5301,7 +5427,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5312,32 +5442,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="C127" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="D127" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="E127" t="n">
-        <v>13.39</v>
+        <v>13.16</v>
       </c>
       <c r="F127" t="n">
-        <v>1.8309</v>
+        <v>931</v>
       </c>
       <c r="G127" t="n">
-        <v>848854.6369597851</v>
+        <v>981744.5537999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5348,22 +5482,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="C128" t="n">
-        <v>13.48</v>
+        <v>13.27</v>
       </c>
       <c r="D128" t="n">
-        <v>13.48</v>
+        <v>13.27</v>
       </c>
       <c r="E128" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="F128" t="n">
-        <v>40412.1236</v>
+        <v>6008.3114</v>
       </c>
       <c r="G128" t="n">
-        <v>889266.7605597852</v>
+        <v>987752.8651999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5373,7 +5507,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5384,32 +5522,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="C129" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="D129" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="E129" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="F129" t="n">
-        <v>64970.7181</v>
+        <v>555.8056</v>
       </c>
       <c r="G129" t="n">
-        <v>889266.7605597852</v>
+        <v>987197.0595999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5420,22 +5562,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="C130" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="D130" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="E130" t="n">
-        <v>13.48</v>
+        <v>13.16</v>
       </c>
       <c r="F130" t="n">
-        <v>9080.3141</v>
+        <v>2656.231003039514</v>
       </c>
       <c r="G130" t="n">
-        <v>889266.7605597852</v>
+        <v>989853.2906030394</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5445,7 +5587,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5456,22 +5602,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="C131" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="D131" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="E131" t="n">
-        <v>13.48</v>
+        <v>13.1</v>
       </c>
       <c r="F131" t="n">
-        <v>28376.5129</v>
+        <v>590.9709</v>
       </c>
       <c r="G131" t="n">
-        <v>889266.7605597852</v>
+        <v>989262.3197030395</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5481,7 +5627,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5492,22 +5642,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.48</v>
+        <v>13.01</v>
       </c>
       <c r="C132" t="n">
-        <v>13.48</v>
+        <v>13.05</v>
       </c>
       <c r="D132" t="n">
-        <v>13.48</v>
+        <v>13.05</v>
       </c>
       <c r="E132" t="n">
-        <v>13.48</v>
+        <v>13.01</v>
       </c>
       <c r="F132" t="n">
-        <v>10157.1448</v>
+        <v>14936.3623</v>
       </c>
       <c r="G132" t="n">
-        <v>889266.7605597852</v>
+        <v>974325.9574030394</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5517,7 +5667,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5528,22 +5682,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.48</v>
+        <v>12.93</v>
       </c>
       <c r="C133" t="n">
-        <v>13.48</v>
+        <v>12.93</v>
       </c>
       <c r="D133" t="n">
-        <v>13.48</v>
+        <v>12.93</v>
       </c>
       <c r="E133" t="n">
-        <v>13.48</v>
+        <v>12.93</v>
       </c>
       <c r="F133" t="n">
-        <v>16191</v>
+        <v>603.7968</v>
       </c>
       <c r="G133" t="n">
-        <v>889266.7605597852</v>
+        <v>973722.1606030394</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5553,7 +5707,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5564,22 +5722,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.48</v>
+        <v>12.82</v>
       </c>
       <c r="C134" t="n">
-        <v>13.48</v>
+        <v>12.82</v>
       </c>
       <c r="D134" t="n">
-        <v>13.48</v>
+        <v>12.82</v>
       </c>
       <c r="E134" t="n">
-        <v>13.48</v>
+        <v>12.82</v>
       </c>
       <c r="F134" t="n">
-        <v>38166.9171</v>
+        <v>2335</v>
       </c>
       <c r="G134" t="n">
-        <v>889266.7605597852</v>
+        <v>971387.1606030394</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5589,7 +5747,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5600,32 +5762,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="C135" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="D135" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="E135" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="F135" t="n">
-        <v>7476</v>
+        <v>3500</v>
       </c>
       <c r="G135" t="n">
-        <v>889266.7605597852</v>
+        <v>974887.1606030394</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5636,32 +5802,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="C136" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="D136" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="E136" t="n">
-        <v>13.48</v>
+        <v>12.94</v>
       </c>
       <c r="F136" t="n">
-        <v>12000</v>
+        <v>420</v>
       </c>
       <c r="G136" t="n">
-        <v>889266.7605597852</v>
+        <v>974887.1606030394</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5672,22 +5842,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.48</v>
+        <v>12.95</v>
       </c>
       <c r="C137" t="n">
-        <v>13.82</v>
+        <v>12.95</v>
       </c>
       <c r="D137" t="n">
-        <v>13.82</v>
+        <v>12.95</v>
       </c>
       <c r="E137" t="n">
-        <v>13.48</v>
+        <v>12.95</v>
       </c>
       <c r="F137" t="n">
-        <v>140514.2994</v>
+        <v>2709.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>1029781.059959785</v>
+        <v>977597.1605030395</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5697,7 +5867,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5708,22 +5882,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.84</v>
+        <v>12.9</v>
       </c>
       <c r="C138" t="n">
-        <v>13.84</v>
+        <v>12.88</v>
       </c>
       <c r="D138" t="n">
-        <v>13.84</v>
+        <v>12.9</v>
       </c>
       <c r="E138" t="n">
-        <v>13.84</v>
+        <v>12.88</v>
       </c>
       <c r="F138" t="n">
-        <v>37</v>
+        <v>11586.9424</v>
       </c>
       <c r="G138" t="n">
-        <v>1029818.059959785</v>
+        <v>966010.2181030395</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5733,7 +5907,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5744,22 +5922,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.83</v>
+        <v>12.89</v>
       </c>
       <c r="C139" t="n">
-        <v>13.85</v>
+        <v>12.94</v>
       </c>
       <c r="D139" t="n">
-        <v>13.85</v>
+        <v>12.94</v>
       </c>
       <c r="E139" t="n">
-        <v>13.83</v>
+        <v>12.89</v>
       </c>
       <c r="F139" t="n">
-        <v>89802.4019</v>
+        <v>5727.7183</v>
       </c>
       <c r="G139" t="n">
-        <v>1119620.461859785</v>
+        <v>971737.9364030395</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5769,7 +5947,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5780,22 +5962,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.85</v>
+        <v>12.98</v>
       </c>
       <c r="C140" t="n">
-        <v>13.95</v>
+        <v>13.02</v>
       </c>
       <c r="D140" t="n">
-        <v>13.95</v>
+        <v>13.02</v>
       </c>
       <c r="E140" t="n">
-        <v>13.85</v>
+        <v>12.98</v>
       </c>
       <c r="F140" t="n">
-        <v>23818.3105</v>
+        <v>38800</v>
       </c>
       <c r="G140" t="n">
-        <v>1143438.772359785</v>
+        <v>1010537.936403039</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5805,7 +5987,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5816,32 +6002,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>13.95</v>
+        <v>13.03</v>
       </c>
       <c r="C141" t="n">
-        <v>14.05</v>
+        <v>13.04</v>
       </c>
       <c r="D141" t="n">
-        <v>14.05</v>
+        <v>13.04</v>
       </c>
       <c r="E141" t="n">
-        <v>13.95</v>
+        <v>13.03</v>
       </c>
       <c r="F141" t="n">
-        <v>3567.4542</v>
+        <v>19400</v>
       </c>
       <c r="G141" t="n">
-        <v>1147006.226559785</v>
+        <v>1029937.936403039</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5852,32 +6042,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>14.09</v>
+        <v>13.04</v>
       </c>
       <c r="C142" t="n">
-        <v>14.09</v>
+        <v>13.04</v>
       </c>
       <c r="D142" t="n">
-        <v>14.09</v>
+        <v>13.04</v>
       </c>
       <c r="E142" t="n">
-        <v>14.09</v>
+        <v>13.04</v>
       </c>
       <c r="F142" t="n">
-        <v>36</v>
+        <v>6171.8201</v>
       </c>
       <c r="G142" t="n">
-        <v>1147042.226559785</v>
+        <v>1029937.936403039</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5888,32 +6082,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>14.09</v>
+        <v>13.04</v>
       </c>
       <c r="C143" t="n">
-        <v>14.04</v>
+        <v>13.08</v>
       </c>
       <c r="D143" t="n">
-        <v>14.11</v>
+        <v>13.08</v>
       </c>
       <c r="E143" t="n">
-        <v>14.04</v>
+        <v>13.04</v>
       </c>
       <c r="F143" t="n">
-        <v>177284.9417</v>
+        <v>5586.676</v>
       </c>
       <c r="G143" t="n">
-        <v>969757.2848597852</v>
+        <v>1035524.612403039</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5924,32 +6122,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>14.09</v>
+        <v>13.08</v>
       </c>
       <c r="C144" t="n">
-        <v>14.09</v>
+        <v>13.08</v>
       </c>
       <c r="D144" t="n">
-        <v>14.09</v>
+        <v>13.08</v>
       </c>
       <c r="E144" t="n">
-        <v>14.09</v>
+        <v>13.08</v>
       </c>
       <c r="F144" t="n">
-        <v>36</v>
+        <v>5015.5046</v>
       </c>
       <c r="G144" t="n">
-        <v>969793.2848597852</v>
+        <v>1035524.612403039</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5960,32 +6162,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14.06</v>
+        <v>13.07</v>
       </c>
       <c r="C145" t="n">
-        <v>14.08</v>
+        <v>13.17</v>
       </c>
       <c r="D145" t="n">
-        <v>14.08</v>
+        <v>13.17</v>
       </c>
       <c r="E145" t="n">
-        <v>14.06</v>
+        <v>13.07</v>
       </c>
       <c r="F145" t="n">
-        <v>14571.02272727273</v>
+        <v>26000</v>
       </c>
       <c r="G145" t="n">
-        <v>955222.2621325125</v>
+        <v>1061524.612403039</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5996,32 +6202,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>14.09</v>
+        <v>13.2</v>
       </c>
       <c r="C146" t="n">
-        <v>13.89</v>
+        <v>13.31</v>
       </c>
       <c r="D146" t="n">
-        <v>14.09</v>
+        <v>13.31</v>
       </c>
       <c r="E146" t="n">
-        <v>13.89</v>
+        <v>13.2</v>
       </c>
       <c r="F146" t="n">
-        <v>90400.9547</v>
+        <v>13000</v>
       </c>
       <c r="G146" t="n">
-        <v>864821.3074325125</v>
+        <v>1074524.612403039</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6032,32 +6242,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.85</v>
+        <v>13.29</v>
       </c>
       <c r="C147" t="n">
-        <v>13.85</v>
+        <v>13.29</v>
       </c>
       <c r="D147" t="n">
-        <v>13.85</v>
+        <v>13.29</v>
       </c>
       <c r="E147" t="n">
-        <v>13.85</v>
+        <v>13.29</v>
       </c>
       <c r="F147" t="n">
-        <v>14571.0227</v>
+        <v>12726.9456</v>
       </c>
       <c r="G147" t="n">
-        <v>850250.2847325125</v>
+        <v>1061797.666803039</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6068,32 +6282,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.99</v>
+        <v>13.22</v>
       </c>
       <c r="C148" t="n">
-        <v>13.99</v>
+        <v>13.22</v>
       </c>
       <c r="D148" t="n">
-        <v>13.99</v>
+        <v>13.22</v>
       </c>
       <c r="E148" t="n">
-        <v>13.99</v>
+        <v>13.22</v>
       </c>
       <c r="F148" t="n">
-        <v>36</v>
+        <v>872.8262</v>
       </c>
       <c r="G148" t="n">
-        <v>850286.2847325125</v>
+        <v>1060924.840603039</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6104,22 +6322,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.86</v>
+        <v>13.15</v>
       </c>
       <c r="C149" t="n">
-        <v>14.07</v>
+        <v>13.15</v>
       </c>
       <c r="D149" t="n">
-        <v>14.07</v>
+        <v>13.15</v>
       </c>
       <c r="E149" t="n">
-        <v>13.86</v>
+        <v>13.15</v>
       </c>
       <c r="F149" t="n">
-        <v>63400</v>
+        <v>11854.1194</v>
       </c>
       <c r="G149" t="n">
-        <v>913686.2847325125</v>
+        <v>1049070.721203039</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6129,7 +6347,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6140,32 +6362,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.92</v>
+        <v>13.22</v>
       </c>
       <c r="C150" t="n">
-        <v>13.92</v>
+        <v>13.37</v>
       </c>
       <c r="D150" t="n">
-        <v>13.92</v>
+        <v>13.37</v>
       </c>
       <c r="E150" t="n">
-        <v>13.92</v>
+        <v>13.22</v>
       </c>
       <c r="F150" t="n">
-        <v>5153.3673</v>
+        <v>2999</v>
       </c>
       <c r="G150" t="n">
-        <v>908532.9174325125</v>
+        <v>1052069.721203039</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6176,22 +6402,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.99</v>
+        <v>13.39</v>
       </c>
       <c r="C151" t="n">
-        <v>13.99</v>
+        <v>13.4</v>
       </c>
       <c r="D151" t="n">
-        <v>13.99</v>
+        <v>13.4</v>
       </c>
       <c r="E151" t="n">
-        <v>13.99</v>
+        <v>13.39</v>
       </c>
       <c r="F151" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G151" t="n">
-        <v>908568.9174325125</v>
+        <v>1052145.721203039</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6201,7 +6427,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6212,32 +6442,36 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.95</v>
+        <v>13.24</v>
       </c>
       <c r="C152" t="n">
-        <v>13.95</v>
+        <v>13.35</v>
       </c>
       <c r="D152" t="n">
-        <v>13.95</v>
+        <v>13.35</v>
       </c>
       <c r="E152" t="n">
-        <v>13.95</v>
+        <v>13.23</v>
       </c>
       <c r="F152" t="n">
-        <v>36</v>
+        <v>2694.231</v>
       </c>
       <c r="G152" t="n">
-        <v>908532.9174325125</v>
+        <v>1049451.490203039</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6248,32 +6482,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.99</v>
+        <v>13.37</v>
       </c>
       <c r="C153" t="n">
-        <v>14.06</v>
+        <v>13.37</v>
       </c>
       <c r="D153" t="n">
-        <v>14.06</v>
+        <v>13.37</v>
       </c>
       <c r="E153" t="n">
-        <v>13.99</v>
+        <v>13.37</v>
       </c>
       <c r="F153" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G153" t="n">
-        <v>908604.9174325125</v>
+        <v>1049489.490203039</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6284,22 +6522,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.95</v>
+        <v>13.39</v>
       </c>
       <c r="C154" t="n">
-        <v>13.99</v>
+        <v>13.39</v>
       </c>
       <c r="D154" t="n">
-        <v>13.99</v>
+        <v>13.39</v>
       </c>
       <c r="E154" t="n">
-        <v>13.95</v>
+        <v>13.39</v>
       </c>
       <c r="F154" t="n">
-        <v>22489.9999</v>
+        <v>38</v>
       </c>
       <c r="G154" t="n">
-        <v>886114.9175325125</v>
+        <v>1049527.490203039</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6309,7 +6547,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6320,22 +6562,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.98</v>
+        <v>13.38</v>
       </c>
       <c r="C155" t="n">
-        <v>13.98</v>
+        <v>13.38</v>
       </c>
       <c r="D155" t="n">
-        <v>13.98</v>
+        <v>13.38</v>
       </c>
       <c r="E155" t="n">
-        <v>13.98</v>
+        <v>13.38</v>
       </c>
       <c r="F155" t="n">
-        <v>62975.8244</v>
+        <v>2714.4109</v>
       </c>
       <c r="G155" t="n">
-        <v>823139.0931325124</v>
+        <v>1046813.079303039</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6345,7 +6587,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6356,22 +6602,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.97</v>
+        <v>13.38</v>
       </c>
       <c r="C156" t="n">
-        <v>13.95</v>
+        <v>14.02</v>
       </c>
       <c r="D156" t="n">
-        <v>13.97</v>
+        <v>14.03</v>
       </c>
       <c r="E156" t="n">
-        <v>13.95</v>
+        <v>13.38</v>
       </c>
       <c r="F156" t="n">
-        <v>78931.7651</v>
+        <v>113941.4686</v>
       </c>
       <c r="G156" t="n">
-        <v>744207.3280325125</v>
+        <v>1160754.547903039</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6381,7 +6627,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6392,22 +6642,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>14.09</v>
+        <v>14</v>
       </c>
       <c r="C157" t="n">
-        <v>14.09</v>
+        <v>14.01</v>
       </c>
       <c r="D157" t="n">
-        <v>14.09</v>
+        <v>14.01</v>
       </c>
       <c r="E157" t="n">
-        <v>13.96</v>
+        <v>14</v>
       </c>
       <c r="F157" t="n">
-        <v>12038.9554</v>
+        <v>15708.77944325482</v>
       </c>
       <c r="G157" t="n">
-        <v>756246.2834325124</v>
+        <v>1145045.768459785</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6417,7 +6667,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6428,22 +6682,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14.08</v>
+        <v>13.82</v>
       </c>
       <c r="C158" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="D158" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="E158" t="n">
-        <v>14.08</v>
+        <v>13.82</v>
       </c>
       <c r="F158" t="n">
-        <v>13130.08374733854</v>
+        <v>2196.9696</v>
       </c>
       <c r="G158" t="n">
-        <v>756246.2834325124</v>
+        <v>1142848.798859785</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6453,7 +6707,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6464,22 +6722,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="C159" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="D159" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="E159" t="n">
-        <v>14.09</v>
+        <v>13.82</v>
       </c>
       <c r="F159" t="n">
-        <v>39098.7296</v>
+        <v>104.2137</v>
       </c>
       <c r="G159" t="n">
-        <v>756246.2834325124</v>
+        <v>1142848.798859785</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6489,7 +6747,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6500,22 +6762,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>14.09</v>
+        <v>13.7</v>
       </c>
       <c r="C160" t="n">
-        <v>14.09</v>
+        <v>13.7</v>
       </c>
       <c r="D160" t="n">
-        <v>14.09</v>
+        <v>13.7</v>
       </c>
       <c r="E160" t="n">
-        <v>14.09</v>
+        <v>13.7</v>
       </c>
       <c r="F160" t="n">
-        <v>1330</v>
+        <v>16000</v>
       </c>
       <c r="G160" t="n">
-        <v>756246.2834325124</v>
+        <v>1126848.798859785</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6525,7 +6787,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6536,32 +6802,36 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>14.05</v>
+        <v>13.82</v>
       </c>
       <c r="C161" t="n">
-        <v>14.05</v>
+        <v>14.1</v>
       </c>
       <c r="D161" t="n">
-        <v>14.05</v>
+        <v>14.1</v>
       </c>
       <c r="E161" t="n">
-        <v>14.05</v>
+        <v>13.82</v>
       </c>
       <c r="F161" t="n">
-        <v>1604.7682</v>
+        <v>126261.2504</v>
       </c>
       <c r="G161" t="n">
-        <v>754641.5152325124</v>
+        <v>1253110.049259785</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6572,22 +6842,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.94</v>
+        <v>14.1</v>
       </c>
       <c r="C162" t="n">
-        <v>13.94</v>
+        <v>14.21</v>
       </c>
       <c r="D162" t="n">
-        <v>13.94</v>
+        <v>14.21</v>
       </c>
       <c r="E162" t="n">
-        <v>13.94</v>
+        <v>14.1</v>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>62460.2234</v>
       </c>
       <c r="G162" t="n">
-        <v>744641.5152325124</v>
+        <v>1315570.272659785</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6597,7 +6867,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6608,35 +6882,37 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.95</v>
+        <v>14.21</v>
       </c>
       <c r="C163" t="n">
-        <v>13.95</v>
+        <v>14.25</v>
       </c>
       <c r="D163" t="n">
-        <v>13.95</v>
+        <v>14.25</v>
       </c>
       <c r="E163" t="n">
-        <v>13.95</v>
+        <v>14.21</v>
       </c>
       <c r="F163" t="n">
-        <v>13130.0838</v>
+        <v>127932.9764</v>
       </c>
       <c r="G163" t="n">
-        <v>757771.5990325124</v>
+        <v>1443503.249059785</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -6644,28 +6920,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.99</v>
+        <v>14.22</v>
       </c>
       <c r="C164" t="n">
-        <v>14.09</v>
+        <v>14.15</v>
       </c>
       <c r="D164" t="n">
-        <v>14.09</v>
+        <v>14.28</v>
       </c>
       <c r="E164" t="n">
-        <v>13.99</v>
+        <v>13.91</v>
       </c>
       <c r="F164" t="n">
-        <v>26846.24</v>
+        <v>195526.6981</v>
       </c>
       <c r="G164" t="n">
-        <v>784617.8390325124</v>
+        <v>1247976.550959785</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6680,28 +6956,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>14.09</v>
+        <v>14.15</v>
       </c>
       <c r="C165" t="n">
-        <v>14.09</v>
+        <v>14.3</v>
       </c>
       <c r="D165" t="n">
-        <v>14.09</v>
+        <v>14.3</v>
       </c>
       <c r="E165" t="n">
-        <v>14.09</v>
+        <v>14.15</v>
       </c>
       <c r="F165" t="n">
-        <v>35486</v>
+        <v>16516</v>
       </c>
       <c r="G165" t="n">
-        <v>784617.8390325124</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6716,28 +6992,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.97</v>
+        <v>14.3</v>
       </c>
       <c r="C166" t="n">
-        <v>13.97</v>
+        <v>14.3</v>
       </c>
       <c r="D166" t="n">
-        <v>13.97</v>
+        <v>14.3</v>
       </c>
       <c r="E166" t="n">
-        <v>13.97</v>
+        <v>14.3</v>
       </c>
       <c r="F166" t="n">
-        <v>2353.2398</v>
+        <v>7420.0277</v>
       </c>
       <c r="G166" t="n">
-        <v>782264.5992325124</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6752,28 +7028,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.96</v>
+        <v>14.3</v>
       </c>
       <c r="C167" t="n">
-        <v>13.96</v>
+        <v>14.3</v>
       </c>
       <c r="D167" t="n">
-        <v>13.96</v>
+        <v>14.3</v>
       </c>
       <c r="E167" t="n">
-        <v>13.96</v>
+        <v>14.3</v>
       </c>
       <c r="F167" t="n">
-        <v>58798.152</v>
+        <v>27511.466</v>
       </c>
       <c r="G167" t="n">
-        <v>723466.4472325124</v>
+        <v>1264492.550959785</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6788,28 +7064,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.84</v>
+        <v>14.37</v>
       </c>
       <c r="C168" t="n">
-        <v>13.84</v>
+        <v>14.4</v>
       </c>
       <c r="D168" t="n">
-        <v>13.84</v>
+        <v>14.4</v>
       </c>
       <c r="E168" t="n">
-        <v>13.84</v>
+        <v>14.37</v>
       </c>
       <c r="F168" t="n">
-        <v>8975.2166</v>
+        <v>136247.7294</v>
       </c>
       <c r="G168" t="n">
-        <v>714491.2306325124</v>
+        <v>1400740.280359785</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6824,28 +7100,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>13.84</v>
+        <v>14.41</v>
       </c>
       <c r="C169" t="n">
-        <v>13.84</v>
+        <v>14.21</v>
       </c>
       <c r="D169" t="n">
-        <v>13.84</v>
+        <v>14.41</v>
       </c>
       <c r="E169" t="n">
-        <v>13.84</v>
+        <v>14.21</v>
       </c>
       <c r="F169" t="n">
-        <v>5941.6402</v>
+        <v>5238.9439</v>
       </c>
       <c r="G169" t="n">
-        <v>714491.2306325124</v>
+        <v>1395501.336459785</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6860,28 +7136,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>13.84</v>
+        <v>14.1</v>
       </c>
       <c r="C170" t="n">
-        <v>13.83</v>
+        <v>13.93</v>
       </c>
       <c r="D170" t="n">
-        <v>13.84</v>
+        <v>14.23</v>
       </c>
       <c r="E170" t="n">
-        <v>13.83</v>
+        <v>13.93</v>
       </c>
       <c r="F170" t="n">
-        <v>58643.46</v>
+        <v>117085.405</v>
       </c>
       <c r="G170" t="n">
-        <v>655847.7706325124</v>
+        <v>1278415.931459785</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6896,28 +7172,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13.83</v>
+        <v>13.99</v>
       </c>
       <c r="C171" t="n">
-        <v>13.82</v>
+        <v>14.07</v>
       </c>
       <c r="D171" t="n">
-        <v>13.83</v>
+        <v>14.27</v>
       </c>
       <c r="E171" t="n">
-        <v>13.82</v>
+        <v>13.99</v>
       </c>
       <c r="F171" t="n">
-        <v>54977.4633</v>
+        <v>177837.571</v>
       </c>
       <c r="G171" t="n">
-        <v>600870.3073325125</v>
+        <v>1456253.502459785</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6932,28 +7208,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.82</v>
+        <v>14.08</v>
       </c>
       <c r="C172" t="n">
-        <v>13.59</v>
+        <v>14.08</v>
       </c>
       <c r="D172" t="n">
-        <v>13.94</v>
+        <v>14.08</v>
       </c>
       <c r="E172" t="n">
-        <v>13.59</v>
+        <v>14.08</v>
       </c>
       <c r="F172" t="n">
-        <v>89164.99189999999</v>
+        <v>6260.1131</v>
       </c>
       <c r="G172" t="n">
-        <v>511705.3154325124</v>
+        <v>1462513.615559785</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6968,28 +7244,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.84</v>
+        <v>14.14</v>
       </c>
       <c r="C173" t="n">
-        <v>13.84</v>
+        <v>14.14</v>
       </c>
       <c r="D173" t="n">
-        <v>13.84</v>
+        <v>14.14</v>
       </c>
       <c r="E173" t="n">
-        <v>13.84</v>
+        <v>14.14</v>
       </c>
       <c r="F173" t="n">
-        <v>37</v>
+        <v>230255.64</v>
       </c>
       <c r="G173" t="n">
-        <v>511742.3154325124</v>
+        <v>1692769.255559785</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -7004,28 +7280,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13.74</v>
+        <v>14.14</v>
       </c>
       <c r="C174" t="n">
-        <v>13.74</v>
+        <v>14.07</v>
       </c>
       <c r="D174" t="n">
-        <v>13.74</v>
+        <v>14.17</v>
       </c>
       <c r="E174" t="n">
-        <v>13.74</v>
+        <v>13.81</v>
       </c>
       <c r="F174" t="n">
-        <v>5794.8265</v>
+        <v>291311.4313</v>
       </c>
       <c r="G174" t="n">
-        <v>505947.4889325124</v>
+        <v>1401457.824259785</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -7040,28 +7316,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.7</v>
+        <v>13.99</v>
       </c>
       <c r="C175" t="n">
-        <v>13.7</v>
+        <v>13.99</v>
       </c>
       <c r="D175" t="n">
-        <v>13.7</v>
+        <v>13.99</v>
       </c>
       <c r="E175" t="n">
-        <v>13.7</v>
+        <v>13.99</v>
       </c>
       <c r="F175" t="n">
-        <v>2649.7949</v>
+        <v>7600</v>
       </c>
       <c r="G175" t="n">
-        <v>503297.6940325124</v>
+        <v>1393857.824259785</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -7076,28 +7352,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="C176" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="D176" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="E176" t="n">
-        <v>13.71</v>
+        <v>13.96</v>
       </c>
       <c r="F176" t="n">
-        <v>23228.629</v>
+        <v>4340</v>
       </c>
       <c r="G176" t="n">
-        <v>526526.3230325124</v>
+        <v>1389517.824259785</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -7112,28 +7388,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13.78</v>
+        <v>13.86</v>
       </c>
       <c r="C177" t="n">
         <v>13.77</v>
       </c>
       <c r="D177" t="n">
-        <v>13.78</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>13.7</v>
+        <v>13.77</v>
       </c>
       <c r="F177" t="n">
-        <v>47022.315</v>
+        <v>6133.521</v>
       </c>
       <c r="G177" t="n">
-        <v>573548.6380325125</v>
+        <v>1383384.303259785</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7148,28 +7424,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="C178" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="D178" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="E178" t="n">
-        <v>13.76</v>
+        <v>13.96</v>
       </c>
       <c r="F178" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="G178" t="n">
-        <v>573448.6380325125</v>
+        <v>1383420.303259785</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7184,28 +7460,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="C179" t="n">
         <v>13.71</v>
       </c>
       <c r="D179" t="n">
-        <v>13.71</v>
+        <v>13.76</v>
       </c>
       <c r="E179" t="n">
         <v>13.71</v>
       </c>
       <c r="F179" t="n">
-        <v>4250</v>
+        <v>190097.6323</v>
       </c>
       <c r="G179" t="n">
-        <v>569198.6380325125</v>
+        <v>1193322.670959785</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7220,28 +7496,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>13.6</v>
+        <v>13.71</v>
       </c>
       <c r="C180" t="n">
-        <v>13.58</v>
+        <v>13.71</v>
       </c>
       <c r="D180" t="n">
-        <v>13.6</v>
+        <v>13.71</v>
       </c>
       <c r="E180" t="n">
-        <v>13.58</v>
+        <v>13.71</v>
       </c>
       <c r="F180" t="n">
-        <v>116414.7897</v>
+        <v>34630.2794</v>
       </c>
       <c r="G180" t="n">
-        <v>452783.8483325125</v>
+        <v>1193322.670959785</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -7256,22 +7532,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>13.65</v>
+        <v>13.71</v>
       </c>
       <c r="C181" t="n">
-        <v>13.65</v>
+        <v>13.93</v>
       </c>
       <c r="D181" t="n">
-        <v>13.65</v>
+        <v>13.93</v>
       </c>
       <c r="E181" t="n">
-        <v>13.65</v>
+        <v>13.71</v>
       </c>
       <c r="F181" t="n">
-        <v>4240</v>
+        <v>8308.854300000001</v>
       </c>
       <c r="G181" t="n">
-        <v>457023.8483325125</v>
+        <v>1201631.525259785</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7292,28 +7568,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>13.75</v>
+        <v>13.72</v>
       </c>
       <c r="C182" t="n">
-        <v>13.75</v>
+        <v>13.71</v>
       </c>
       <c r="D182" t="n">
-        <v>13.75</v>
+        <v>13.72</v>
       </c>
       <c r="E182" t="n">
-        <v>13.75</v>
+        <v>13.71</v>
       </c>
       <c r="F182" t="n">
-        <v>37</v>
+        <v>22430.741</v>
       </c>
       <c r="G182" t="n">
-        <v>457060.8483325125</v>
+        <v>1179200.784259785</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7328,28 +7604,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="C183" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="D183" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="E183" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="F183" t="n">
-        <v>24400</v>
+        <v>12306.546</v>
       </c>
       <c r="G183" t="n">
-        <v>457060.8483325125</v>
+        <v>1191507.330259785</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -7364,28 +7640,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="C184" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="D184" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="E184" t="n">
-        <v>13.75</v>
+        <v>13.78</v>
       </c>
       <c r="F184" t="n">
-        <v>5445.9639</v>
+        <v>2574.8379</v>
       </c>
       <c r="G184" t="n">
-        <v>457060.8483325125</v>
+        <v>1191507.330259785</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7400,28 +7676,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="C185" t="n">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="D185" t="n">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="E185" t="n">
-        <v>13.65</v>
+        <v>13.63</v>
       </c>
       <c r="F185" t="n">
-        <v>40974.606</v>
+        <v>7129.0276</v>
       </c>
       <c r="G185" t="n">
-        <v>416086.2423325125</v>
+        <v>1184378.302659785</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -7436,22 +7712,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>13.59</v>
+        <v>13.63</v>
       </c>
       <c r="C186" t="n">
         <v>13.59</v>
       </c>
       <c r="D186" t="n">
-        <v>13.59</v>
+        <v>13.63</v>
       </c>
       <c r="E186" t="n">
         <v>13.59</v>
       </c>
       <c r="F186" t="n">
-        <v>886.76</v>
+        <v>24051.7735</v>
       </c>
       <c r="G186" t="n">
-        <v>415199.4823325125</v>
+        <v>1160326.529159785</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7472,22 +7748,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="C187" t="n">
-        <v>13.59</v>
+        <v>13.73</v>
       </c>
       <c r="D187" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="E187" t="n">
-        <v>13.59</v>
+        <v>13.73</v>
       </c>
       <c r="F187" t="n">
-        <v>1.3365</v>
+        <v>9330</v>
       </c>
       <c r="G187" t="n">
-        <v>415199.4823325125</v>
+        <v>1169656.529159785</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7508,22 +7784,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.53</v>
+        <v>13.7</v>
       </c>
       <c r="C188" t="n">
-        <v>13.53</v>
+        <v>13.7</v>
       </c>
       <c r="D188" t="n">
-        <v>13.53</v>
+        <v>13.7</v>
       </c>
       <c r="E188" t="n">
-        <v>13.53</v>
+        <v>13.7</v>
       </c>
       <c r="F188" t="n">
-        <v>12284.5641</v>
+        <v>59751.3525</v>
       </c>
       <c r="G188" t="n">
-        <v>402914.9182325125</v>
+        <v>1109905.176659785</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7544,28 +7820,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.64</v>
+        <v>13.7</v>
       </c>
       <c r="C189" t="n">
-        <v>13.65</v>
+        <v>13.58</v>
       </c>
       <c r="D189" t="n">
-        <v>13.65</v>
+        <v>13.7</v>
       </c>
       <c r="E189" t="n">
-        <v>13.64</v>
+        <v>13.58</v>
       </c>
       <c r="F189" t="n">
-        <v>131539.2197</v>
+        <v>178419.0854</v>
       </c>
       <c r="G189" t="n">
-        <v>534454.1379325124</v>
+        <v>931486.0912597852</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7580,22 +7856,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>13.65</v>
+        <v>13.58</v>
       </c>
       <c r="C190" t="n">
-        <v>13.65</v>
+        <v>13.56</v>
       </c>
       <c r="D190" t="n">
-        <v>13.65</v>
+        <v>13.58</v>
       </c>
       <c r="E190" t="n">
-        <v>13.65</v>
+        <v>13.56</v>
       </c>
       <c r="F190" t="n">
-        <v>2046.1271</v>
+        <v>26004.7286</v>
       </c>
       <c r="G190" t="n">
-        <v>534454.1379325124</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7616,22 +7892,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.62</v>
+        <v>13.56</v>
       </c>
       <c r="C191" t="n">
-        <v>13.62</v>
+        <v>13.56</v>
       </c>
       <c r="D191" t="n">
-        <v>13.62</v>
+        <v>13.56</v>
       </c>
       <c r="E191" t="n">
-        <v>13.62</v>
+        <v>13.56</v>
       </c>
       <c r="F191" t="n">
-        <v>3109.0421</v>
+        <v>3400.02</v>
       </c>
       <c r="G191" t="n">
-        <v>531345.0958325125</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7652,22 +7928,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.64</v>
+        <v>13.56</v>
       </c>
       <c r="C192" t="n">
-        <v>13.74</v>
+        <v>13.56</v>
       </c>
       <c r="D192" t="n">
-        <v>13.74</v>
+        <v>13.56</v>
       </c>
       <c r="E192" t="n">
-        <v>13.64</v>
+        <v>13.56</v>
       </c>
       <c r="F192" t="n">
-        <v>27836.20510174672</v>
+        <v>296</v>
       </c>
       <c r="G192" t="n">
-        <v>559181.3009342592</v>
+        <v>905481.3626597852</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7688,22 +7964,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>13.68</v>
+        <v>13.56</v>
       </c>
       <c r="C193" t="n">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D193" t="n">
-        <v>13.68</v>
+        <v>13.57</v>
       </c>
       <c r="E193" t="n">
-        <v>13.58</v>
+        <v>13.56</v>
       </c>
       <c r="F193" t="n">
-        <v>24572.4099</v>
+        <v>37</v>
       </c>
       <c r="G193" t="n">
-        <v>534608.8910342592</v>
+        <v>905518.3626597852</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7724,22 +8000,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="C194" t="n">
         <v>13.58</v>
       </c>
-      <c r="C194" t="n">
-        <v>13.67</v>
-      </c>
       <c r="D194" t="n">
-        <v>13.67</v>
+        <v>13.58</v>
       </c>
       <c r="E194" t="n">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="F194" t="n">
-        <v>37</v>
+        <v>11800</v>
       </c>
       <c r="G194" t="n">
-        <v>534645.8910342592</v>
+        <v>917318.3626597852</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7760,22 +8036,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.63</v>
+        <v>13.5</v>
       </c>
       <c r="C195" t="n">
-        <v>13.54</v>
+        <v>13.48</v>
       </c>
       <c r="D195" t="n">
-        <v>13.64</v>
+        <v>13.5</v>
       </c>
       <c r="E195" t="n">
-        <v>13.54</v>
+        <v>13.48</v>
       </c>
       <c r="F195" t="n">
-        <v>21565.2535</v>
+        <v>7209.9714</v>
       </c>
       <c r="G195" t="n">
-        <v>513080.6375342592</v>
+        <v>910108.3912597852</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7796,22 +8072,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>13.67</v>
+        <v>13.48</v>
       </c>
       <c r="C196" t="n">
-        <v>13.67</v>
+        <v>13.39</v>
       </c>
       <c r="D196" t="n">
-        <v>13.67</v>
+        <v>13.48</v>
       </c>
       <c r="E196" t="n">
-        <v>13.67</v>
+        <v>13.39</v>
       </c>
       <c r="F196" t="n">
-        <v>37</v>
+        <v>61253.7543</v>
       </c>
       <c r="G196" t="n">
-        <v>513117.6375342592</v>
+        <v>848854.6369597851</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7827,6 +8103,2562 @@
       </c>
       <c r="N196" t="inlineStr"/>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C197" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D197" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F197" t="n">
+        <v>106647.5166</v>
+      </c>
+      <c r="G197" t="n">
+        <v>848854.6369597851</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C198" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D198" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.8309</v>
+      </c>
+      <c r="G198" t="n">
+        <v>848854.6369597851</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C199" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D199" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F199" t="n">
+        <v>40412.1236</v>
+      </c>
+      <c r="G199" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C200" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D200" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F200" t="n">
+        <v>64970.7181</v>
+      </c>
+      <c r="G200" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C201" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E201" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F201" t="n">
+        <v>9080.3141</v>
+      </c>
+      <c r="G201" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C202" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E202" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F202" t="n">
+        <v>28376.5129</v>
+      </c>
+      <c r="G202" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C203" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E203" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10157.1448</v>
+      </c>
+      <c r="G203" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C204" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D204" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E204" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F204" t="n">
+        <v>16191</v>
+      </c>
+      <c r="G204" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C205" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D205" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E205" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F205" t="n">
+        <v>38166.9171</v>
+      </c>
+      <c r="G205" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C206" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D206" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7476</v>
+      </c>
+      <c r="G206" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C207" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D207" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E207" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>889266.7605597852</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C208" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="D208" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="F208" t="n">
+        <v>140514.2994</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1029781.059959785</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D209" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F209" t="n">
+        <v>37</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1029818.059959785</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C210" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D210" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E210" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F210" t="n">
+        <v>89802.4019</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1119620.461859785</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C211" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D211" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="F211" t="n">
+        <v>23818.3105</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1143438.772359785</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C212" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="D212" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3567.4542</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1147006.226559785</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C213" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E213" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1147042.226559785</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C214" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="E214" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="F214" t="n">
+        <v>177284.9417</v>
+      </c>
+      <c r="G214" t="n">
+        <v>969757.2848597852</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C215" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D215" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E215" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F215" t="n">
+        <v>36</v>
+      </c>
+      <c r="G215" t="n">
+        <v>969793.2848597852</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="C216" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="D216" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="E216" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F216" t="n">
+        <v>14571.02272727273</v>
+      </c>
+      <c r="G216" t="n">
+        <v>955222.2621325125</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C217" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D217" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E217" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F217" t="n">
+        <v>90400.9547</v>
+      </c>
+      <c r="G217" t="n">
+        <v>864821.3074325125</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C218" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D218" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E218" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="F218" t="n">
+        <v>14571.0227</v>
+      </c>
+      <c r="G218" t="n">
+        <v>850250.2847325125</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C219" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E219" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F219" t="n">
+        <v>36</v>
+      </c>
+      <c r="G219" t="n">
+        <v>850286.2847325125</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="C220" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="D220" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="F220" t="n">
+        <v>63400</v>
+      </c>
+      <c r="G220" t="n">
+        <v>913686.2847325125</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="C221" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="D221" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5153.3673</v>
+      </c>
+      <c r="G221" t="n">
+        <v>908532.9174325125</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C222" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D222" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E222" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F222" t="n">
+        <v>36</v>
+      </c>
+      <c r="G222" t="n">
+        <v>908568.9174325125</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C223" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D223" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F223" t="n">
+        <v>36</v>
+      </c>
+      <c r="G223" t="n">
+        <v>908532.9174325125</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C224" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="D224" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E224" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F224" t="n">
+        <v>72</v>
+      </c>
+      <c r="G224" t="n">
+        <v>908604.9174325125</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E225" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F225" t="n">
+        <v>22489.9999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>886114.9175325125</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D226" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="F226" t="n">
+        <v>62975.8244</v>
+      </c>
+      <c r="G226" t="n">
+        <v>823139.0931325124</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="C227" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D227" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="E227" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F227" t="n">
+        <v>78931.7651</v>
+      </c>
+      <c r="G227" t="n">
+        <v>744207.3280325125</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C228" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D228" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E228" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="F228" t="n">
+        <v>12038.9554</v>
+      </c>
+      <c r="G228" t="n">
+        <v>756246.2834325124</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="C229" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D229" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E229" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="F229" t="n">
+        <v>13130.08374733854</v>
+      </c>
+      <c r="G229" t="n">
+        <v>756246.2834325124</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C230" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D230" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E230" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F230" t="n">
+        <v>39098.7296</v>
+      </c>
+      <c r="G230" t="n">
+        <v>756246.2834325124</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C231" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D231" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E231" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1330</v>
+      </c>
+      <c r="G231" t="n">
+        <v>756246.2834325124</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C232" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="D232" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E232" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1604.7682</v>
+      </c>
+      <c r="G232" t="n">
+        <v>754641.5152325124</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="D233" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>744641.5152325124</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D234" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F234" t="n">
+        <v>13130.0838</v>
+      </c>
+      <c r="G234" t="n">
+        <v>757771.5990325124</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="C235" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D235" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F235" t="n">
+        <v>26846.24</v>
+      </c>
+      <c r="G235" t="n">
+        <v>784617.8390325124</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C236" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D236" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E236" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F236" t="n">
+        <v>35486</v>
+      </c>
+      <c r="G236" t="n">
+        <v>784617.8390325124</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="C237" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="D237" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2353.2398</v>
+      </c>
+      <c r="G237" t="n">
+        <v>782264.5992325124</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="D238" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="F238" t="n">
+        <v>58798.152</v>
+      </c>
+      <c r="G238" t="n">
+        <v>723466.4472325124</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D239" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8975.2166</v>
+      </c>
+      <c r="G239" t="n">
+        <v>714491.2306325124</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C240" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D240" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5941.6402</v>
+      </c>
+      <c r="G240" t="n">
+        <v>714491.2306325124</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C241" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D241" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E241" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F241" t="n">
+        <v>58643.46</v>
+      </c>
+      <c r="G241" t="n">
+        <v>655847.7706325124</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C242" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="D242" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="F242" t="n">
+        <v>54977.4633</v>
+      </c>
+      <c r="G242" t="n">
+        <v>600870.3073325125</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="C243" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="D243" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="E243" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F243" t="n">
+        <v>89164.99189999999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>511705.3154325124</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C244" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D244" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E244" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F244" t="n">
+        <v>37</v>
+      </c>
+      <c r="G244" t="n">
+        <v>511742.3154325124</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="C245" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D245" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="E245" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5794.8265</v>
+      </c>
+      <c r="G245" t="n">
+        <v>505947.4889325124</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C246" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D246" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E246" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2649.7949</v>
+      </c>
+      <c r="G246" t="n">
+        <v>503297.6940325124</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="C247" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="D247" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="E247" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="F247" t="n">
+        <v>23228.629</v>
+      </c>
+      <c r="G247" t="n">
+        <v>526526.3230325124</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="C248" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D248" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>47022.315</v>
+      </c>
+      <c r="G248" t="n">
+        <v>573548.6380325125</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="C249" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D249" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E249" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100</v>
+      </c>
+      <c r="G249" t="n">
+        <v>573448.6380325125</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="C250" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="D250" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G250" t="n">
+        <v>569198.6380325125</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D251" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E251" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F251" t="n">
+        <v>116414.7897</v>
+      </c>
+      <c r="G251" t="n">
+        <v>452783.8483325125</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C252" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D252" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4240</v>
+      </c>
+      <c r="G252" t="n">
+        <v>457023.8483325125</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="F253" t="n">
+        <v>37</v>
+      </c>
+      <c r="G253" t="n">
+        <v>457060.8483325125</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C254" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D254" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="F254" t="n">
+        <v>24400</v>
+      </c>
+      <c r="G254" t="n">
+        <v>457060.8483325125</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C255" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E255" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="F255" t="n">
+        <v>5445.9639</v>
+      </c>
+      <c r="G255" t="n">
+        <v>457060.8483325125</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C256" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D256" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F256" t="n">
+        <v>40974.606</v>
+      </c>
+      <c r="G256" t="n">
+        <v>416086.2423325125</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="D257" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F257" t="n">
+        <v>886.76</v>
+      </c>
+      <c r="G257" t="n">
+        <v>415199.4823325125</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="C258" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="D258" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="E258" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1.3365</v>
+      </c>
+      <c r="G258" t="n">
+        <v>415199.4823325125</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="C259" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="D259" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="F259" t="n">
+        <v>12284.5641</v>
+      </c>
+      <c r="G259" t="n">
+        <v>402914.9182325125</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D260" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E260" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F260" t="n">
+        <v>131539.2197</v>
+      </c>
+      <c r="G260" t="n">
+        <v>534454.1379325124</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D261" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E261" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2046.1271</v>
+      </c>
+      <c r="G261" t="n">
+        <v>534454.1379325124</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="C262" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="D262" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="E262" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3109.0421</v>
+      </c>
+      <c r="G262" t="n">
+        <v>531345.0958325125</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C263" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D263" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="E263" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F263" t="n">
+        <v>27836.20510174672</v>
+      </c>
+      <c r="G263" t="n">
+        <v>559181.3009342592</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C264" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D264" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="E264" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F264" t="n">
+        <v>24572.4099</v>
+      </c>
+      <c r="G264" t="n">
+        <v>534608.8910342592</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C265" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D265" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F265" t="n">
+        <v>37</v>
+      </c>
+      <c r="G265" t="n">
+        <v>534645.8910342592</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C266" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="F266" t="n">
+        <v>21565.2535</v>
+      </c>
+      <c r="G266" t="n">
+        <v>513080.6375342592</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D267" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E267" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F267" t="n">
+        <v>37</v>
+      </c>
+      <c r="G267" t="n">
+        <v>513117.6375342592</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,24 +785,23 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="J12" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>12.13</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -858,24 +826,23 @@
         <v>-526243.0693999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="J13" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,24 +867,23 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.23</v>
       </c>
       <c r="J14" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,24 +908,21 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,24 +947,21 @@
         <v>-509119.5839999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1026,24 +986,23 @@
         <v>-514749.5839999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="J17" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +1027,21 @@
         <v>-516906.5839999997</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1110,24 +1066,21 @@
         <v>-515517.4287999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1105,21 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1194,24 +1144,21 @@
         <v>-641851.3788999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>12</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1236,24 +1183,21 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1278,24 +1222,21 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1261,21 @@
         <v>-704343.5192999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1362,24 +1300,23 @@
         <v>-704302.5192999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>12.05</v>
       </c>
       <c r="J25" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,24 +1341,21 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1446,24 +1380,21 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1488,24 +1419,21 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1530,24 +1458,21 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1572,24 +1497,23 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J30" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1614,24 +1538,23 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J31" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,24 +1579,23 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J32" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1698,24 +1620,23 @@
         <v>-278380.4592999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J33" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>12.13</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1740,22 +1661,23 @@
         <v>-277420.4592999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,20 +1704,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,20 +1743,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1862,20 +1782,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,20 +1821,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,20 +1860,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1982,20 +1899,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,20 +1938,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2060,22 +1975,23 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>12.24</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2102,20 +2018,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2140,22 +2055,23 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>12.24</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2182,20 +2098,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2222,20 +2137,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2262,20 +2176,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,20 +2215,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,20 +2254,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,20 +2293,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,20 +2332,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2462,20 +2371,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,20 +2410,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,20 +2449,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2582,20 +2488,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2622,20 +2527,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2662,20 +2566,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2702,20 +2605,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2742,20 +2644,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2782,20 +2683,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,20 +2722,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2862,20 +2761,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,20 +2800,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,20 +2839,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,20 +2878,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,20 +2917,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3062,20 +2956,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3102,20 +2995,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3142,20 +3034,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3182,20 +3073,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3222,20 +3112,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,20 +3151,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3302,20 +3190,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3342,20 +3229,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,20 +3268,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3422,20 +3307,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,20 +3346,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,20 +3385,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3542,20 +3424,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,20 +3463,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,20 +3502,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3662,20 +3541,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3702,20 +3580,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3742,20 +3619,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3782,20 +3658,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,20 +3697,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3862,20 +3736,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3902,20 +3775,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3942,20 +3814,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3982,20 +3853,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4022,20 +3892,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4062,20 +3931,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4102,20 +3970,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4142,20 +4009,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4182,20 +4048,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4222,20 +4087,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4262,20 +4126,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4302,20 +4165,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4342,20 +4204,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4382,20 +4243,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4420,22 +4280,21 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4460,22 +4319,21 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4500,22 +4358,21 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4540,22 +4397,21 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,22 +4436,21 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4622,20 +4477,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4662,20 +4516,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4702,20 +4555,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4742,20 +4594,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4782,20 +4633,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4822,20 +4672,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4862,20 +4711,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4902,20 +4750,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4942,20 +4789,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4982,20 +4828,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5022,20 +4867,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5062,20 +4906,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5102,20 +4945,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5142,20 +4984,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5182,20 +5023,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5222,20 +5062,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5262,20 +5101,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5302,20 +5140,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5342,20 +5179,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5382,20 +5218,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5422,20 +5257,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5462,20 +5296,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5502,20 +5335,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5542,20 +5374,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5582,20 +5413,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5622,20 +5452,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5662,20 +5491,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5702,20 +5530,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,20 +5569,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5782,20 +5608,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5822,20 +5647,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5862,20 +5686,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5902,20 +5725,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5942,20 +5764,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5982,20 +5803,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6022,20 +5842,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6062,20 +5881,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6102,20 +5920,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6142,20 +5959,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6182,20 +5998,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,20 +6037,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6262,20 +6076,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6302,20 +6115,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6342,20 +6154,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6382,20 +6193,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6422,20 +6232,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6462,20 +6271,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6502,20 +6310,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6542,20 +6349,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6582,20 +6388,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6622,20 +6427,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6662,20 +6466,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6702,20 +6505,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6740,22 +6542,23 @@
         <v>1142848.798859785</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1.134323990107172</v>
       </c>
       <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>1.026402640264027</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6782,20 +6585,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6820,22 +6616,15 @@
         <v>1253110.049259785</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6862,20 +6651,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6900,20 +6682,15 @@
         <v>1443503.249059785</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L163" t="n">
+        <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6938,18 +6715,15 @@
         <v>1247976.550959785</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6974,18 +6748,15 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7012,16 +6783,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7046,18 +6814,15 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7082,18 +6847,15 @@
         <v>1400740.280359785</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7118,18 +6880,15 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7154,18 +6913,15 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7190,18 +6946,15 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7226,18 +6979,15 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7262,18 +7012,15 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7300,16 +7047,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7336,16 +7080,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7372,16 +7113,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7408,16 +7146,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7442,18 +7177,15 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7480,16 +7212,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7516,16 +7245,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7552,16 +7278,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7588,16 +7311,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7624,16 +7344,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7660,16 +7377,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7696,16 +7410,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7732,16 +7443,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7768,16 +7476,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7804,16 +7509,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7840,16 +7542,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7876,16 +7575,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7912,16 +7608,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7948,16 +7641,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7984,16 +7674,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8020,16 +7707,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8056,16 +7740,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8092,16 +7773,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8128,16 +7806,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8164,16 +7839,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8200,16 +7872,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8236,16 +7905,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8272,16 +7938,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8308,16 +7971,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8344,16 +8004,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8380,16 +8037,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8416,16 +8070,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8452,16 +8103,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8488,16 +8136,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8524,16 +8169,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8560,16 +8202,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8596,16 +8235,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8632,16 +8268,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8668,16 +8301,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8704,16 +8334,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8740,16 +8367,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8776,16 +8400,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8812,16 +8433,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8848,16 +8466,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8884,16 +8499,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8920,16 +8532,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8956,16 +8565,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8992,16 +8598,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9028,16 +8631,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9064,16 +8664,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9100,16 +8697,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9136,16 +8730,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9172,16 +8763,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9208,16 +8796,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9244,16 +8829,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9280,16 +8862,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9316,16 +8895,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9352,16 +8928,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9388,16 +8961,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9424,16 +8994,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9460,16 +9027,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9496,16 +9060,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9532,16 +9093,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9568,16 +9126,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9604,16 +9159,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9640,16 +9192,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9676,16 +9225,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9712,16 +9258,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9748,16 +9291,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9784,16 +9324,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9820,16 +9357,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9856,16 +9390,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9892,16 +9423,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9928,16 +9456,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9964,16 +9489,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10000,16 +9522,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10036,16 +9555,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10072,16 +9588,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10108,16 +9621,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10144,16 +9654,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10180,16 +9687,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10216,16 +9720,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10252,16 +9753,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10288,16 +9786,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10324,16 +9819,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10360,16 +9852,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10396,16 +9885,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10432,16 +9918,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10468,16 +9951,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10504,16 +9984,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10540,16 +10017,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10576,16 +10050,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10612,16 +10083,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10648,18 +10116,15 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,10 +616,14 @@
         <v>-527480.6069999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.24</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -652,8 +656,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +695,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -748,14 +764,10 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,14 +797,12 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>12.12</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -826,14 +836,12 @@
         <v>-526243.0693999997</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>12.12</v>
       </c>
-      <c r="J13" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -867,14 +875,12 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>12.23</v>
       </c>
-      <c r="J14" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -908,12 +914,12 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -947,12 +953,12 @@
         <v>-509119.5839999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -986,14 +992,12 @@
         <v>-514749.5839999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>12.24</v>
       </c>
-      <c r="J17" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1027,12 +1031,12 @@
         <v>-516906.5839999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1066,12 +1070,12 @@
         <v>-515517.4287999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1105,12 +1109,12 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1144,12 +1148,12 @@
         <v>-641851.3788999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1183,12 +1187,12 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1222,12 +1226,12 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1261,12 +1265,12 @@
         <v>-704343.5192999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,14 +1304,12 @@
         <v>-704302.5192999997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>12.05</v>
       </c>
-      <c r="J25" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,12 +1343,12 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,12 +1382,12 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,12 +1421,12 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,12 +1460,12 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1497,14 +1499,12 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>11.9</v>
       </c>
-      <c r="J30" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1538,14 +1538,12 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>11.9</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1579,14 +1577,12 @@
         <v>-705683.0904999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>11.9</v>
       </c>
-      <c r="J32" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,14 +1616,12 @@
         <v>-278380.4592999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>11.9</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1661,14 +1655,10 @@
         <v>-277420.4592999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J34" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1705,9 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1744,9 +1732,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,12 +1766,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,12 +1805,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1858,12 +1844,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1897,12 +1883,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,12 +1922,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,14 +1961,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>12.24</v>
       </c>
-      <c r="J42" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2019,9 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2055,14 +2037,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>12.24</v>
       </c>
-      <c r="J44" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,12 +2076,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,9 +2118,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,12 +2152,12 @@
         <v>-183401.8061999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2216,9 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2255,9 +2231,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2294,9 +2268,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2333,9 +2305,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,9 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2411,9 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,9 +2416,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2489,9 +2453,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,9 +2490,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,12 +2524,12 @@
         <v>-180248.2634999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,9 +2566,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,9 +2603,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,9 +2640,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,9 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,9 +2714,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,9 +2751,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,9 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,9 +2862,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,9 +2899,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,9 +2936,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3035,9 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,9 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,9 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3152,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3191,9 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,9 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,9 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,9 +3269,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,9 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,9 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3417,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,9 +3491,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,9 +3528,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3565,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,9 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,9 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,9 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,9 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,9 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,9 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,9 +3898,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,9 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,9 +3972,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,9 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,9 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,9 +4120,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,12 +4154,10 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,12 +4191,10 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,12 +4228,10 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,12 +4265,10 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,12 +4302,10 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,9 +4342,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,9 +4379,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,9 +4416,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,9 +4453,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,9 +4490,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,9 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,9 +4564,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,9 +4601,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,9 +4638,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,9 +4675,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,9 +4712,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,9 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,9 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,9 +4823,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,9 +4860,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,9 +4897,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,9 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,9 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,9 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +5045,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,9 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,9 +5119,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,9 +5156,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,9 +5193,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5230,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,9 +5304,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,9 +5341,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,9 +5378,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,9 +5415,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,9 +5452,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,9 +5489,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,9 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,9 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,9 +5600,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,9 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,9 +5674,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,9 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,9 +5748,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,9 +5785,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,9 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,9 +5859,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,9 +5896,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,9 +5933,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,9 +5970,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6233,9 +6007,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,9 +6044,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,9 +6081,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,9 +6118,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,9 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,9 +6192,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,9 +6229,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,9 +6266,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,23 +6300,19 @@
         <v>1142848.798859785</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12.13</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.134323990107172</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1.026402640264027</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6587,7 +6341,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6616,11 +6374,15 @@
         <v>1253110.049259785</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6415,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +6448,15 @@
         <v>1443503.249059785</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +6485,15 @@
         <v>1247976.550959785</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +6522,15 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6785,7 +6563,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6814,11 +6596,15 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6847,11 +6633,15 @@
         <v>1400740.280359785</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6880,14 +6670,16 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -6913,7 +6705,7 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6946,7 +6738,7 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6979,7 +6771,7 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7012,7 +6804,7 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7045,7 +6837,7 @@
         <v>1401457.824259785</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7078,7 +6870,7 @@
         <v>1393857.824259785</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7111,7 +6903,7 @@
         <v>1389517.824259785</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7144,7 +6936,7 @@
         <v>1383384.303259785</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7177,7 +6969,7 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7210,7 +7002,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7243,7 +7035,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7276,7 +7068,7 @@
         <v>1201631.525259785</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7309,7 +7101,7 @@
         <v>1179200.784259785</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7342,7 +7134,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7375,7 +7167,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7408,7 +7200,7 @@
         <v>1184378.302659785</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7441,7 +7233,7 @@
         <v>1160326.529159785</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7474,7 +7266,7 @@
         <v>1169656.529159785</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7507,7 +7299,7 @@
         <v>1109905.176659785</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7540,7 +7332,7 @@
         <v>931486.0912597852</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7573,7 +7365,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7606,7 +7398,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7639,7 +7431,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7705,7 +7497,7 @@
         <v>917318.3626597852</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7870,7 +7662,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7936,7 +7728,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7969,7 +7761,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8002,7 +7794,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8167,7 +7959,7 @@
         <v>1029781.059959785</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8233,7 +8025,7 @@
         <v>1119620.461859785</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8431,7 +8223,7 @@
         <v>955222.2621325125</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8497,7 +8289,7 @@
         <v>850250.2847325125</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8530,7 +8322,7 @@
         <v>850286.2847325125</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8563,7 +8355,7 @@
         <v>913686.2847325125</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8596,7 +8388,7 @@
         <v>908532.9174325125</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8662,7 +8454,7 @@
         <v>908532.9174325125</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8695,7 +8487,7 @@
         <v>908604.9174325125</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8728,7 +8520,7 @@
         <v>886114.9175325125</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8761,7 +8553,7 @@
         <v>823139.0931325124</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8794,7 +8586,7 @@
         <v>744207.3280325125</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8827,7 +8619,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8860,7 +8652,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8893,7 +8685,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8926,7 +8718,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8959,7 +8751,7 @@
         <v>754641.5152325124</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8992,7 +8784,7 @@
         <v>744641.5152325124</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9025,7 +8817,7 @@
         <v>757771.5990325124</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9058,7 +8850,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9091,7 +8883,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9124,7 +8916,7 @@
         <v>782264.5992325124</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9157,7 +8949,7 @@
         <v>723466.4472325124</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9190,7 +8982,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9223,7 +9015,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9256,7 +9048,7 @@
         <v>655847.7706325124</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9289,7 +9081,7 @@
         <v>600870.3073325125</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9322,7 +9114,7 @@
         <v>511705.3154325124</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9355,7 +9147,7 @@
         <v>511742.3154325124</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9388,7 +9180,7 @@
         <v>505947.4889325124</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9421,7 +9213,7 @@
         <v>503297.6940325124</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9454,7 +9246,7 @@
         <v>526526.3230325124</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9487,7 +9279,7 @@
         <v>573548.6380325125</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9520,7 +9312,7 @@
         <v>573448.6380325125</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9553,7 +9345,7 @@
         <v>569198.6380325125</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9586,7 +9378,7 @@
         <v>452783.8483325125</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9619,7 +9411,7 @@
         <v>457023.8483325125</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9652,7 +9444,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9685,7 +9477,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9718,7 +9510,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9751,7 +9543,7 @@
         <v>416086.2423325125</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9784,7 +9576,7 @@
         <v>415199.4823325125</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9817,7 +9609,7 @@
         <v>415199.4823325125</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9850,7 +9642,7 @@
         <v>402914.9182325125</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9883,7 +9675,7 @@
         <v>534454.1379325124</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9916,7 +9708,7 @@
         <v>534454.1379325124</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9949,7 +9741,7 @@
         <v>531345.0958325125</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9982,7 +9774,7 @@
         <v>559181.3009342592</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10015,7 +9807,7 @@
         <v>534608.8910342592</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10048,7 +9840,7 @@
         <v>534645.8910342592</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10081,7 +9873,7 @@
         <v>513080.6375342592</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10114,7 +9906,7 @@
         <v>513117.6375342592</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10125,6 +9917,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-527480.6069999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -695,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,10 +748,14 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -802,7 +790,9 @@
       <c r="I12" t="n">
         <v>12.12</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -841,7 +831,9 @@
       <c r="I13" t="n">
         <v>12.12</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,12 +867,12 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -919,7 +911,9 @@
       <c r="I15" t="n">
         <v>12.12</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -953,12 +947,12 @@
         <v>-509119.5839999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -992,12 +986,12 @@
         <v>-514749.5839999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1031,12 +1025,12 @@
         <v>-516906.5839999997</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1075,7 +1069,9 @@
       <c r="I19" t="n">
         <v>12.05</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,12 +1105,12 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1148,12 +1144,12 @@
         <v>-641851.3788999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1192,7 +1188,9 @@
       <c r="I22" t="n">
         <v>12.12</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1231,7 +1229,9 @@
       <c r="I23" t="n">
         <v>12.01</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1270,7 +1270,9 @@
       <c r="I24" t="n">
         <v>12.01</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,7 +1311,9 @@
       <c r="I25" t="n">
         <v>12.05</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1343,12 +1347,12 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,12 +1386,12 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,12 +1425,12 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1465,7 +1469,9 @@
       <c r="I29" t="n">
         <v>12.05</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1504,7 +1510,9 @@
       <c r="I30" t="n">
         <v>11.9</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1543,7 +1551,9 @@
       <c r="I31" t="n">
         <v>11.9</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,7 +1592,9 @@
       <c r="I32" t="n">
         <v>11.9</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1621,7 +1633,9 @@
       <c r="I33" t="n">
         <v>11.9</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,7 +1672,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1695,7 +1711,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,7 +1750,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1766,12 +1786,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1805,12 +1825,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1844,12 +1864,12 @@
         <v>-208119.2487999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1883,12 +1903,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,12 +1942,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,12 +1981,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2003,7 +2023,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2037,12 +2059,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2076,12 +2098,12 @@
         <v>-200243.7612999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,7 +2140,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2152,12 +2176,12 @@
         <v>-183401.8061999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2194,7 +2218,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2231,7 +2257,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,7 +2296,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2305,7 +2335,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,7 +2374,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2379,7 +2413,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,7 +2452,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2453,7 +2491,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,7 +2530,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2524,12 +2566,12 @@
         <v>-180248.2634999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2566,7 +2608,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,7 +2647,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,7 +2686,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2677,7 +2725,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,7 +2764,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,7 +2803,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,7 +2842,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,7 +2881,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,7 +2920,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,7 +2959,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,7 +2998,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,19 +3034,23 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>1.074967023907667</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.026402640264027</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3007,15 +3075,11 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3044,15 +3108,11 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3081,15 +3141,11 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3118,15 +3174,11 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3155,15 +3207,11 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3192,15 +3240,11 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3229,15 +3273,11 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3266,15 +3306,11 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3303,15 +3339,11 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3340,15 +3372,11 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3377,15 +3405,11 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3414,15 +3438,11 @@
         <v>782591.7176000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3451,15 +3471,11 @@
         <v>660781.2031</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3508,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3529,11 +3541,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3562,15 +3570,11 @@
         <v>679565.1357</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3599,15 +3603,11 @@
         <v>729220.2613</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3636,15 +3636,11 @@
         <v>729220.2613</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3673,15 +3669,11 @@
         <v>801584.4235</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3710,15 +3702,11 @@
         <v>1084648.534130786</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3739,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3772,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3825,11 +3805,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3862,11 +3838,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3871,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +3904,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3973,11 +3937,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4010,11 +3970,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +4003,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4080,15 +4032,11 @@
         <v>1146224.2663</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4117,15 +4065,11 @@
         <v>1149274.2663</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4154,15 +4098,11 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4191,15 +4131,11 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4228,15 +4164,11 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4265,15 +4197,11 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4302,15 +4230,11 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4339,15 +4263,11 @@
         <v>1221194.6404</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4376,15 +4296,11 @@
         <v>1160450.7281</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4413,15 +4329,11 @@
         <v>1169368.7281</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4450,15 +4362,11 @@
         <v>1169368.7281</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4487,15 +4395,11 @@
         <v>829483.6952</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4524,15 +4428,11 @@
         <v>861430.6431</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4465,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4598,15 +4494,11 @@
         <v>918208.7108</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4635,15 +4527,11 @@
         <v>916252.9992</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4672,15 +4560,11 @@
         <v>916252.9992</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +4597,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4746,15 +4626,11 @@
         <v>883131.5969</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4783,15 +4659,11 @@
         <v>883131.5969</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4820,15 +4692,11 @@
         <v>883131.5969</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +4729,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +4762,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4795,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4828,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5009,11 +4861,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5046,11 +4894,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +4927,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5120,11 +4960,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +4993,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +5026,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +5059,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5092,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5125,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +5158,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5379,11 +5191,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5416,11 +5224,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5257,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5290,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5323,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5356,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5389,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5422,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5455,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5488,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5521,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5554,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5587,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5620,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5653,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5686,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +5719,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5752,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +5785,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5818,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +5851,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +5884,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +5917,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +5950,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +5983,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +6016,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +6049,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +6082,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +6115,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6148,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6181,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +6214,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6247,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6280,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6313,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6670,16 +6342,14 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -6705,7 +6375,7 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6738,7 +6408,7 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6771,7 +6441,7 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6804,7 +6474,7 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6837,7 +6507,7 @@
         <v>1401457.824259785</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6870,7 +6540,7 @@
         <v>1393857.824259785</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6903,7 +6573,7 @@
         <v>1389517.824259785</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6936,7 +6606,7 @@
         <v>1383384.303259785</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6969,7 +6639,7 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7002,7 +6672,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7035,7 +6705,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7068,7 +6738,7 @@
         <v>1201631.525259785</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7101,7 +6771,7 @@
         <v>1179200.784259785</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7134,7 +6804,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7167,7 +6837,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7200,7 +6870,7 @@
         <v>1184378.302659785</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7233,7 +6903,7 @@
         <v>1160326.529159785</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7266,7 +6936,7 @@
         <v>1169656.529159785</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7497,7 +7167,7 @@
         <v>917318.3626597852</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7662,7 +7332,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7728,7 +7398,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7761,7 +7431,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7794,7 +7464,7 @@
         <v>889266.7605597852</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7959,7 +7629,7 @@
         <v>1029781.059959785</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8025,7 +7695,7 @@
         <v>1119620.461859785</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8223,7 +7893,7 @@
         <v>955222.2621325125</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8289,7 +7959,7 @@
         <v>850250.2847325125</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8322,7 +7992,7 @@
         <v>850286.2847325125</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8355,7 +8025,7 @@
         <v>913686.2847325125</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8388,7 +8058,7 @@
         <v>908532.9174325125</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8454,7 +8124,7 @@
         <v>908532.9174325125</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8487,7 +8157,7 @@
         <v>908604.9174325125</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8520,7 +8190,7 @@
         <v>886114.9175325125</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8553,7 +8223,7 @@
         <v>823139.0931325124</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8586,7 +8256,7 @@
         <v>744207.3280325125</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8619,7 +8289,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8652,7 +8322,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8685,7 +8355,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8718,7 +8388,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8751,7 +8421,7 @@
         <v>754641.5152325124</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8784,7 +8454,7 @@
         <v>744641.5152325124</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8817,7 +8487,7 @@
         <v>757771.5990325124</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8850,7 +8520,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8883,7 +8553,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8916,7 +8586,7 @@
         <v>782264.5992325124</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8949,7 +8619,7 @@
         <v>723466.4472325124</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8982,7 +8652,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9015,7 +8685,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9048,7 +8718,7 @@
         <v>655847.7706325124</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9081,7 +8751,7 @@
         <v>600870.3073325125</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9114,7 +8784,7 @@
         <v>511705.3154325124</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9147,7 +8817,7 @@
         <v>511742.3154325124</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9180,7 +8850,7 @@
         <v>505947.4889325124</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9213,7 +8883,7 @@
         <v>503297.6940325124</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9246,7 +8916,7 @@
         <v>526526.3230325124</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9279,7 +8949,7 @@
         <v>573548.6380325125</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9312,7 +8982,7 @@
         <v>573448.6380325125</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9345,7 +9015,7 @@
         <v>569198.6380325125</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9378,7 +9048,7 @@
         <v>452783.8483325125</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9411,7 +9081,7 @@
         <v>457023.8483325125</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9444,7 +9114,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9477,7 +9147,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9510,7 +9180,7 @@
         <v>457060.8483325125</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9543,7 +9213,7 @@
         <v>416086.2423325125</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9576,7 +9246,7 @@
         <v>415199.4823325125</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9609,7 +9279,7 @@
         <v>415199.4823325125</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9642,7 +9312,7 @@
         <v>402914.9182325125</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9675,7 +9345,7 @@
         <v>534454.1379325124</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9708,7 +9378,7 @@
         <v>534454.1379325124</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9741,7 +9411,7 @@
         <v>531345.0958325125</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9774,7 +9444,7 @@
         <v>559181.3009342592</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9807,7 +9477,7 @@
         <v>534608.8910342592</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9840,7 +9510,7 @@
         <v>534645.8910342592</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9873,7 +9543,7 @@
         <v>513080.6375342592</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9906,7 +9576,7 @@
         <v>513117.6375342592</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9917,6 +9587,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CMT.xlsx
+++ b/BackTest/2020-01-16 BackTest CMT.xlsx
@@ -748,14 +748,10 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,140 +781,122 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-526243.0693999997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>12.12</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>429.0539</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-526672.1232999997</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37035</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-526672.1232999997</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-526243.0693999997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>429.0539</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-526672.1232999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F15" t="n">
-        <v>37035</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-526672.1232999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -947,11 +925,13 @@
         <v>-509119.5839999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.12</v>
+      </c>
       <c r="J16" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -986,11 +966,13 @@
         <v>-514749.5839999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.24</v>
+      </c>
       <c r="J17" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1029,7 +1011,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1070,7 +1052,7 @@
         <v>12.05</v>
       </c>
       <c r="J19" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1105,11 +1087,13 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.09</v>
+      </c>
       <c r="J20" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1148,7 +1132,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1183,13 +1167,11 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1230,7 +1212,7 @@
         <v>12.01</v>
       </c>
       <c r="J23" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1271,7 +1253,7 @@
         <v>12.01</v>
       </c>
       <c r="J24" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1312,7 +1294,7 @@
         <v>12.05</v>
       </c>
       <c r="J25" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1347,11 +1329,13 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.21</v>
+      </c>
       <c r="J26" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1390,7 +1374,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1425,11 +1409,13 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.05</v>
+      </c>
       <c r="J28" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1470,7 +1456,7 @@
         <v>12.05</v>
       </c>
       <c r="J29" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1511,7 +1497,7 @@
         <v>11.9</v>
       </c>
       <c r="J30" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1552,7 +1538,7 @@
         <v>11.9</v>
       </c>
       <c r="J31" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1593,7 +1579,7 @@
         <v>11.9</v>
       </c>
       <c r="J32" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1634,7 +1620,7 @@
         <v>11.9</v>
       </c>
       <c r="J33" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1673,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1712,7 +1698,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1751,7 +1737,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1790,7 +1776,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1829,7 +1815,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1868,7 +1854,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1907,7 +1893,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1946,7 +1932,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1985,7 +1971,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2024,7 +2010,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2063,7 +2049,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2102,7 +2088,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2141,7 +2127,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2180,7 +2166,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2219,7 +2205,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2258,7 +2244,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2297,7 +2283,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2336,7 +2322,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2375,7 +2361,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2414,7 +2400,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2453,7 +2439,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2492,7 +2478,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2531,7 +2517,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2570,7 +2556,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2609,7 +2595,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2648,7 +2634,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2687,7 +2673,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2726,7 +2712,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2765,7 +2751,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2804,7 +2790,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2843,7 +2829,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2882,7 +2868,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2921,7 +2907,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2960,7 +2946,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2999,7 +2985,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3034,782 +3020,920 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>12.13</v>
+        <v>12.23</v>
       </c>
       <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>112271.0655</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-31999.96049999986</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="C71" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D71" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-27999.96049999986</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-27999.96049999986</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50642</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22642.03950000014</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>62603</v>
+      </c>
+      <c r="G74" t="n">
+        <v>22642.03950000014</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="C75" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22642.03950000014</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="C76" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="F76" t="n">
+        <v>256477.1964</v>
+      </c>
+      <c r="G76" t="n">
+        <v>279119.2359000001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="C77" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D77" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E77" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5304</v>
+      </c>
+      <c r="G77" t="n">
+        <v>279119.2359000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="C78" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E78" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="F78" t="n">
+        <v>21565.2535</v>
+      </c>
+      <c r="G78" t="n">
+        <v>279119.2359000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F79" t="n">
+        <v>385574.4126</v>
+      </c>
+      <c r="G79" t="n">
+        <v>664693.6485000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>61387.2739</v>
+      </c>
+      <c r="G80" t="n">
+        <v>664693.6485000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="D81" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>117898.0691</v>
+      </c>
+      <c r="G81" t="n">
+        <v>782591.7176000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="C82" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D82" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="F82" t="n">
+        <v>121810.5145</v>
+      </c>
+      <c r="G82" t="n">
+        <v>660781.2031</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="C83" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D83" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="F83" t="n">
+        <v>25876.6914</v>
+      </c>
+      <c r="G83" t="n">
+        <v>660781.2031</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D84" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F84" t="n">
+        <v>63710.0416</v>
+      </c>
+      <c r="G84" t="n">
+        <v>724491.2447</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>44926.109</v>
+      </c>
+      <c r="G85" t="n">
+        <v>679565.1357</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>49655.1256</v>
+      </c>
+      <c r="G86" t="n">
+        <v>729220.2613</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C87" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13671.9424</v>
+      </c>
+      <c r="G87" t="n">
+        <v>729220.2613</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="F88" t="n">
+        <v>72364.16220000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>801584.4235</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C89" t="n">
+        <v>14</v>
+      </c>
+      <c r="D89" t="n">
+        <v>14</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F89" t="n">
+        <v>283064.1106307857</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1084648.534130786</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>14</v>
+      </c>
+      <c r="C90" t="n">
+        <v>14</v>
+      </c>
+      <c r="D90" t="n">
+        <v>14</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15623.6632</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1084648.534130786</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>14</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>26182.9914</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1084648.534130786</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>14</v>
+      </c>
+      <c r="C92" t="n">
+        <v>14</v>
+      </c>
+      <c r="D92" t="n">
+        <v>14</v>
+      </c>
+      <c r="E92" t="n">
+        <v>14</v>
+      </c>
+      <c r="F92" t="n">
+        <v>238443.0081</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1084648.534130786</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1.074967023907667</v>
-      </c>
-      <c r="M69" t="n">
+      <c r="L92" t="n">
+        <v>1.139726083401472</v>
+      </c>
+      <c r="M92" t="n">
         <v>1.026402640264027</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>112271.0655</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-31999.96049999986</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="C71" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="D71" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E71" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-27999.96049999986</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C72" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="D72" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="F72" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-27999.96049999986</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="F73" t="n">
-        <v>50642</v>
-      </c>
-      <c r="G73" t="n">
-        <v>22642.03950000014</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D74" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="E74" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="F74" t="n">
-        <v>62603</v>
-      </c>
-      <c r="G74" t="n">
-        <v>22642.03950000014</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="C75" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D75" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="E75" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G75" t="n">
-        <v>22642.03950000014</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="C76" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="D76" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="E76" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="F76" t="n">
-        <v>256477.1964</v>
-      </c>
-      <c r="G76" t="n">
-        <v>279119.2359000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="D77" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="E77" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5304</v>
-      </c>
-      <c r="G77" t="n">
-        <v>279119.2359000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="C78" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="D78" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="E78" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="F78" t="n">
-        <v>21565.2535</v>
-      </c>
-      <c r="G78" t="n">
-        <v>279119.2359000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="C79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="F79" t="n">
-        <v>385574.4126</v>
-      </c>
-      <c r="G79" t="n">
-        <v>664693.6485000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="C80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>61387.2739</v>
-      </c>
-      <c r="G80" t="n">
-        <v>664693.6485000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C81" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="D81" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E81" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>117898.0691</v>
-      </c>
-      <c r="G81" t="n">
-        <v>782591.7176000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="C82" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D82" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="E82" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="F82" t="n">
-        <v>121810.5145</v>
-      </c>
-      <c r="G82" t="n">
-        <v>660781.2031</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="C83" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D83" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="E83" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="F83" t="n">
-        <v>25876.6914</v>
-      </c>
-      <c r="G83" t="n">
-        <v>660781.2031</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="C84" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="D84" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="E84" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="F84" t="n">
-        <v>63710.0416</v>
-      </c>
-      <c r="G84" t="n">
-        <v>724491.2447</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>44926.109</v>
-      </c>
-      <c r="G85" t="n">
-        <v>679565.1357</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="C86" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="D86" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E86" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>49655.1256</v>
-      </c>
-      <c r="G86" t="n">
-        <v>729220.2613</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="C87" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="D87" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E87" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F87" t="n">
-        <v>13671.9424</v>
-      </c>
-      <c r="G87" t="n">
-        <v>729220.2613</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="C88" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D88" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="E88" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F88" t="n">
-        <v>72364.16220000001</v>
-      </c>
-      <c r="G88" t="n">
-        <v>801584.4235</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="C89" t="n">
-        <v>14</v>
-      </c>
-      <c r="D89" t="n">
-        <v>14</v>
-      </c>
-      <c r="E89" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="F89" t="n">
-        <v>283064.1106307857</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1084648.534130786</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>14</v>
-      </c>
-      <c r="C90" t="n">
-        <v>14</v>
-      </c>
-      <c r="D90" t="n">
-        <v>14</v>
-      </c>
-      <c r="E90" t="n">
-        <v>14</v>
-      </c>
-      <c r="F90" t="n">
-        <v>15623.6632</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1084648.534130786</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>14</v>
-      </c>
-      <c r="D91" t="n">
-        <v>14</v>
-      </c>
-      <c r="E91" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>26182.9914</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1084648.534130786</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>14</v>
-      </c>
-      <c r="C92" t="n">
-        <v>14</v>
-      </c>
-      <c r="D92" t="n">
-        <v>14</v>
-      </c>
-      <c r="E92" t="n">
-        <v>14</v>
-      </c>
-      <c r="F92" t="n">
-        <v>238443.0081</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1084648.534130786</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3834,7 +3958,7 @@
         <v>1281228.5089</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3867,7 +3991,7 @@
         <v>1153324.0607</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4032,7 +4156,7 @@
         <v>1146224.2663</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4065,7 +4189,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4098,7 +4222,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4131,7 +4255,7 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4164,7 +4288,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4197,7 +4321,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4230,7 +4354,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4263,7 +4387,7 @@
         <v>1221194.6404</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4296,7 +4420,7 @@
         <v>1160450.7281</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4329,7 +4453,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4362,7 +4486,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4395,7 +4519,7 @@
         <v>829483.6952</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4428,7 +4552,7 @@
         <v>861430.6431</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4494,7 +4618,7 @@
         <v>918208.7108</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4527,7 +4651,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4560,7 +4684,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4626,7 +4750,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4659,7 +4783,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4692,7 +4816,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6144,7 +6268,7 @@
         <v>1443503.249059785</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6177,7 +6301,7 @@
         <v>1247976.550959785</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6210,7 +6334,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6243,7 +6367,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6276,7 +6400,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6309,7 +6433,7 @@
         <v>1400740.280359785</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6342,7 +6466,7 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6375,7 +6499,7 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6408,7 +6532,7 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6441,7 +6565,7 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6474,7 +6598,7 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6507,7 +6631,7 @@
         <v>1401457.824259785</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6540,7 +6664,7 @@
         <v>1393857.824259785</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6573,7 +6697,7 @@
         <v>1389517.824259785</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6606,7 +6730,7 @@
         <v>1383384.303259785</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6639,7 +6763,7 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6672,7 +6796,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6705,7 +6829,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6771,7 +6895,7 @@
         <v>1179200.784259785</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6870,7 +6994,7 @@
         <v>1184378.302659785</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6903,7 +7027,7 @@
         <v>1160326.529159785</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6936,7 +7060,7 @@
         <v>1169656.529159785</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7068,7 +7192,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7101,7 +7225,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8454,7 +8578,7 @@
         <v>744641.5152325124</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8553,7 +8677,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8586,7 +8710,7 @@
         <v>782264.5992325124</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8619,7 +8743,7 @@
         <v>723466.4472325124</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8652,7 +8776,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8784,7 +8908,7 @@
         <v>511705.3154325124</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
